--- a/result/NCDC_weather_data/stations_imputed/59997099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/59997099999.xlsx
@@ -551,7 +551,9 @@
       <c r="G2" t="n">
         <v>180.5</v>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>151.2189587852495</v>
+      </c>
       <c r="I2" t="n">
         <v>100.87</v>
       </c>

--- a/result/NCDC_weather_data/stations_imputed/59997099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/59997099999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R463"/>
+  <dimension ref="A1:S463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>SNDP</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -552,7 +557,7 @@
         <v>180.5</v>
       </c>
       <c r="H2" t="n">
-        <v>151.2189587852495</v>
+        <v>66.23275488069415</v>
       </c>
       <c r="I2" t="n">
         <v>100.87</v>
@@ -580,6 +585,9 @@
         <v>0.000508</v>
       </c>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>3.234371015677087</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -608,7 +616,7 @@
         <v>177.08</v>
       </c>
       <c r="H3" t="n">
-        <v>-18.22</v>
+        <v>-27.9</v>
       </c>
       <c r="I3" t="n">
         <v>100.74</v>
@@ -636,6 +644,9 @@
         <v>0</v>
       </c>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>0.00596901158983993</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -664,7 +675,7 @@
         <v>177.62</v>
       </c>
       <c r="H4" t="n">
-        <v>-17.5</v>
+        <v>-27.5</v>
       </c>
       <c r="I4" t="n">
         <v>100.69</v>
@@ -692,6 +703,9 @@
         <v>0.014986</v>
       </c>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>0.006113013250582671</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -720,7 +734,7 @@
         <v>181.94</v>
       </c>
       <c r="H5" t="n">
-        <v>8.149999999999999</v>
+        <v>-13.25</v>
       </c>
       <c r="I5" t="n">
         <v>100.88</v>
@@ -748,6 +762,9 @@
         <v>0</v>
       </c>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>0.02997570740474152</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -776,7 +793,7 @@
         <v>183.74</v>
       </c>
       <c r="H6" t="n">
-        <v>33.8</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>100.98</v>
@@ -804,6 +821,9 @@
         <v>0</v>
       </c>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>0.05383840155890036</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -832,7 +852,7 @@
         <v>184.1</v>
       </c>
       <c r="H7" t="n">
-        <v>9.68</v>
+        <v>-12.4</v>
       </c>
       <c r="I7" t="n">
         <v>100.99</v>
@@ -860,6 +880,9 @@
         <v>0</v>
       </c>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>0.01924265309587984</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -888,7 +911,7 @@
         <v>185</v>
       </c>
       <c r="H8" t="n">
-        <v>9.859999999999999</v>
+        <v>-12.3</v>
       </c>
       <c r="I8" t="n">
         <v>100.93</v>
@@ -916,6 +939,9 @@
         <v>0</v>
       </c>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>0.01899256841027718</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -944,7 +970,7 @@
         <v>182.48</v>
       </c>
       <c r="H9" t="n">
-        <v>33.62</v>
+        <v>0.9</v>
       </c>
       <c r="I9" t="n">
         <v>100.84</v>
@@ -972,6 +998,9 @@
         <v>0</v>
       </c>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>0.05506833466577808</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1000,7 +1029,7 @@
         <v>185</v>
       </c>
       <c r="H10" t="n">
-        <v>9.859999999999999</v>
+        <v>-12.3</v>
       </c>
       <c r="I10" t="n">
         <v>100.94</v>
@@ -1028,6 +1057,9 @@
         <v>0</v>
       </c>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>0.01899256841027718</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1056,7 +1088,7 @@
         <v>183.74</v>
       </c>
       <c r="H11" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I11" t="n">
         <v>100.87</v>
@@ -1084,6 +1116,9 @@
         <v>0</v>
       </c>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>0.304450003188203</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1112,7 +1147,7 @@
         <v>180.68</v>
       </c>
       <c r="H12" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I12" t="n">
         <v>100.86</v>
@@ -1140,6 +1175,9 @@
         <v>0</v>
       </c>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>0.3273915160534915</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1168,7 +1206,7 @@
         <v>181.22</v>
       </c>
       <c r="H13" t="n">
-        <v>75.02000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="I13" t="n">
         <v>100.99</v>
@@ -1196,6 +1234,9 @@
         <v>0</v>
       </c>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>0.2668564862075004</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1224,7 +1265,7 @@
         <v>180.86</v>
       </c>
       <c r="H14" t="n">
-        <v>68.18000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="I14" t="n">
         <v>101.09</v>
@@ -1252,6 +1293,9 @@
         <v>0</v>
       </c>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>0.2063214563615093</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1280,7 +1324,7 @@
         <v>179.24</v>
       </c>
       <c r="H15" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I15" t="n">
         <v>100.9</v>
@@ -1308,6 +1352,9 @@
         <v>0</v>
       </c>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>0.3389012794011527</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1336,7 +1383,7 @@
         <v>183.74</v>
       </c>
       <c r="H16" t="n">
-        <v>24.08</v>
+        <v>-4.4</v>
       </c>
       <c r="I16" t="n">
         <v>100.91</v>
@@ -1364,6 +1411,9 @@
         <v>0</v>
       </c>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>0.03618149037013989</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1392,7 +1442,7 @@
         <v>182.66</v>
       </c>
       <c r="H17" t="n">
-        <v>65.84</v>
+        <v>18.8</v>
       </c>
       <c r="I17" t="n">
         <v>101.06</v>
@@ -1420,6 +1470,9 @@
         <v>0</v>
       </c>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>0.1823107337839381</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1448,7 +1501,7 @@
         <v>185</v>
       </c>
       <c r="H18" t="n">
-        <v>34.7</v>
+        <v>1.5</v>
       </c>
       <c r="I18" t="n">
         <v>100.99</v>
@@ -1476,6 +1529,9 @@
         <v>0</v>
       </c>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>0.0541786905685321</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1504,7 +1560,7 @@
         <v>184.28</v>
       </c>
       <c r="H19" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I19" t="n">
         <v>100.91</v>
@@ -1532,6 +1588,9 @@
         <v>0</v>
       </c>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>0.3006041271853972</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1560,7 +1619,7 @@
         <v>185</v>
       </c>
       <c r="H20" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I20" t="n">
         <v>100.94</v>
@@ -1588,6 +1647,9 @@
         <v>0</v>
       </c>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>0.2955664893315037</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1616,7 +1678,7 @@
         <v>185.72</v>
       </c>
       <c r="H21" t="n">
-        <v>44.96</v>
+        <v>7.2</v>
       </c>
       <c r="I21" t="n">
         <v>100.95</v>
@@ -1644,6 +1706,9 @@
         <v>0</v>
       </c>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>0.07941882054344121</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1672,7 +1737,7 @@
         <v>188.06</v>
       </c>
       <c r="H22" t="n">
-        <v>63.41</v>
+        <v>17.45</v>
       </c>
       <c r="I22" t="n">
         <v>100.84</v>
@@ -1700,6 +1765,9 @@
         <v>0</v>
       </c>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>0.1900114738644192</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1728,7 +1796,7 @@
         <v>184.28</v>
       </c>
       <c r="H23" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I23" t="n">
         <v>100.93</v>
@@ -1756,6 +1824,9 @@
         <v>0</v>
       </c>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>0.3006041271853972</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1784,7 +1855,7 @@
         <v>180.32</v>
       </c>
       <c r="H24" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I24" t="n">
         <v>100.93</v>
@@ -1812,6 +1883,9 @@
         <v>0</v>
       </c>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>0.3302245128854785</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1840,7 +1914,7 @@
         <v>173.48</v>
       </c>
       <c r="H25" t="n">
-        <v>36.68</v>
+        <v>2.6</v>
       </c>
       <c r="I25" t="n">
         <v>101.01</v>
@@ -1868,6 +1942,9 @@
         <v>0</v>
       </c>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>0.07733867066012975</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1896,7 +1973,7 @@
         <v>180.32</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.32</v>
+        <v>-22.4</v>
       </c>
       <c r="I26" t="n">
         <v>101.18</v>
@@ -1924,6 +2001,9 @@
         <v>0</v>
       </c>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>0.00906849711034453</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1952,7 +2032,7 @@
         <v>184.28</v>
       </c>
       <c r="H27" t="n">
-        <v>-5.259999999999998</v>
+        <v>-20.7</v>
       </c>
       <c r="I27" t="n">
         <v>101.25</v>
@@ -1980,6 +2060,9 @@
         <v>0</v>
       </c>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>0.00957650098390498</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2008,7 +2091,7 @@
         <v>185.72</v>
       </c>
       <c r="H28" t="n">
-        <v>28.67</v>
+        <v>-1.849999999999998</v>
       </c>
       <c r="I28" t="n">
         <v>101.15</v>
@@ -2036,6 +2119,9 @@
         <v>0</v>
       </c>
       <c r="R28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>0.08548503911528235</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2064,7 +2150,7 @@
         <v>183.02</v>
       </c>
       <c r="H29" t="n">
-        <v>62.6</v>
+        <v>17</v>
       </c>
       <c r="I29" t="n">
         <v>101.04</v>
@@ -2092,6 +2178,9 @@
         <v>0</v>
       </c>
       <c r="R29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>0.1613935772466597</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2120,7 +2209,7 @@
         <v>184.28</v>
       </c>
       <c r="H30" t="n">
-        <v>54.86</v>
+        <v>12.7</v>
       </c>
       <c r="I30" t="n">
         <v>101.04</v>
@@ -2148,6 +2237,9 @@
         <v>0</v>
       </c>
       <c r="R30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>0.1187378038224144</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2176,7 +2268,7 @@
         <v>183.38</v>
       </c>
       <c r="H31" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I31" t="n">
         <v>101.1</v>
@@ -2204,6 +2296,9 @@
         <v>0</v>
       </c>
       <c r="R31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>0.3070467034261695</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2232,7 +2327,7 @@
         <v>181.4</v>
       </c>
       <c r="H32" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I32" t="n">
         <v>101.06</v>
@@ -2260,6 +2355,9 @@
         <v>0</v>
       </c>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>0.3218123217893812</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2288,7 +2386,7 @@
         <v>175.82</v>
       </c>
       <c r="H33" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I33" t="n">
         <v>101.03</v>
@@ -2316,6 +2414,9 @@
         <v>0.108966</v>
       </c>
       <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>0.36823495618041</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2344,7 +2445,7 @@
         <v>183.02</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8599999999999994</v>
+        <v>-17.3</v>
       </c>
       <c r="I34" t="n">
         <v>100.84</v>
@@ -2372,6 +2473,9 @@
         <v>0</v>
       </c>
       <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>0.01318788050186011</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2400,7 +2504,7 @@
         <v>174.74</v>
       </c>
       <c r="H35" t="n">
-        <v>-4.990000000000002</v>
+        <v>-20.55</v>
       </c>
       <c r="I35" t="n">
         <v>100.96</v>
@@ -2428,6 +2532,9 @@
         <v>0</v>
       </c>
       <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>0.01058215200752181</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2456,7 +2563,7 @@
         <v>180.5</v>
       </c>
       <c r="H36" t="n">
-        <v>-10.84</v>
+        <v>-23.8</v>
       </c>
       <c r="I36" t="n">
         <v>100.99</v>
@@ -2484,6 +2591,9 @@
         <v>0</v>
       </c>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>0.007976423513183516</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2512,7 +2622,7 @@
         <v>181.04</v>
       </c>
       <c r="H37" t="n">
-        <v>-5.800000000000004</v>
+        <v>-21</v>
       </c>
       <c r="I37" t="n">
         <v>100.98</v>
@@ -2540,6 +2650,9 @@
         <v>0</v>
       </c>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>0.01007477918102604</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2568,7 +2681,7 @@
         <v>182.48</v>
       </c>
       <c r="H38" t="n">
-        <v>-16.24</v>
+        <v>-26.8</v>
       </c>
       <c r="I38" t="n">
         <v>100.98</v>
@@ -2596,6 +2709,9 @@
         <v>0</v>
       </c>
       <c r="R38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>0.005801975299980354</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2624,7 +2740,7 @@
         <v>177.98</v>
       </c>
       <c r="H39" t="n">
-        <v>-18.04</v>
+        <v>-27.8</v>
       </c>
       <c r="I39" t="n">
         <v>101.03</v>
@@ -2652,6 +2768,9 @@
         <v>0</v>
       </c>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>0.00589431514959108</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2680,7 +2799,7 @@
         <v>183.92</v>
       </c>
       <c r="H40" t="n">
-        <v>-15.16</v>
+        <v>-26.2</v>
       </c>
       <c r="I40" t="n">
         <v>101.06</v>
@@ -2708,6 +2827,9 @@
         <v>0</v>
       </c>
       <c r="R40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>0.005923886445138722</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2736,7 +2858,7 @@
         <v>181.4</v>
       </c>
       <c r="H41" t="n">
-        <v>33.44</v>
+        <v>0.8</v>
       </c>
       <c r="I41" t="n">
         <v>101.03</v>
@@ -2764,6 +2886,9 @@
         <v>0</v>
       </c>
       <c r="R41" t="inlineStr"/>
+      <c r="S41" t="n">
+        <v>0.05609473645945416</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2792,7 +2917,7 @@
         <v>179.78</v>
       </c>
       <c r="H42" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I42" t="n">
         <v>100.86</v>
@@ -2820,6 +2945,9 @@
         <v>0</v>
       </c>
       <c r="R42" t="inlineStr"/>
+      <c r="S42" t="n">
+        <v>0.3345292318673719</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2848,7 +2976,7 @@
         <v>178.52</v>
       </c>
       <c r="H43" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I43" t="n">
         <v>100.85</v>
@@ -2876,6 +3004,9 @@
         <v>0.01143</v>
       </c>
       <c r="R43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>0.3448375125196579</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2904,7 +3035,7 @@
         <v>179.78</v>
       </c>
       <c r="H44" t="n">
-        <v>-17.32</v>
+        <v>-27.4</v>
       </c>
       <c r="I44" t="n">
         <v>100.57</v>
@@ -2932,6 +3063,9 @@
         <v>0</v>
       </c>
       <c r="R44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>0.00585619138901551</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2960,7 +3094,7 @@
         <v>180.32</v>
       </c>
       <c r="H45" t="n">
-        <v>-17.5</v>
+        <v>-27.5</v>
       </c>
       <c r="I45" t="n">
         <v>100.51</v>
@@ -2988,6 +3122,9 @@
         <v>0</v>
       </c>
       <c r="R45" t="inlineStr"/>
+      <c r="S45" t="n">
+        <v>0.005727792276500544</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3016,7 +3153,7 @@
         <v>174.92</v>
       </c>
       <c r="H46" t="n">
-        <v>-17.68</v>
+        <v>-27.6</v>
       </c>
       <c r="I46" t="n">
         <v>100.78</v>
@@ -3044,6 +3181,9 @@
         <v>0</v>
       </c>
       <c r="R46" t="inlineStr"/>
+      <c r="S46" t="n">
+        <v>0.005724399988900743</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3072,7 +3212,7 @@
         <v>179.6</v>
       </c>
       <c r="H47" t="n">
-        <v>-17.86</v>
+        <v>-27.7</v>
       </c>
       <c r="I47" t="n">
         <v>101.04</v>
@@ -3100,6 +3240,9 @@
         <v>0</v>
       </c>
       <c r="R47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>0.005721007701300942</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3128,7 +3271,7 @@
         <v>179.78</v>
       </c>
       <c r="H48" t="n">
-        <v>-17.68000000000001</v>
+        <v>-27.6</v>
       </c>
       <c r="I48" t="n">
         <v>101.12</v>
@@ -3156,6 +3299,9 @@
         <v>0</v>
       </c>
       <c r="R48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>0.005749169052627612</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3184,7 +3330,7 @@
         <v>181.76</v>
       </c>
       <c r="H49" t="n">
-        <v>-16.42</v>
+        <v>-26.9</v>
       </c>
       <c r="I49" t="n">
         <v>101.06</v>
@@ -3212,6 +3358,9 @@
         <v>0</v>
       </c>
       <c r="R49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>0.005848193024835379</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3240,7 +3389,7 @@
         <v>181.4</v>
       </c>
       <c r="H50" t="n">
-        <v>-16.78</v>
+        <v>-27.1</v>
       </c>
       <c r="I50" t="n">
         <v>100.95</v>
@@ -3268,6 +3417,9 @@
         <v>0</v>
       </c>
       <c r="R50" t="inlineStr"/>
+      <c r="S50" t="n">
+        <v>0.005791237410338056</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3296,7 +3448,7 @@
         <v>181.04</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.615000000000002</v>
+        <v>-18.675</v>
       </c>
       <c r="I51" t="n">
         <v>100.97</v>
@@ -3324,6 +3476,9 @@
         <v>0</v>
       </c>
       <c r="R51" t="inlineStr"/>
+      <c r="S51" t="n">
+        <v>0.02473218316243315</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3352,7 +3507,7 @@
         <v>179.78</v>
       </c>
       <c r="H52" t="n">
-        <v>13.55</v>
+        <v>-10.25</v>
       </c>
       <c r="I52" t="n">
         <v>101.14</v>
@@ -3380,6 +3535,9 @@
         <v>0</v>
       </c>
       <c r="R52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>0.04367312891452825</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3408,7 +3566,7 @@
         <v>182.3</v>
       </c>
       <c r="H53" t="n">
-        <v>28.715</v>
+        <v>-1.824999999999999</v>
       </c>
       <c r="I53" t="n">
         <v>101.15</v>
@@ -3436,6 +3594,9 @@
         <v>0</v>
       </c>
       <c r="R53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>0.06261407466662335</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3464,7 +3625,7 @@
         <v>182.84</v>
       </c>
       <c r="H54" t="n">
-        <v>43.88</v>
+        <v>6.6</v>
       </c>
       <c r="I54" t="n">
         <v>101.06</v>
@@ -3492,6 +3653,9 @@
         <v>0</v>
       </c>
       <c r="R54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>0.08155502041871844</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3520,7 +3684,7 @@
         <v>185.9</v>
       </c>
       <c r="H55" t="n">
-        <v>10.94</v>
+        <v>-11.7</v>
       </c>
       <c r="I55" t="n">
         <v>101.05</v>
@@ -3548,6 +3712,9 @@
         <v>0</v>
       </c>
       <c r="R55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>0.01951479629956752</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3576,7 +3743,7 @@
         <v>181.58</v>
       </c>
       <c r="H56" t="n">
-        <v>57.74</v>
+        <v>14.3</v>
       </c>
       <c r="I56" t="n">
         <v>101.12</v>
@@ -3604,6 +3771,9 @@
         <v>0</v>
       </c>
       <c r="R56" t="inlineStr"/>
+      <c r="S56" t="n">
+        <v>0.1404756640558936</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3632,7 +3802,7 @@
         <v>182.3</v>
       </c>
       <c r="H57" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I57" t="n">
         <v>101.2</v>
@@ -3660,6 +3830,9 @@
         <v>0</v>
       </c>
       <c r="R57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>0.3149975883206553</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3688,7 +3861,7 @@
         <v>181.58</v>
       </c>
       <c r="H58" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I58" t="n">
         <v>101.13</v>
@@ -3716,6 +3889,9 @@
         <v>0</v>
       </c>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>0.320435358061745</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3744,7 +3920,7 @@
         <v>183.2</v>
       </c>
       <c r="H59" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I59" t="n">
         <v>100.98</v>
@@ -3772,6 +3948,9 @@
         <v>0</v>
       </c>
       <c r="R59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>0.308355004254918</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3800,7 +3979,7 @@
         <v>177.8</v>
       </c>
       <c r="H60" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I60" t="n">
         <v>100.7</v>
@@ -3828,6 +4007,9 @@
         <v>0</v>
       </c>
       <c r="R60" t="inlineStr"/>
+      <c r="S60" t="n">
+        <v>0.3508985511522732</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3856,7 +4038,7 @@
         <v>181.76</v>
       </c>
       <c r="H61" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I61" t="n">
         <v>100.6</v>
@@ -3884,6 +4066,9 @@
         <v>0</v>
       </c>
       <c r="R61" t="inlineStr"/>
+      <c r="S61" t="n">
+        <v>0.3190654442412748</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3912,7 +4097,7 @@
         <v>178.88</v>
       </c>
       <c r="H62" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I62" t="n">
         <v>100.7</v>
@@ -3940,6 +4125,9 @@
         <v>0</v>
       </c>
       <c r="R62" t="inlineStr"/>
+      <c r="S62" t="n">
+        <v>0.3418539813721192</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3968,7 +4156,7 @@
         <v>182.12</v>
       </c>
       <c r="H63" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I63" t="n">
         <v>100.82</v>
@@ -3996,6 +4184,9 @@
         <v>0</v>
       </c>
       <c r="R63" t="inlineStr"/>
+      <c r="S63" t="n">
+        <v>0.3163466004869218</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4024,7 +4215,7 @@
         <v>181.58</v>
       </c>
       <c r="H64" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I64" t="n">
         <v>100.99</v>
@@ -4052,6 +4243,9 @@
         <v>0</v>
       </c>
       <c r="R64" t="inlineStr"/>
+      <c r="S64" t="n">
+        <v>0.320435358061745</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4080,7 +4274,7 @@
         <v>181.94</v>
       </c>
       <c r="H65" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I65" t="n">
         <v>100.89</v>
@@ -4108,6 +4302,9 @@
         <v>0</v>
       </c>
       <c r="R65" t="inlineStr"/>
+      <c r="S65" t="n">
+        <v>0.3177025388005353</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4136,7 +4333,7 @@
         <v>181.94</v>
       </c>
       <c r="H66" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I66" t="n">
         <v>100.92</v>
@@ -4164,6 +4361,9 @@
         <v>0</v>
       </c>
       <c r="R66" t="inlineStr"/>
+      <c r="S66" t="n">
+        <v>0.3177025388005353</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4192,7 +4392,7 @@
         <v>179.42</v>
       </c>
       <c r="H67" t="n">
-        <v>126.86</v>
+        <v>52.7</v>
       </c>
       <c r="I67" t="n">
         <v>101.09</v>
@@ -4220,6 +4420,9 @@
         <v>0</v>
       </c>
       <c r="R67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>1.287476367895255</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4248,7 +4451,7 @@
         <v>176.72</v>
       </c>
       <c r="H68" t="n">
-        <v>176.54</v>
+        <v>80.3</v>
       </c>
       <c r="I68" t="n">
         <v>101.25</v>
@@ -4276,6 +4479,9 @@
         <v>0</v>
       </c>
       <c r="R68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>4.740908444022332</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4304,7 +4510,7 @@
         <v>175.64</v>
       </c>
       <c r="H69" t="n">
-        <v>175.46</v>
+        <v>79.7</v>
       </c>
       <c r="I69" t="n">
         <v>101.26</v>
@@ -4332,6 +4538,9 @@
         <v>0</v>
       </c>
       <c r="R69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>4.749044617447209</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4360,7 +4569,7 @@
         <v>174.38</v>
       </c>
       <c r="H70" t="n">
-        <v>174.38</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I70" t="n">
         <v>101.2</v>
@@ -4388,6 +4597,9 @@
         <v>0</v>
       </c>
       <c r="R70" t="inlineStr"/>
+      <c r="S70" t="n">
+        <v>4.77854408369391</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4416,7 +4628,7 @@
         <v>173.84</v>
       </c>
       <c r="H71" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I71" t="n">
         <v>101.1</v>
@@ -4444,6 +4656,9 @@
         <v>0</v>
       </c>
       <c r="R71" t="inlineStr"/>
+      <c r="S71" t="n">
+        <v>4.763108786432413</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4472,7 +4687,7 @@
         <v>172.94</v>
       </c>
       <c r="H72" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I72" t="n">
         <v>101.11</v>
@@ -4500,6 +4715,9 @@
         <v>0</v>
       </c>
       <c r="R72" t="inlineStr"/>
+      <c r="S72" t="n">
+        <v>4.790249658255321</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4528,7 +4746,7 @@
         <v>173.84</v>
       </c>
       <c r="H73" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I73" t="n">
         <v>101.09</v>
@@ -4556,6 +4774,9 @@
         <v>0</v>
       </c>
       <c r="R73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>4.763108786432413</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4584,7 +4805,7 @@
         <v>170.96</v>
       </c>
       <c r="H74" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I74" t="n">
         <v>101.02</v>
@@ -4612,6 +4833,9 @@
         <v>0</v>
       </c>
       <c r="R74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>4.786960698011894</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4640,7 +4864,7 @@
         <v>167.9</v>
       </c>
       <c r="H75" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I75" t="n">
         <v>100.92</v>
@@ -4668,6 +4892,9 @@
         <v>0.039116</v>
       </c>
       <c r="R75" t="inlineStr"/>
+      <c r="S75" t="n">
+        <v>4.773607562291398</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4696,7 +4923,7 @@
         <v>173.12</v>
       </c>
       <c r="H76" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I76" t="n">
         <v>100.72</v>
@@ -4724,6 +4951,9 @@
         <v>0</v>
       </c>
       <c r="R76" t="inlineStr"/>
+      <c r="S76" t="n">
+        <v>4.768914068547685</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4752,7 +4982,7 @@
         <v>169.88</v>
       </c>
       <c r="H77" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I77" t="n">
         <v>100.62</v>
@@ -4780,6 +5010,9 @@
         <v>0</v>
       </c>
       <c r="R77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>4.776228881445659</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4808,7 +5041,7 @@
         <v>170.6</v>
       </c>
       <c r="H78" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I78" t="n">
         <v>100.58</v>
@@ -4836,6 +5069,9 @@
         <v>0</v>
       </c>
       <c r="R78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>4.790062010106814</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4864,7 +5100,7 @@
         <v>170.96</v>
       </c>
       <c r="H79" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I79" t="n">
         <v>100.78</v>
@@ -4892,6 +5128,9 @@
         <v>0</v>
       </c>
       <c r="R79" t="inlineStr"/>
+      <c r="S79" t="n">
+        <v>4.807035068269029</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4920,7 +5159,7 @@
         <v>171.14</v>
       </c>
       <c r="H80" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I80" t="n">
         <v>101.04</v>
@@ -4948,6 +5187,9 @@
         <v>0</v>
       </c>
       <c r="R80" t="inlineStr"/>
+      <c r="S80" t="n">
+        <v>4.785420167198667</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4976,7 +5218,7 @@
         <v>170.6</v>
       </c>
       <c r="H81" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I81" t="n">
         <v>101.17</v>
@@ -5004,6 +5246,9 @@
         <v>0</v>
       </c>
       <c r="R81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>4.790062010106814</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5032,7 +5277,7 @@
         <v>173.12</v>
       </c>
       <c r="H82" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I82" t="n">
         <v>101.27</v>
@@ -5060,6 +5305,9 @@
         <v>0</v>
       </c>
       <c r="R82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>4.768914068547685</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5088,7 +5336,7 @@
         <v>173.3</v>
       </c>
       <c r="H83" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I83" t="n">
         <v>101.33</v>
@@ -5116,6 +5364,9 @@
         <v>0</v>
       </c>
       <c r="R83" t="inlineStr"/>
+      <c r="S83" t="n">
+        <v>4.787284109711918</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5144,7 +5395,7 @@
         <v>168.8</v>
       </c>
       <c r="H84" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I84" t="n">
         <v>101.32</v>
@@ -5172,6 +5423,9 @@
         <v>0.044958</v>
       </c>
       <c r="R84" t="inlineStr"/>
+      <c r="S84" t="n">
+        <v>4.76558445776319</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5200,7 +5454,7 @@
         <v>172.4</v>
       </c>
       <c r="H85" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I85" t="n">
         <v>101.24</v>
@@ -5228,6 +5482,9 @@
         <v>0</v>
       </c>
       <c r="R85" t="inlineStr"/>
+      <c r="S85" t="n">
+        <v>4.75497044153633</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5256,7 +5513,7 @@
         <v>172.58</v>
       </c>
       <c r="H86" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I86" t="n">
         <v>101.17</v>
@@ -5284,6 +5541,9 @@
         <v>0</v>
       </c>
       <c r="R86" t="inlineStr"/>
+      <c r="S86" t="n">
+        <v>4.753501691921501</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5312,7 +5572,7 @@
         <v>173.12</v>
       </c>
       <c r="H87" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I87" t="n">
         <v>101.15</v>
@@ -5340,6 +5600,9 @@
         <v>0</v>
       </c>
       <c r="R87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>4.768914068547685</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5368,7 +5631,7 @@
         <v>174.56</v>
       </c>
       <c r="H88" t="n">
-        <v>174.56</v>
+        <v>79.2</v>
       </c>
       <c r="I88" t="n">
         <v>101.13</v>
@@ -5396,6 +5659,9 @@
         <v>0</v>
       </c>
       <c r="R88" t="inlineStr"/>
+      <c r="S88" t="n">
+        <v>4.777110064295602</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5424,7 +5690,7 @@
         <v>171.32</v>
       </c>
       <c r="H89" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I89" t="n">
         <v>101.03</v>
@@ -5452,6 +5718,9 @@
         <v>0</v>
       </c>
       <c r="R89" t="inlineStr"/>
+      <c r="S89" t="n">
+        <v>4.803922784283758</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5480,7 +5749,7 @@
         <v>171.86</v>
       </c>
       <c r="H90" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I90" t="n">
         <v>101.07</v>
@@ -5508,6 +5777,9 @@
         <v>0</v>
       </c>
       <c r="R90" t="inlineStr"/>
+      <c r="S90" t="n">
+        <v>4.779325105461674</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5536,7 +5808,7 @@
         <v>171.68</v>
       </c>
       <c r="H91" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I91" t="n">
         <v>101.06</v>
@@ -5564,6 +5836,9 @@
         <v>0.001524</v>
       </c>
       <c r="R91" t="inlineStr"/>
+      <c r="S91" t="n">
+        <v>4.780838849170348</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5592,7 +5867,7 @@
         <v>176.18</v>
       </c>
       <c r="H92" t="n">
-        <v>176.18</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="I92" t="n">
         <v>101.05</v>
@@ -5620,6 +5895,9 @@
         <v>0</v>
       </c>
       <c r="R92" t="inlineStr"/>
+      <c r="S92" t="n">
+        <v>4.764490882984554</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5648,7 +5926,7 @@
         <v>175.82</v>
       </c>
       <c r="H93" t="n">
-        <v>175.82</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="I93" t="n">
         <v>101.03</v>
@@ -5676,6 +5954,9 @@
         <v>0</v>
       </c>
       <c r="R93" t="inlineStr"/>
+      <c r="S93" t="n">
+        <v>4.767250827667394</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5704,7 +5985,7 @@
         <v>182.84</v>
       </c>
       <c r="H94" t="n">
-        <v>182.48</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I94" t="n">
         <v>101.04</v>
@@ -5732,6 +6013,9 @@
         <v>0</v>
       </c>
       <c r="R94" t="inlineStr"/>
+      <c r="S94" t="n">
+        <v>4.680046074428255</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5760,7 +6044,7 @@
         <v>176.18</v>
       </c>
       <c r="H95" t="n">
-        <v>73.22</v>
+        <v>22.9</v>
       </c>
       <c r="I95" t="n">
         <v>100.93</v>
@@ -5788,6 +6072,9 @@
         <v>0.021082</v>
       </c>
       <c r="R95" t="inlineStr"/>
+      <c r="S95" t="n">
+        <v>0.2742553770616841</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5816,7 +6103,7 @@
         <v>177.8</v>
       </c>
       <c r="H96" t="n">
-        <v>4.82</v>
+        <v>-15.1</v>
       </c>
       <c r="I96" t="n">
         <v>100.77</v>
@@ -5844,6 +6131,9 @@
         <v>0</v>
       </c>
       <c r="R96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>0.01794850465309933</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5872,7 +6162,7 @@
         <v>177.44</v>
       </c>
       <c r="H97" t="n">
-        <v>146.84</v>
+        <v>63.8</v>
       </c>
       <c r="I97" t="n">
         <v>100.86</v>
@@ -5900,6 +6190,9 @@
         <v>0</v>
       </c>
       <c r="R97" t="inlineStr"/>
+      <c r="S97" t="n">
+        <v>2.282424420242749</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5928,7 +6221,7 @@
         <v>179.78</v>
       </c>
       <c r="H98" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I98" t="n">
         <v>101</v>
@@ -5956,6 +6249,9 @@
         <v>0.009906</v>
       </c>
       <c r="R98" t="inlineStr"/>
+      <c r="S98" t="n">
+        <v>4.070543603263117</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5984,7 +6280,7 @@
         <v>176</v>
       </c>
       <c r="H99" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I99" t="n">
         <v>101.16</v>
@@ -6012,6 +6308,9 @@
         <v>0</v>
       </c>
       <c r="R99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>4.103353411631804</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6040,7 +6339,7 @@
         <v>183.38</v>
       </c>
       <c r="H100" t="n">
-        <v>168.53</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="I100" t="n">
         <v>101.23</v>
@@ -6068,6 +6367,9 @@
         <v>0</v>
       </c>
       <c r="R100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>4.144869582116111</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6096,7 +6398,7 @@
         <v>173.3</v>
       </c>
       <c r="H101" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I101" t="n">
         <v>101.39</v>
@@ -6124,6 +6426,9 @@
         <v>0</v>
       </c>
       <c r="R101" t="inlineStr"/>
+      <c r="S101" t="n">
+        <v>4.186385752600417</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6152,7 +6457,7 @@
         <v>183.2</v>
       </c>
       <c r="H102" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I102" t="n">
         <v>101.29</v>
@@ -6180,6 +6485,9 @@
         <v>0</v>
       </c>
       <c r="R102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>3.598982474219738</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6208,7 +6516,7 @@
         <v>181.04</v>
       </c>
       <c r="H103" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I103" t="n">
         <v>101.3</v>
@@ -6236,6 +6544,9 @@
         <v>0</v>
       </c>
       <c r="R103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>3.820212717055575</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6264,7 +6575,7 @@
         <v>184.46</v>
       </c>
       <c r="H104" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I104" t="n">
         <v>101.24</v>
@@ -6292,6 +6603,9 @@
         <v>0</v>
       </c>
       <c r="R104" t="inlineStr"/>
+      <c r="S104" t="n">
+        <v>3.479134789246894</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6320,7 +6634,7 @@
         <v>184.28</v>
       </c>
       <c r="H105" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I105" t="n">
         <v>101.2</v>
@@ -6348,6 +6662,9 @@
         <v>0</v>
       </c>
       <c r="R105" t="inlineStr"/>
+      <c r="S105" t="n">
+        <v>3.47930267413122</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6376,7 +6693,7 @@
         <v>183.74</v>
       </c>
       <c r="H106" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I106" t="n">
         <v>101.13</v>
@@ -6404,6 +6721,9 @@
         <v>0</v>
       </c>
       <c r="R106" t="inlineStr"/>
+      <c r="S106" t="n">
+        <v>3.509100659486111</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6432,7 +6752,7 @@
         <v>181.94</v>
       </c>
       <c r="H107" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I107" t="n">
         <v>101.04</v>
@@ -6460,6 +6780,9 @@
         <v>0</v>
       </c>
       <c r="R107" t="inlineStr"/>
+      <c r="S107" t="n">
+        <v>3.692616897578997</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6488,7 +6811,7 @@
         <v>174.02</v>
       </c>
       <c r="H108" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I108" t="n">
         <v>101.04</v>
@@ -6516,6 +6839,9 @@
         <v>0</v>
       </c>
       <c r="R108" t="inlineStr"/>
+      <c r="S108" t="n">
+        <v>4.253827565449117</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6544,7 +6870,7 @@
         <v>181.76</v>
       </c>
       <c r="H109" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I109" t="n">
         <v>101.08</v>
@@ -6572,6 +6898,9 @@
         <v>0</v>
       </c>
       <c r="R109" t="inlineStr"/>
+      <c r="S109" t="n">
+        <v>3.692980744362385</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6600,7 +6929,7 @@
         <v>180.14</v>
       </c>
       <c r="H110" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I110" t="n">
         <v>101.17</v>
@@ -6628,6 +6957,9 @@
         <v>0</v>
       </c>
       <c r="R110" t="inlineStr"/>
+      <c r="S110" t="n">
+        <v>3.91967515899052</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6656,7 +6988,7 @@
         <v>184.28</v>
       </c>
       <c r="H111" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I111" t="n">
         <v>101.05</v>
@@ -6684,6 +7016,9 @@
         <v>0</v>
       </c>
       <c r="R111" t="inlineStr"/>
+      <c r="S111" t="n">
+        <v>3.81261936811771</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6712,7 +7047,7 @@
         <v>183.2</v>
       </c>
       <c r="H112" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I112" t="n">
         <v>101.09</v>
@@ -6740,6 +7075,9 @@
         <v>0</v>
       </c>
       <c r="R112" t="inlineStr"/>
+      <c r="S112" t="n">
+        <v>3.705563577244901</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6768,7 +7106,7 @@
         <v>182.3</v>
       </c>
       <c r="H113" t="n">
-        <v>171.41</v>
+        <v>77.44999999999999</v>
       </c>
       <c r="I113" t="n">
         <v>101.07</v>
@@ -6796,6 +7134,9 @@
         <v>0</v>
       </c>
       <c r="R113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>3.653119276708013</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6824,7 +7165,7 @@
         <v>182.12</v>
       </c>
       <c r="H114" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I114" t="n">
         <v>101.03</v>
@@ -6852,6 +7193,9 @@
         <v>0</v>
       </c>
       <c r="R114" t="inlineStr"/>
+      <c r="S114" t="n">
+        <v>3.600674976171125</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6880,7 +7224,7 @@
         <v>179.42</v>
       </c>
       <c r="H115" t="n">
-        <v>169.79</v>
+        <v>76.55</v>
       </c>
       <c r="I115" t="n">
         <v>100.91</v>
@@ -6908,6 +7252,9 @@
         <v>0</v>
       </c>
       <c r="R115" t="inlineStr"/>
+      <c r="S115" t="n">
+        <v>3.781606172342382</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6936,7 +7283,7 @@
         <v>177.26</v>
       </c>
       <c r="H116" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I116" t="n">
         <v>101.12</v>
@@ -6964,6 +7311,9 @@
         <v>0</v>
       </c>
       <c r="R116" t="inlineStr"/>
+      <c r="S116" t="n">
+        <v>3.96253736851364</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6992,7 +7342,7 @@
         <v>177.8</v>
       </c>
       <c r="H117" t="n">
-        <v>167.72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I117" t="n">
         <v>101.17</v>
@@ -7020,6 +7370,9 @@
         <v>0</v>
       </c>
       <c r="R117" t="inlineStr"/>
+      <c r="S117" t="n">
+        <v>3.765223336594226</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7048,7 +7401,7 @@
         <v>176.9</v>
       </c>
       <c r="H118" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I118" t="n">
         <v>101.23</v>
@@ -7076,6 +7429,9 @@
         <v>0</v>
       </c>
       <c r="R118" t="inlineStr"/>
+      <c r="S118" t="n">
+        <v>3.688535197236449</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7104,7 +7460,7 @@
         <v>178.7</v>
       </c>
       <c r="H119" t="n">
-        <v>166.28</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I119" t="n">
         <v>101.14</v>
@@ -7132,6 +7488,9 @@
         <v>0</v>
       </c>
       <c r="R119" t="inlineStr"/>
+      <c r="S119" t="n">
+        <v>3.561225935785533</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7160,7 +7519,7 @@
         <v>180.5</v>
       </c>
       <c r="H120" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I120" t="n">
         <v>101.21</v>
@@ -7188,6 +7547,9 @@
         <v>0</v>
       </c>
       <c r="R120" t="inlineStr"/>
+      <c r="S120" t="n">
+        <v>3.633963624530255</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7216,7 +7578,7 @@
         <v>180.5</v>
       </c>
       <c r="H121" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I121" t="n">
         <v>101.03</v>
@@ -7244,6 +7606,9 @@
         <v>0</v>
       </c>
       <c r="R121" t="inlineStr"/>
+      <c r="S121" t="n">
+        <v>3.805702558548082</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7272,7 +7637,7 @@
         <v>181.4</v>
       </c>
       <c r="H122" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I122" t="n">
         <v>100.98</v>
@@ -7300,6 +7665,9 @@
         <v>0</v>
       </c>
       <c r="R122" t="inlineStr"/>
+      <c r="S122" t="n">
+        <v>3.8192734572505</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7328,7 +7696,7 @@
         <v>180.5</v>
       </c>
       <c r="H123" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I123" t="n">
         <v>101.1</v>
@@ -7356,6 +7724,9 @@
         <v>0</v>
       </c>
       <c r="R123" t="inlineStr"/>
+      <c r="S123" t="n">
+        <v>3.886019810730648</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7384,7 +7755,7 @@
         <v>177.44</v>
       </c>
       <c r="H124" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I124" t="n">
         <v>101.04</v>
@@ -7412,6 +7783,9 @@
         <v>0</v>
       </c>
       <c r="R124" t="inlineStr"/>
+      <c r="S124" t="n">
+        <v>3.862998124213685</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7440,7 +7814,7 @@
         <v>177.62</v>
       </c>
       <c r="H125" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I125" t="n">
         <v>100.9</v>
@@ -7468,6 +7842,9 @@
         <v>0.044958</v>
       </c>
       <c r="R125" t="inlineStr"/>
+      <c r="S125" t="n">
+        <v>3.961218549479672</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7496,7 +7873,7 @@
         <v>175.46</v>
       </c>
       <c r="H126" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I126" t="n">
         <v>100.87</v>
@@ -7524,6 +7901,9 @@
         <v>0</v>
       </c>
       <c r="R126" t="inlineStr"/>
+      <c r="S126" t="n">
+        <v>4.123120261913373</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7552,7 +7932,7 @@
         <v>175.46</v>
       </c>
       <c r="H127" t="n">
-        <v>167.72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I127" t="n">
         <v>100.87</v>
@@ -7580,6 +7960,9 @@
         <v>0</v>
       </c>
       <c r="R127" t="inlineStr"/>
+      <c r="S127" t="n">
+        <v>3.986239111302381</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7608,7 +7991,7 @@
         <v>177.26</v>
       </c>
       <c r="H128" t="n">
-        <v>165.56</v>
+        <v>74.2</v>
       </c>
       <c r="I128" t="n">
         <v>100.96</v>
@@ -7636,6 +8019,9 @@
         <v>0</v>
       </c>
       <c r="R128" t="inlineStr"/>
+      <c r="S128" t="n">
+        <v>3.625355488577693</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7664,7 +8050,7 @@
         <v>180.5</v>
       </c>
       <c r="H129" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I129" t="n">
         <v>101.05</v>
@@ -7692,6 +8078,9 @@
         <v>0</v>
       </c>
       <c r="R129" t="inlineStr"/>
+      <c r="S129" t="n">
+        <v>3.618683608927235</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7720,7 +8109,7 @@
         <v>176.72</v>
       </c>
       <c r="H130" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I130" t="n">
         <v>101.1</v>
@@ -7748,6 +8137,9 @@
         <v>0</v>
       </c>
       <c r="R130" t="inlineStr"/>
+      <c r="S130" t="n">
+        <v>3.99809054343749</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -7776,7 +8168,7 @@
         <v>173.66</v>
       </c>
       <c r="H131" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I131" t="n">
         <v>101.26</v>
@@ -7804,6 +8196,9 @@
         <v>0</v>
       </c>
       <c r="R131" t="inlineStr"/>
+      <c r="S131" t="n">
+        <v>4.149256700940699</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -7832,7 +8227,7 @@
         <v>177.8</v>
       </c>
       <c r="H132" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I132" t="n">
         <v>101.44</v>
@@ -7860,6 +8255,9 @@
         <v>0</v>
       </c>
       <c r="R132" t="inlineStr"/>
+      <c r="S132" t="n">
+        <v>4.095531833114356</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -7888,7 +8286,7 @@
         <v>176.9</v>
       </c>
       <c r="H133" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I133" t="n">
         <v>101.37</v>
@@ -7916,6 +8314,9 @@
         <v>0</v>
       </c>
       <c r="R133" t="inlineStr"/>
+      <c r="S133" t="n">
+        <v>4.014235913826203</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -7944,7 +8345,7 @@
         <v>175.64</v>
       </c>
       <c r="H134" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I134" t="n">
         <v>101.4</v>
@@ -7972,6 +8373,9 @@
         <v>0</v>
       </c>
       <c r="R134" t="inlineStr"/>
+      <c r="S134" t="n">
+        <v>4.22746827180641</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8000,7 +8404,7 @@
         <v>175.82</v>
       </c>
       <c r="H135" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I135" t="n">
         <v>101.48</v>
@@ -8028,6 +8432,9 @@
         <v>0</v>
       </c>
       <c r="R135" t="inlineStr"/>
+      <c r="S135" t="n">
+        <v>4.138818974690494</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8056,7 +8463,7 @@
         <v>173.3</v>
       </c>
       <c r="H136" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I136" t="n">
         <v>101.3</v>
@@ -8084,6 +8491,9 @@
         <v>0.03505199999999999</v>
       </c>
       <c r="R136" t="inlineStr"/>
+      <c r="S136" t="n">
+        <v>4.478263729644652</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8112,7 +8522,7 @@
         <v>180.14</v>
       </c>
       <c r="H137" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I137" t="n">
         <v>101.36</v>
@@ -8140,6 +8550,9 @@
         <v>0</v>
       </c>
       <c r="R137" t="inlineStr"/>
+      <c r="S137" t="n">
+        <v>3.854749883851435</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8168,7 +8581,7 @@
         <v>181.94</v>
       </c>
       <c r="H138" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I138" t="n">
         <v>101.4</v>
@@ -8196,6 +8609,9 @@
         <v>0</v>
       </c>
       <c r="R138" t="inlineStr"/>
+      <c r="S138" t="n">
+        <v>3.786241319578525</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8224,7 +8640,7 @@
         <v>179.96</v>
       </c>
       <c r="H139" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I139" t="n">
         <v>101.36</v>
@@ -8252,6 +8668,9 @@
         <v>0</v>
       </c>
       <c r="R139" t="inlineStr"/>
+      <c r="S139" t="n">
+        <v>3.712419582044037</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8280,7 +8699,7 @@
         <v>172.22</v>
       </c>
       <c r="H140" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I140" t="n">
         <v>101.26</v>
@@ -8308,6 +8727,9 @@
         <v>0</v>
       </c>
       <c r="R140" t="inlineStr"/>
+      <c r="S140" t="n">
+        <v>4.392024822849931</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8336,7 +8758,7 @@
         <v>169.88</v>
       </c>
       <c r="H141" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I141" t="n">
         <v>101.1</v>
@@ -8364,6 +8786,9 @@
         <v>0.133096</v>
       </c>
       <c r="R141" t="inlineStr"/>
+      <c r="S141" t="n">
+        <v>4.598382806706371</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8392,7 +8817,7 @@
         <v>175.82</v>
       </c>
       <c r="H142" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I142" t="n">
         <v>101.17</v>
@@ -8420,6 +8845,9 @@
         <v>0.08509</v>
       </c>
       <c r="R142" t="inlineStr"/>
+      <c r="S142" t="n">
+        <v>4.173724613634733</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8448,7 +8876,7 @@
         <v>176.72</v>
       </c>
       <c r="H143" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I143" t="n">
         <v>101.25</v>
@@ -8476,6 +8904,9 @@
         <v>0</v>
       </c>
       <c r="R143" t="inlineStr"/>
+      <c r="S143" t="n">
+        <v>3.981289949107893</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8504,7 +8935,7 @@
         <v>176.18</v>
       </c>
       <c r="H144" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I144" t="n">
         <v>101.25</v>
@@ -8532,6 +8963,9 @@
         <v>0</v>
       </c>
       <c r="R144" t="inlineStr"/>
+      <c r="S144" t="n">
+        <v>3.949882166970235</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8560,7 +8994,7 @@
         <v>177.62</v>
       </c>
       <c r="H145" t="n">
-        <v>174.74</v>
+        <v>79.3</v>
       </c>
       <c r="I145" t="n">
         <v>101.35</v>
@@ -8588,6 +9022,9 @@
         <v>0</v>
       </c>
       <c r="R145" t="inlineStr"/>
+      <c r="S145" t="n">
+        <v>4.451235195633895</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8616,7 +9053,7 @@
         <v>180.32</v>
       </c>
       <c r="H146" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I146" t="n">
         <v>101.43</v>
@@ -8644,6 +9081,9 @@
         <v>0</v>
       </c>
       <c r="R146" t="inlineStr"/>
+      <c r="S146" t="n">
+        <v>3.919109467232959</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8672,7 +9112,7 @@
         <v>179.06</v>
       </c>
       <c r="H147" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I147" t="n">
         <v>101.4</v>
@@ -8700,6 +9140,9 @@
         <v>0</v>
       </c>
       <c r="R147" t="inlineStr"/>
+      <c r="S147" t="n">
+        <v>4.09033982754322</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -8728,7 +9171,7 @@
         <v>178.16</v>
       </c>
       <c r="H148" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I148" t="n">
         <v>101.33</v>
@@ -8756,6 +9199,9 @@
         <v>0</v>
       </c>
       <c r="R148" t="inlineStr"/>
+      <c r="S148" t="n">
+        <v>4.009356299242399</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -8784,7 +9230,7 @@
         <v>182.66</v>
       </c>
       <c r="H149" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I149" t="n">
         <v>101.22</v>
@@ -8812,6 +9258,9 @@
         <v>0</v>
       </c>
       <c r="R149" t="inlineStr"/>
+      <c r="S149" t="n">
+        <v>3.863872577961446</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -8840,7 +9289,7 @@
         <v>179.42</v>
       </c>
       <c r="H150" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I150" t="n">
         <v>101.12</v>
@@ -8868,6 +9317,9 @@
         <v>0</v>
       </c>
       <c r="R150" t="inlineStr"/>
+      <c r="S150" t="n">
+        <v>3.636117570493409</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -8896,7 +9348,7 @@
         <v>180.32</v>
       </c>
       <c r="H151" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I151" t="n">
         <v>101.14</v>
@@ -8924,6 +9376,9 @@
         <v>0</v>
       </c>
       <c r="R151" t="inlineStr"/>
+      <c r="S151" t="n">
+        <v>3.558404615544392</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -8952,7 +9407,7 @@
         <v>180.32</v>
       </c>
       <c r="H152" t="n">
-        <v>164.66</v>
+        <v>73.7</v>
       </c>
       <c r="I152" t="n">
         <v>101.19</v>
@@ -8980,6 +9435,9 @@
         <v>0</v>
       </c>
       <c r="R152" t="inlineStr"/>
+      <c r="S152" t="n">
+        <v>3.296209132552626</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9008,7 +9466,7 @@
         <v>174.56</v>
       </c>
       <c r="H153" t="n">
-        <v>167.72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I153" t="n">
         <v>101.14</v>
@@ -9036,6 +9494,9 @@
         <v>0</v>
       </c>
       <c r="R153" t="inlineStr"/>
+      <c r="S153" t="n">
+        <v>4.07535187685937</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9064,7 +9525,7 @@
         <v>178.16</v>
       </c>
       <c r="H154" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I154" t="n">
         <v>101.25</v>
@@ -9092,6 +9553,9 @@
         <v>0</v>
       </c>
       <c r="R154" t="inlineStr"/>
+      <c r="S154" t="n">
+        <v>3.828316647963292</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9120,7 +9584,7 @@
         <v>177.98</v>
       </c>
       <c r="H155" t="n">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="I155" t="n">
         <v>101.28</v>
@@ -9148,6 +9612,9 @@
         <v>0</v>
       </c>
       <c r="R155" t="inlineStr"/>
+      <c r="S155" t="n">
+        <v>3.685849515341688</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9176,7 +9643,7 @@
         <v>178.88</v>
       </c>
       <c r="H156" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I156" t="n">
         <v>101.14</v>
@@ -9204,6 +9671,9 @@
         <v>0</v>
       </c>
       <c r="R156" t="inlineStr"/>
+      <c r="S156" t="n">
+        <v>3.591271443793246</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9232,7 +9702,7 @@
         <v>178.34</v>
       </c>
       <c r="H157" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I157" t="n">
         <v>101.11</v>
@@ -9260,6 +9730,9 @@
         <v>0</v>
       </c>
       <c r="R157" t="inlineStr"/>
+      <c r="S157" t="n">
+        <v>3.732070769674707</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9288,7 +9761,7 @@
         <v>177.98</v>
       </c>
       <c r="H158" t="n">
-        <v>166.46</v>
+        <v>74.7</v>
       </c>
       <c r="I158" t="n">
         <v>101.04</v>
@@ -9316,6 +9789,9 @@
         <v>0</v>
       </c>
       <c r="R158" t="inlineStr"/>
+      <c r="S158" t="n">
+        <v>3.639202698169521</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9344,7 +9820,7 @@
         <v>175.64</v>
       </c>
       <c r="H159" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I159" t="n">
         <v>101.06</v>
@@ -9372,6 +9848,9 @@
         <v>0</v>
       </c>
       <c r="R159" t="inlineStr"/>
+      <c r="S159" t="n">
+        <v>3.723541847726371</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9400,7 +9879,7 @@
         <v>177.26</v>
       </c>
       <c r="H160" t="n">
-        <v>164.66</v>
+        <v>73.7</v>
       </c>
       <c r="I160" t="n">
         <v>101.07</v>
@@ -9428,6 +9907,9 @@
         <v>0</v>
       </c>
       <c r="R160" t="inlineStr"/>
+      <c r="S160" t="n">
+        <v>3.548782017576849</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9456,7 +9938,7 @@
         <v>174.2</v>
       </c>
       <c r="H161" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I161" t="n">
         <v>101.03</v>
@@ -9484,6 +9966,9 @@
         <v>0</v>
       </c>
       <c r="R161" t="inlineStr"/>
+      <c r="S161" t="n">
+        <v>3.680031441232297</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9512,7 +9997,7 @@
         <v>170.78</v>
       </c>
       <c r="H162" t="n">
-        <v>163.76</v>
+        <v>73.2</v>
       </c>
       <c r="I162" t="n">
         <v>101.22</v>
@@ -9540,6 +10025,9 @@
         <v>0.002032</v>
       </c>
       <c r="R162" t="inlineStr"/>
+      <c r="S162" t="n">
+        <v>4.07609066234385</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9568,7 +10056,7 @@
         <v>177.44</v>
       </c>
       <c r="H163" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I163" t="n">
         <v>101.11</v>
@@ -9596,6 +10084,9 @@
         <v>0</v>
       </c>
       <c r="R163" t="inlineStr"/>
+      <c r="S163" t="n">
+        <v>3.961875706265303</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9624,7 +10115,7 @@
         <v>176.9</v>
       </c>
       <c r="H164" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I164" t="n">
         <v>101.22</v>
@@ -9652,6 +10143,9 @@
         <v>0</v>
       </c>
       <c r="R164" t="inlineStr"/>
+      <c r="S164" t="n">
+        <v>3.997388518682203</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -9680,7 +10174,7 @@
         <v>179.24</v>
       </c>
       <c r="H165" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I165" t="n">
         <v>101.22</v>
@@ -9708,6 +10202,9 @@
         <v>0</v>
       </c>
       <c r="R165" t="inlineStr"/>
+      <c r="S165" t="n">
+        <v>3.714113257288854</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -9736,7 +10233,7 @@
         <v>177.98</v>
       </c>
       <c r="H166" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I166" t="n">
         <v>101.17</v>
@@ -9764,6 +10261,9 @@
         <v>0</v>
       </c>
       <c r="R166" t="inlineStr"/>
+      <c r="S166" t="n">
+        <v>3.893918707182254</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -9792,7 +10292,7 @@
         <v>177.98</v>
       </c>
       <c r="H167" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I167" t="n">
         <v>101.19</v>
@@ -9820,6 +10320,9 @@
         <v>0</v>
       </c>
       <c r="R167" t="inlineStr"/>
+      <c r="S167" t="n">
+        <v>3.959917706639571</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -9848,7 +10351,7 @@
         <v>178.34</v>
       </c>
       <c r="H168" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I168" t="n">
         <v>101.19</v>
@@ -9876,6 +10379,9 @@
         <v>0</v>
       </c>
       <c r="R168" t="inlineStr"/>
+      <c r="S168" t="n">
+        <v>3.779666914136646</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -9904,7 +10410,7 @@
         <v>178.52</v>
       </c>
       <c r="H169" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I169" t="n">
         <v>101.23</v>
@@ -9932,6 +10438,9 @@
         <v>0</v>
       </c>
       <c r="R169" t="inlineStr"/>
+      <c r="S169" t="n">
+        <v>3.622614270835417</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -9960,7 +10469,7 @@
         <v>177.62</v>
       </c>
       <c r="H170" t="n">
-        <v>167.18</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I170" t="n">
         <v>101.23</v>
@@ -9988,6 +10497,9 @@
         <v>0</v>
       </c>
       <c r="R170" t="inlineStr"/>
+      <c r="S170" t="n">
+        <v>3.733954936348181</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10016,7 +10528,7 @@
         <v>178.34</v>
       </c>
       <c r="H171" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I171" t="n">
         <v>101.18</v>
@@ -10044,6 +10556,9 @@
         <v>0</v>
       </c>
       <c r="R171" t="inlineStr"/>
+      <c r="S171" t="n">
+        <v>3.795646726058787</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10072,7 +10587,7 @@
         <v>178.34</v>
       </c>
       <c r="H172" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I172" t="n">
         <v>101.24</v>
@@ -10100,6 +10615,9 @@
         <v>0</v>
       </c>
       <c r="R172" t="inlineStr"/>
+      <c r="S172" t="n">
+        <v>3.747879102574762</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10128,7 +10646,7 @@
         <v>177.26</v>
       </c>
       <c r="H173" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I173" t="n">
         <v>101.29</v>
@@ -10156,6 +10674,9 @@
         <v>0</v>
       </c>
       <c r="R173" t="inlineStr"/>
+      <c r="S173" t="n">
+        <v>3.488520128563848</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10184,7 +10705,7 @@
         <v>177.98</v>
       </c>
       <c r="H174" t="n">
-        <v>162.32</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I174" t="n">
         <v>101.22</v>
@@ -10212,6 +10733,9 @@
         <v>0</v>
       </c>
       <c r="R174" t="inlineStr"/>
+      <c r="S174" t="n">
+        <v>3.29799632803739</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10240,7 +10764,7 @@
         <v>176.72</v>
       </c>
       <c r="H175" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I175" t="n">
         <v>101.23</v>
@@ -10268,6 +10792,9 @@
         <v>0</v>
       </c>
       <c r="R175" t="inlineStr"/>
+      <c r="S175" t="n">
+        <v>3.534664202235594</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10296,7 +10823,7 @@
         <v>177.26</v>
       </c>
       <c r="H176" t="n">
-        <v>164.66</v>
+        <v>73.7</v>
       </c>
       <c r="I176" t="n">
         <v>101.34</v>
@@ -10324,6 +10851,9 @@
         <v>0</v>
       </c>
       <c r="R176" t="inlineStr"/>
+      <c r="S176" t="n">
+        <v>3.548782017576849</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -10352,7 +10882,7 @@
         <v>174.74</v>
       </c>
       <c r="H177" t="n">
-        <v>164.3</v>
+        <v>73.5</v>
       </c>
       <c r="I177" t="n">
         <v>101.31</v>
@@ -10380,6 +10910,9 @@
         <v>0</v>
       </c>
       <c r="R177" t="inlineStr"/>
+      <c r="S177" t="n">
+        <v>3.742148675649567</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -10408,7 +10941,7 @@
         <v>176.9</v>
       </c>
       <c r="H178" t="n">
-        <v>163.4</v>
+        <v>73</v>
       </c>
       <c r="I178" t="n">
         <v>101.24</v>
@@ -10436,6 +10969,9 @@
         <v>0</v>
       </c>
       <c r="R178" t="inlineStr"/>
+      <c r="S178" t="n">
+        <v>3.474188009310411</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -10464,7 +11000,7 @@
         <v>175.82</v>
       </c>
       <c r="H179" t="n">
-        <v>161.78</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="I179" t="n">
         <v>101.18</v>
@@ -10492,6 +11028,9 @@
         <v>0</v>
       </c>
       <c r="R179" t="inlineStr"/>
+      <c r="S179" t="n">
+        <v>3.431349646970679</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -10520,7 +11059,7 @@
         <v>176.18</v>
       </c>
       <c r="H180" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I180" t="n">
         <v>101.2</v>
@@ -10548,6 +11087,9 @@
         <v>0</v>
       </c>
       <c r="R180" t="inlineStr"/>
+      <c r="S180" t="n">
+        <v>3.581539754004455</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -10576,7 +11118,7 @@
         <v>174.38</v>
       </c>
       <c r="H181" t="n">
-        <v>165.2</v>
+        <v>74</v>
       </c>
       <c r="I181" t="n">
         <v>101.26</v>
@@ -10604,6 +11146,9 @@
         <v>0</v>
       </c>
       <c r="R181" t="inlineStr"/>
+      <c r="S181" t="n">
+        <v>3.857029686091806</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -10632,7 +11177,7 @@
         <v>173.3</v>
       </c>
       <c r="H182" t="n">
-        <v>167.18</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I182" t="n">
         <v>101.22</v>
@@ -10660,6 +11205,9 @@
         <v>0</v>
       </c>
       <c r="R182" t="inlineStr"/>
+      <c r="S182" t="n">
+        <v>4.151067254094857</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -10688,7 +11236,7 @@
         <v>175.1</v>
       </c>
       <c r="H183" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I183" t="n">
         <v>101.19</v>
@@ -10716,6 +11264,9 @@
         <v>0</v>
       </c>
       <c r="R183" t="inlineStr"/>
+      <c r="S183" t="n">
+        <v>3.838109934800839</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -10744,7 +11295,7 @@
         <v>173.66</v>
       </c>
       <c r="H184" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I184" t="n">
         <v>101.29</v>
@@ -10772,6 +11323,9 @@
         <v>0.007112</v>
       </c>
       <c r="R184" t="inlineStr"/>
+      <c r="S184" t="n">
+        <v>3.909458512240317</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -10800,7 +11354,7 @@
         <v>175.82</v>
       </c>
       <c r="H185" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I185" t="n">
         <v>101.46</v>
@@ -10828,6 +11382,9 @@
         <v>0.00254</v>
       </c>
       <c r="R185" t="inlineStr"/>
+      <c r="S185" t="n">
+        <v>3.917933081598552</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -10856,7 +11413,7 @@
         <v>176.18</v>
       </c>
       <c r="H186" t="n">
-        <v>167.18</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I186" t="n">
         <v>101.48</v>
@@ -10884,6 +11441,9 @@
         <v>0</v>
       </c>
       <c r="R186" t="inlineStr"/>
+      <c r="S186" t="n">
+        <v>3.867177471270846</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -10912,7 +11472,7 @@
         <v>175.1</v>
       </c>
       <c r="H187" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I187" t="n">
         <v>101.51</v>
@@ -10940,6 +11500,9 @@
         <v>0</v>
       </c>
       <c r="R187" t="inlineStr"/>
+      <c r="S187" t="n">
+        <v>4.004617969991553</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -10968,7 +11531,7 @@
         <v>176.36</v>
       </c>
       <c r="H188" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I188" t="n">
         <v>101.51</v>
@@ -10996,6 +11559,9 @@
         <v>0</v>
       </c>
       <c r="R188" t="inlineStr"/>
+      <c r="S188" t="n">
+        <v>3.75335006074895</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11024,7 +11590,7 @@
         <v>175.1</v>
       </c>
       <c r="H189" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I189" t="n">
         <v>101.58</v>
@@ -11052,6 +11618,9 @@
         <v>0</v>
       </c>
       <c r="R189" t="inlineStr"/>
+      <c r="S189" t="n">
+        <v>3.870930966459241</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11080,7 +11649,7 @@
         <v>174.56</v>
       </c>
       <c r="H190" t="n">
-        <v>165.56</v>
+        <v>74.2</v>
       </c>
       <c r="I190" t="n">
         <v>101.61</v>
@@ -11108,6 +11677,9 @@
         <v>0</v>
       </c>
       <c r="R190" t="inlineStr"/>
+      <c r="S190" t="n">
+        <v>3.872867782469853</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11136,7 +11708,7 @@
         <v>177.26</v>
       </c>
       <c r="H191" t="n">
-        <v>162.32</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I191" t="n">
         <v>101.65</v>
@@ -11164,6 +11736,9 @@
         <v>0</v>
       </c>
       <c r="R191" t="inlineStr"/>
+      <c r="S191" t="n">
+        <v>3.356113641243836</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11192,7 +11767,7 @@
         <v>175.82</v>
       </c>
       <c r="H192" t="n">
-        <v>162.32</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I192" t="n">
         <v>101.69</v>
@@ -11220,6 +11795,9 @@
         <v>0</v>
       </c>
       <c r="R192" t="inlineStr"/>
+      <c r="S192" t="n">
+        <v>3.476064269448592</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -11248,7 +11826,7 @@
         <v>175.1</v>
       </c>
       <c r="H193" t="n">
-        <v>161.24</v>
+        <v>71.8</v>
       </c>
       <c r="I193" t="n">
         <v>101.62</v>
@@ -11276,6 +11854,9 @@
         <v>0</v>
       </c>
       <c r="R193" t="inlineStr"/>
+      <c r="S193" t="n">
+        <v>3.447437239033758</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -11304,7 +11885,7 @@
         <v>175.64</v>
       </c>
       <c r="H194" t="n">
-        <v>163.22</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I194" t="n">
         <v>101.55</v>
@@ -11332,6 +11913,9 @@
         <v>0</v>
       </c>
       <c r="R194" t="inlineStr"/>
+      <c r="S194" t="n">
+        <v>3.567378873565247</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -11360,7 +11944,7 @@
         <v>176.36</v>
       </c>
       <c r="H195" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I195" t="n">
         <v>101.59</v>
@@ -11388,6 +11972,9 @@
         <v>0</v>
       </c>
       <c r="R195" t="inlineStr"/>
+      <c r="S195" t="n">
+        <v>3.490091935271691</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -11416,7 +12003,7 @@
         <v>175.64</v>
       </c>
       <c r="H196" t="n">
-        <v>164.84</v>
+        <v>73.8</v>
       </c>
       <c r="I196" t="n">
         <v>101.53</v>
@@ -11444,6 +12031,9 @@
         <v>0</v>
       </c>
       <c r="R196" t="inlineStr"/>
+      <c r="S196" t="n">
+        <v>3.707667811076994</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -11472,7 +12062,7 @@
         <v>175.28</v>
       </c>
       <c r="H197" t="n">
-        <v>161.06</v>
+        <v>71.7</v>
       </c>
       <c r="I197" t="n">
         <v>101.39</v>
@@ -11500,6 +12090,9 @@
         <v>0</v>
       </c>
       <c r="R197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>3.41741281657869</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -11528,7 +12121,7 @@
         <v>175.28</v>
       </c>
       <c r="H198" t="n">
-        <v>159.44</v>
+        <v>70.8</v>
       </c>
       <c r="I198" t="n">
         <v>101.32</v>
@@ -11556,6 +12149,9 @@
         <v>0</v>
       </c>
       <c r="R198" t="inlineStr"/>
+      <c r="S198" t="n">
+        <v>3.286408804255763</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -11584,7 +12180,7 @@
         <v>176.9</v>
       </c>
       <c r="H199" t="n">
-        <v>161.6</v>
+        <v>72</v>
       </c>
       <c r="I199" t="n">
         <v>101.43</v>
@@ -11612,6 +12208,9 @@
         <v>0</v>
       </c>
       <c r="R199" t="inlineStr"/>
+      <c r="S199" t="n">
+        <v>3.32766940310019</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -11640,7 +12239,7 @@
         <v>176.72</v>
       </c>
       <c r="H200" t="n">
-        <v>161.24</v>
+        <v>71.8</v>
       </c>
       <c r="I200" t="n">
         <v>101.39</v>
@@ -11668,6 +12267,9 @@
         <v>0</v>
       </c>
       <c r="R200" t="inlineStr"/>
+      <c r="S200" t="n">
+        <v>3.313502016373063</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -11696,7 +12298,7 @@
         <v>175.64</v>
       </c>
       <c r="H201" t="n">
-        <v>160.34</v>
+        <v>71.3</v>
       </c>
       <c r="I201" t="n">
         <v>101.24</v>
@@ -11724,6 +12326,9 @@
         <v>0</v>
       </c>
       <c r="R201" t="inlineStr"/>
+      <c r="S201" t="n">
+        <v>3.329140655881554</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -11752,7 +12357,7 @@
         <v>174.92</v>
       </c>
       <c r="H202" t="n">
-        <v>164.3</v>
+        <v>73.5</v>
       </c>
       <c r="I202" t="n">
         <v>101.18</v>
@@ -11780,6 +12385,9 @@
         <v>0</v>
       </c>
       <c r="R202" t="inlineStr"/>
+      <c r="S202" t="n">
+        <v>3.725624096429354</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -11808,7 +12416,7 @@
         <v>177.08</v>
       </c>
       <c r="H203" t="n">
-        <v>165.2</v>
+        <v>74</v>
       </c>
       <c r="I203" t="n">
         <v>101.35</v>
@@ -11836,6 +12444,9 @@
         <v>0</v>
       </c>
       <c r="R203" t="inlineStr"/>
+      <c r="S203" t="n">
+        <v>3.610324792666607</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -11864,7 +12475,7 @@
         <v>177.26</v>
       </c>
       <c r="H204" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I204" t="n">
         <v>101.41</v>
@@ -11892,6 +12503,9 @@
         <v>0</v>
       </c>
       <c r="R204" t="inlineStr"/>
+      <c r="S204" t="n">
+        <v>3.719098487769378</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -11920,7 +12534,7 @@
         <v>177.8</v>
       </c>
       <c r="H205" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I205" t="n">
         <v>101.34</v>
@@ -11948,6 +12562,9 @@
         <v>0</v>
       </c>
       <c r="R205" t="inlineStr"/>
+      <c r="S205" t="n">
+        <v>3.813272582247106</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -11976,7 +12593,7 @@
         <v>178.16</v>
       </c>
       <c r="H206" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I206" t="n">
         <v>101.27</v>
@@ -12004,6 +12621,9 @@
         <v>0</v>
       </c>
       <c r="R206" t="inlineStr"/>
+      <c r="S206" t="n">
+        <v>3.796159821099339</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12032,7 +12652,7 @@
         <v>177.44</v>
       </c>
       <c r="H207" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I207" t="n">
         <v>101.15</v>
@@ -12060,6 +12680,9 @@
         <v>0</v>
       </c>
       <c r="R207" t="inlineStr"/>
+      <c r="S207" t="n">
+        <v>3.928679866518381</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12088,7 +12711,7 @@
         <v>178.34</v>
       </c>
       <c r="H208" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I208" t="n">
         <v>101.14</v>
@@ -12116,6 +12739,9 @@
         <v>0</v>
       </c>
       <c r="R208" t="inlineStr"/>
+      <c r="S208" t="n">
+        <v>3.892738837566351</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12144,7 +12770,7 @@
         <v>180.68</v>
       </c>
       <c r="H209" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I209" t="n">
         <v>101.15</v>
@@ -12172,6 +12798,9 @@
         <v>0</v>
       </c>
       <c r="R209" t="inlineStr"/>
+      <c r="S209" t="n">
+        <v>3.557817744551849</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -12200,7 +12829,7 @@
         <v>181.4</v>
       </c>
       <c r="H210" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I210" t="n">
         <v>101.08</v>
@@ -12228,6 +12857,9 @@
         <v>0</v>
       </c>
       <c r="R210" t="inlineStr"/>
+      <c r="S210" t="n">
+        <v>3.424007200953866</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -12256,7 +12888,7 @@
         <v>179.42</v>
       </c>
       <c r="H211" t="n">
-        <v>162.5</v>
+        <v>72.5</v>
       </c>
       <c r="I211" t="n">
         <v>101.05</v>
@@ -12284,6 +12916,9 @@
         <v>0</v>
       </c>
       <c r="R211" t="inlineStr"/>
+      <c r="S211" t="n">
+        <v>3.199090918703184</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -12312,7 +12947,7 @@
         <v>180.86</v>
       </c>
       <c r="H212" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I212" t="n">
         <v>101.18</v>
@@ -12340,6 +12975,9 @@
         <v>0</v>
       </c>
       <c r="R212" t="inlineStr"/>
+      <c r="S212" t="n">
+        <v>3.424573156789749</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -12368,7 +13006,7 @@
         <v>182.66</v>
       </c>
       <c r="H213" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I213" t="n">
         <v>101.17</v>
@@ -12396,6 +13034,9 @@
         <v>0</v>
       </c>
       <c r="R213" t="inlineStr"/>
+      <c r="S213" t="n">
+        <v>3.737627746202125</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -12424,7 +13065,7 @@
         <v>182.84</v>
       </c>
       <c r="H214" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I214" t="n">
         <v>101.13</v>
@@ -12452,6 +13093,9 @@
         <v>0</v>
       </c>
       <c r="R214" t="inlineStr"/>
+      <c r="S214" t="n">
+        <v>3.629756848865354</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -12480,7 +13124,7 @@
         <v>181.58</v>
       </c>
       <c r="H215" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I215" t="n">
         <v>101.2</v>
@@ -12508,6 +13152,9 @@
         <v>0</v>
       </c>
       <c r="R215" t="inlineStr"/>
+      <c r="S215" t="n">
+        <v>3.64721344714137</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -12536,7 +13183,7 @@
         <v>180.86</v>
       </c>
       <c r="H216" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I216" t="n">
         <v>101.23</v>
@@ -12564,6 +13211,9 @@
         <v>0</v>
       </c>
       <c r="R216" t="inlineStr"/>
+      <c r="S216" t="n">
+        <v>3.663956225769099</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -12592,7 +13242,7 @@
         <v>179.78</v>
       </c>
       <c r="H217" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I217" t="n">
         <v>101.18</v>
@@ -12620,6 +13270,9 @@
         <v>0</v>
       </c>
       <c r="R217" t="inlineStr"/>
+      <c r="S217" t="n">
+        <v>3.728495046477852</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -12648,7 +13301,7 @@
         <v>181.4</v>
       </c>
       <c r="H218" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I218" t="n">
         <v>101.11</v>
@@ -12676,6 +13329,9 @@
         <v>0</v>
       </c>
       <c r="R218" t="inlineStr"/>
+      <c r="S218" t="n">
+        <v>3.438538007222868</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -12704,7 +13360,7 @@
         <v>180.32</v>
       </c>
       <c r="H219" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I219" t="n">
         <v>101.15</v>
@@ -12732,6 +13388,9 @@
         <v>0</v>
       </c>
       <c r="R219" t="inlineStr"/>
+      <c r="S219" t="n">
+        <v>3.742898805023837</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -12760,7 +13419,7 @@
         <v>178.52</v>
       </c>
       <c r="H220" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I220" t="n">
         <v>101.13</v>
@@ -12788,6 +13447,9 @@
         <v>0</v>
       </c>
       <c r="R220" t="inlineStr"/>
+      <c r="S220" t="n">
+        <v>3.908528480394279</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -12816,7 +13478,7 @@
         <v>176.54</v>
       </c>
       <c r="H221" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I221" t="n">
         <v>101.12</v>
@@ -12844,6 +13506,9 @@
         <v>0</v>
       </c>
       <c r="R221" t="inlineStr"/>
+      <c r="S221" t="n">
+        <v>4.049602545332875</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -12872,7 +13537,7 @@
         <v>182.12</v>
       </c>
       <c r="H222" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I222" t="n">
         <v>101.09</v>
@@ -12900,6 +13565,9 @@
         <v>0</v>
       </c>
       <c r="R222" t="inlineStr"/>
+      <c r="S222" t="n">
+        <v>3.58560090706071</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -12928,7 +13596,7 @@
         <v>183.02</v>
       </c>
       <c r="H223" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I223" t="n">
         <v>101.19</v>
@@ -12956,6 +13624,9 @@
         <v>0</v>
       </c>
       <c r="R223" t="inlineStr"/>
+      <c r="S223" t="n">
+        <v>3.294815664945633</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -12984,7 +13655,7 @@
         <v>184.1</v>
       </c>
       <c r="H224" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I224" t="n">
         <v>101.34</v>
@@ -13012,6 +13683,9 @@
         <v>0</v>
       </c>
       <c r="R224" t="inlineStr"/>
+      <c r="S224" t="n">
+        <v>3.266746698816204</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13040,7 +13714,7 @@
         <v>182.3</v>
       </c>
       <c r="H225" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I225" t="n">
         <v>101.38</v>
@@ -13068,6 +13742,9 @@
         <v>0</v>
       </c>
       <c r="R225" t="inlineStr"/>
+      <c r="S225" t="n">
+        <v>3.452146067028932</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13096,7 +13773,7 @@
         <v>181.4</v>
       </c>
       <c r="H226" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I226" t="n">
         <v>101.29</v>
@@ -13124,6 +13801,9 @@
         <v>0</v>
       </c>
       <c r="R226" t="inlineStr"/>
+      <c r="S226" t="n">
+        <v>3.586758744488284</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -13152,7 +13832,7 @@
         <v>182.48</v>
       </c>
       <c r="H227" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I227" t="n">
         <v>101.18</v>
@@ -13180,6 +13860,9 @@
         <v>0</v>
       </c>
       <c r="R227" t="inlineStr"/>
+      <c r="S227" t="n">
+        <v>3.422965590200248</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -13208,7 +13891,7 @@
         <v>183.92</v>
       </c>
       <c r="H228" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I228" t="n">
         <v>101.16</v>
@@ -13236,6 +13919,9 @@
         <v>0</v>
       </c>
       <c r="R228" t="inlineStr"/>
+      <c r="S228" t="n">
+        <v>3.294506439061307</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -13264,7 +13950,7 @@
         <v>182.84</v>
       </c>
       <c r="H229" t="n">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="I229" t="n">
         <v>101.1</v>
@@ -13292,6 +13978,9 @@
         <v>0</v>
       </c>
       <c r="R229" t="inlineStr"/>
+      <c r="S229" t="n">
+        <v>3.280945520488903</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -13320,7 +14009,7 @@
         <v>181.76</v>
       </c>
       <c r="H230" t="n">
-        <v>166.28</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I230" t="n">
         <v>101.13</v>
@@ -13348,6 +14037,9 @@
         <v>0</v>
       </c>
       <c r="R230" t="inlineStr"/>
+      <c r="S230" t="n">
+        <v>3.309424902004247</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -13376,7 +14068,7 @@
         <v>182.66</v>
       </c>
       <c r="H231" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I231" t="n">
         <v>101.08</v>
@@ -13404,6 +14096,9 @@
         <v>0</v>
       </c>
       <c r="R231" t="inlineStr"/>
+      <c r="S231" t="n">
+        <v>3.212011669650519</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -13432,7 +14127,7 @@
         <v>185.18</v>
       </c>
       <c r="H232" t="n">
-        <v>164.84</v>
+        <v>73.8</v>
       </c>
       <c r="I232" t="n">
         <v>101.01</v>
@@ -13460,6 +14155,9 @@
         <v>0</v>
       </c>
       <c r="R232" t="inlineStr"/>
+      <c r="S232" t="n">
+        <v>2.950435681682618</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -13488,7 +14186,7 @@
         <v>185.72</v>
       </c>
       <c r="H233" t="n">
-        <v>164.84</v>
+        <v>73.8</v>
       </c>
       <c r="I233" t="n">
         <v>101.06</v>
@@ -13516,6 +14214,9 @@
         <v>0</v>
       </c>
       <c r="R233" t="inlineStr"/>
+      <c r="S233" t="n">
+        <v>2.913413405105849</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -13544,7 +14245,7 @@
         <v>185.72</v>
       </c>
       <c r="H234" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I234" t="n">
         <v>101.25</v>
@@ -13572,6 +14273,9 @@
         <v>0</v>
       </c>
       <c r="R234" t="inlineStr"/>
+      <c r="S234" t="n">
+        <v>3.19854978275352</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -13600,7 +14304,7 @@
         <v>185.36</v>
       </c>
       <c r="H235" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I235" t="n">
         <v>101.19</v>
@@ -13628,6 +14332,9 @@
         <v>0</v>
       </c>
       <c r="R235" t="inlineStr"/>
+      <c r="S235" t="n">
+        <v>3.378114808701044</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -13656,7 +14363,7 @@
         <v>185.54</v>
       </c>
       <c r="H236" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I236" t="n">
         <v>100.9</v>
@@ -13684,6 +14391,9 @@
         <v>0</v>
       </c>
       <c r="R236" t="inlineStr"/>
+      <c r="S236" t="n">
+        <v>3.335862436772387</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -13712,7 +14422,7 @@
         <v>184.64</v>
       </c>
       <c r="H237" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I237" t="n">
         <v>100.84</v>
@@ -13740,6 +14450,9 @@
         <v>0</v>
       </c>
       <c r="R237" t="inlineStr"/>
+      <c r="S237" t="n">
+        <v>3.266659850647457</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -13768,7 +14481,7 @@
         <v>184.46</v>
       </c>
       <c r="H238" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I238" t="n">
         <v>100.95</v>
@@ -13796,6 +14509,9 @@
         <v>0</v>
       </c>
       <c r="R238" t="inlineStr"/>
+      <c r="S238" t="n">
+        <v>3.252924346820714</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -13824,7 +14540,7 @@
         <v>187.34</v>
       </c>
       <c r="H239" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I239" t="n">
         <v>101.02</v>
@@ -13852,6 +14568,9 @@
         <v>0</v>
       </c>
       <c r="R239" t="inlineStr"/>
+      <c r="S239" t="n">
+        <v>3.158974416347652</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -13880,7 +14599,7 @@
         <v>188.96</v>
       </c>
       <c r="H240" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I240" t="n">
         <v>101.1</v>
@@ -13908,6 +14627,9 @@
         <v>0</v>
       </c>
       <c r="R240" t="inlineStr"/>
+      <c r="S240" t="n">
+        <v>3.186331026222343</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -13936,7 +14658,7 @@
         <v>186.8</v>
       </c>
       <c r="H241" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I241" t="n">
         <v>101.12</v>
@@ -13964,6 +14686,9 @@
         <v>0</v>
       </c>
       <c r="R241" t="inlineStr"/>
+      <c r="S241" t="n">
+        <v>3.280277320746948</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -13992,7 +14717,7 @@
         <v>185.36</v>
       </c>
       <c r="H242" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I242" t="n">
         <v>100.98</v>
@@ -14020,6 +14745,9 @@
         <v>0</v>
       </c>
       <c r="R242" t="inlineStr"/>
+      <c r="S242" t="n">
+        <v>3.435083715061394</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -14048,7 +14776,7 @@
         <v>187.34</v>
       </c>
       <c r="H243" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I243" t="n">
         <v>101.03</v>
@@ -14076,6 +14804,9 @@
         <v>0</v>
       </c>
       <c r="R243" t="inlineStr"/>
+      <c r="S243" t="n">
+        <v>3.266624177491117</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -14104,7 +14835,7 @@
         <v>187.52</v>
       </c>
       <c r="H244" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I244" t="n">
         <v>101.03</v>
@@ -14132,6 +14863,9 @@
         <v>0</v>
       </c>
       <c r="R244" t="inlineStr"/>
+      <c r="S244" t="n">
+        <v>3.307785013212283</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -14160,7 +14894,7 @@
         <v>187.52</v>
       </c>
       <c r="H245" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I245" t="n">
         <v>100.97</v>
@@ -14188,6 +14922,9 @@
         <v>0</v>
       </c>
       <c r="R245" t="inlineStr"/>
+      <c r="S245" t="n">
+        <v>3.294023014287227</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -14216,7 +14953,7 @@
         <v>183.74</v>
       </c>
       <c r="H246" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I246" t="n">
         <v>100.98</v>
@@ -14244,6 +14981,9 @@
         <v>0</v>
       </c>
       <c r="R246" t="inlineStr"/>
+      <c r="S246" t="n">
+        <v>3.538584332643815</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -14272,7 +15012,7 @@
         <v>183.56</v>
       </c>
       <c r="H247" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I247" t="n">
         <v>101.05</v>
@@ -14300,6 +15040,9 @@
         <v>0</v>
       </c>
       <c r="R247" t="inlineStr"/>
+      <c r="S247" t="n">
+        <v>3.62858682729358</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -14328,7 +15071,7 @@
         <v>187.88</v>
       </c>
       <c r="H248" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I248" t="n">
         <v>101.11</v>
@@ -14356,6 +15099,9 @@
         <v>0.001016</v>
       </c>
       <c r="R248" t="inlineStr"/>
+      <c r="S248" t="n">
+        <v>3.419510719685623</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -14384,7 +15130,7 @@
         <v>188.06</v>
       </c>
       <c r="H249" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I249" t="n">
         <v>101.1</v>
@@ -14412,6 +15158,9 @@
         <v>0</v>
       </c>
       <c r="R249" t="inlineStr"/>
+      <c r="S249" t="n">
+        <v>3.363222636626451</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -14440,7 +15189,7 @@
         <v>185.9</v>
       </c>
       <c r="H250" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I250" t="n">
         <v>100.89</v>
@@ -14468,6 +15217,9 @@
         <v>0</v>
       </c>
       <c r="R250" t="inlineStr"/>
+      <c r="S250" t="n">
+        <v>3.536195304969298</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -14496,7 +15248,7 @@
         <v>187.52</v>
       </c>
       <c r="H251" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I251" t="n">
         <v>100.7</v>
@@ -14524,6 +15276,9 @@
         <v>0</v>
       </c>
       <c r="R251" t="inlineStr"/>
+      <c r="S251" t="n">
+        <v>3.307785013212283</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -14552,7 +15307,7 @@
         <v>177.08</v>
       </c>
       <c r="H252" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I252" t="n">
         <v>100.81</v>
@@ -14580,6 +15335,9 @@
         <v>0</v>
       </c>
       <c r="R252" t="inlineStr"/>
+      <c r="S252" t="n">
+        <v>3.946549553909161</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -14608,7 +15366,7 @@
         <v>183.02</v>
       </c>
       <c r="H253" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I253" t="n">
         <v>100.98</v>
@@ -14636,6 +15394,9 @@
         <v>0</v>
       </c>
       <c r="R253" t="inlineStr"/>
+      <c r="S253" t="n">
+        <v>3.495222189881127</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -14664,7 +15425,7 @@
         <v>185.36</v>
       </c>
       <c r="H254" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I254" t="n">
         <v>101.07</v>
@@ -14692,6 +15453,9 @@
         <v>0</v>
       </c>
       <c r="R254" t="inlineStr"/>
+      <c r="S254" t="n">
+        <v>3.507442508490281</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -14720,7 +15484,7 @@
         <v>186.8</v>
       </c>
       <c r="H255" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I255" t="n">
         <v>101.13</v>
@@ -14748,6 +15512,9 @@
         <v>0</v>
       </c>
       <c r="R255" t="inlineStr"/>
+      <c r="S255" t="n">
+        <v>3.307821154583816</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -14776,7 +15543,7 @@
         <v>187.52</v>
       </c>
       <c r="H256" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I256" t="n">
         <v>101.23</v>
@@ -14804,6 +15571,9 @@
         <v>0</v>
       </c>
       <c r="R256" t="inlineStr"/>
+      <c r="S256" t="n">
+        <v>3.294023014287227</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -14832,7 +15602,7 @@
         <v>186.08</v>
       </c>
       <c r="H257" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I257" t="n">
         <v>101.21</v>
@@ -14860,6 +15630,9 @@
         <v>0</v>
       </c>
       <c r="R257" t="inlineStr"/>
+      <c r="S257" t="n">
+        <v>3.420344039274058</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -14888,7 +15661,7 @@
         <v>186.8</v>
       </c>
       <c r="H258" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I258" t="n">
         <v>101.27</v>
@@ -14916,6 +15689,9 @@
         <v>0</v>
       </c>
       <c r="R258" t="inlineStr"/>
+      <c r="S258" t="n">
+        <v>3.36349956188135</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -14944,7 +15720,7 @@
         <v>186.62</v>
       </c>
       <c r="H259" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I259" t="n">
         <v>101.24</v>
@@ -14972,6 +15748,9 @@
         <v>0</v>
       </c>
       <c r="R259" t="inlineStr"/>
+      <c r="S259" t="n">
+        <v>3.18534617832744</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -15000,7 +15779,7 @@
         <v>186.8</v>
       </c>
       <c r="H260" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I260" t="n">
         <v>101.28</v>
@@ -15028,6 +15807,9 @@
         <v>0</v>
       </c>
       <c r="R260" t="inlineStr"/>
+      <c r="S260" t="n">
+        <v>3.239327606564812</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -15056,7 +15838,7 @@
         <v>187.16</v>
       </c>
       <c r="H261" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I261" t="n">
         <v>101.24</v>
@@ -15084,6 +15866,9 @@
         <v>0</v>
       </c>
       <c r="R261" t="inlineStr"/>
+      <c r="S261" t="n">
+        <v>3.32162535773999</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -15112,7 +15897,7 @@
         <v>187.52</v>
       </c>
       <c r="H262" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I262" t="n">
         <v>101.26</v>
@@ -15140,6 +15925,9 @@
         <v>0</v>
       </c>
       <c r="R262" t="inlineStr"/>
+      <c r="S262" t="n">
+        <v>3.335455786454339</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -15168,7 +15956,7 @@
         <v>188.24</v>
       </c>
       <c r="H263" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I263" t="n">
         <v>101.15</v>
@@ -15196,6 +15984,9 @@
         <v>0</v>
       </c>
       <c r="R263" t="inlineStr"/>
+      <c r="S263" t="n">
+        <v>3.349271876503249</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -15224,7 +16015,7 @@
         <v>185</v>
       </c>
       <c r="H264" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I264" t="n">
         <v>101.09</v>
@@ -15252,6 +16043,9 @@
         <v>0</v>
       </c>
       <c r="R264" t="inlineStr"/>
+      <c r="S264" t="n">
+        <v>3.507787524355053</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -15280,7 +16074,7 @@
         <v>182.3</v>
       </c>
       <c r="H265" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I265" t="n">
         <v>101.17</v>
@@ -15308,6 +16102,9 @@
         <v>0</v>
       </c>
       <c r="R265" t="inlineStr"/>
+      <c r="S265" t="n">
+        <v>3.630672469493267</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -15336,7 +16133,7 @@
         <v>185.18</v>
       </c>
       <c r="H266" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I266" t="n">
         <v>101.24</v>
@@ -15364,6 +16161,9 @@
         <v>0</v>
       </c>
       <c r="R266" t="inlineStr"/>
+      <c r="S266" t="n">
+        <v>3.47849632639106</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -15392,7 +16192,7 @@
         <v>180.14</v>
       </c>
       <c r="H267" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I267" t="n">
         <v>101.25</v>
@@ -15420,6 +16220,9 @@
         <v>0</v>
       </c>
       <c r="R267" t="inlineStr"/>
+      <c r="S267" t="n">
+        <v>3.712005962179285</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -15448,7 +16251,7 @@
         <v>183.56</v>
       </c>
       <c r="H268" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I268" t="n">
         <v>101.18</v>
@@ -15476,6 +16279,9 @@
         <v>0</v>
       </c>
       <c r="R268" t="inlineStr"/>
+      <c r="S268" t="n">
+        <v>3.613490136360757</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -15504,7 +16310,7 @@
         <v>177.26</v>
       </c>
       <c r="H269" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I269" t="n">
         <v>101.24</v>
@@ -15532,6 +16338,9 @@
         <v>0</v>
       </c>
       <c r="R269" t="inlineStr"/>
+      <c r="S269" t="n">
+        <v>3.879926985564281</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -15560,7 +16369,7 @@
         <v>181.76</v>
       </c>
       <c r="H270" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I270" t="n">
         <v>101.24</v>
@@ -15588,6 +16397,9 @@
         <v>0</v>
       </c>
       <c r="R270" t="inlineStr"/>
+      <c r="S270" t="n">
+        <v>3.662191514006881</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -15616,7 +16428,7 @@
         <v>180.14</v>
       </c>
       <c r="H271" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I271" t="n">
         <v>101.11</v>
@@ -15644,6 +16456,9 @@
         <v>0</v>
       </c>
       <c r="R271" t="inlineStr"/>
+      <c r="S271" t="n">
+        <v>3.838662309455101</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -15672,7 +16487,7 @@
         <v>181.04</v>
       </c>
       <c r="H272" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I272" t="n">
         <v>100.94</v>
@@ -15700,6 +16515,9 @@
         <v>0</v>
       </c>
       <c r="R272" t="inlineStr"/>
+      <c r="S272" t="n">
+        <v>3.756895816953765</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -15728,7 +16546,7 @@
         <v>182.48</v>
       </c>
       <c r="H273" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I273" t="n">
         <v>100.91</v>
@@ -15756,6 +16574,9 @@
         <v>0</v>
       </c>
       <c r="R273" t="inlineStr"/>
+      <c r="S273" t="n">
+        <v>3.64557822505355</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -15784,7 +16605,7 @@
         <v>184.28</v>
       </c>
       <c r="H274" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I274" t="n">
         <v>100.97</v>
@@ -15812,6 +16633,9 @@
         <v>0</v>
       </c>
       <c r="R274" t="inlineStr"/>
+      <c r="S274" t="n">
+        <v>3.52320328658173</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -15840,7 +16664,7 @@
         <v>185.36</v>
       </c>
       <c r="H275" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I275" t="n">
         <v>100.9</v>
@@ -15868,6 +16692,9 @@
         <v>0</v>
       </c>
       <c r="R275" t="inlineStr"/>
+      <c r="S275" t="n">
+        <v>3.610920159837787</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -15896,7 +16723,7 @@
         <v>185.18</v>
       </c>
       <c r="H276" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I276" t="n">
         <v>100.86</v>
@@ -15924,6 +16751,9 @@
         <v>0</v>
       </c>
       <c r="R276" t="inlineStr"/>
+      <c r="S276" t="n">
+        <v>3.656328171278766</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -15952,7 +16782,7 @@
         <v>186.26</v>
       </c>
       <c r="H277" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I277" t="n">
         <v>101.05</v>
@@ -15980,6 +16810,9 @@
         <v>0</v>
       </c>
       <c r="R277" t="inlineStr"/>
+      <c r="S277" t="n">
+        <v>3.535844355614147</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -16008,7 +16841,7 @@
         <v>180.68</v>
       </c>
       <c r="H278" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I278" t="n">
         <v>101.02</v>
@@ -16036,6 +16869,9 @@
         <v>0</v>
       </c>
       <c r="R278" t="inlineStr"/>
+      <c r="S278" t="n">
+        <v>3.789349760292055</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -16064,7 +16900,7 @@
         <v>181.76</v>
       </c>
       <c r="H279" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I279" t="n">
         <v>101.11</v>
@@ -16092,6 +16928,9 @@
         <v>0</v>
       </c>
       <c r="R279" t="inlineStr"/>
+      <c r="S279" t="n">
+        <v>3.677558709415281</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -16120,7 +16959,7 @@
         <v>183.2</v>
       </c>
       <c r="H280" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I280" t="n">
         <v>101.02</v>
@@ -16148,6 +16987,9 @@
         <v>0</v>
       </c>
       <c r="R280" t="inlineStr"/>
+      <c r="S280" t="n">
+        <v>3.705563577244901</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -16176,7 +17018,7 @@
         <v>184.64</v>
       </c>
       <c r="H281" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I281" t="n">
         <v>100.8</v>
@@ -16204,6 +17046,9 @@
         <v>0</v>
       </c>
       <c r="R281" t="inlineStr"/>
+      <c r="S281" t="n">
+        <v>3.642026481020734</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -16232,7 +17077,7 @@
         <v>185.36</v>
       </c>
       <c r="H282" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I282" t="n">
         <v>100.75</v>
@@ -16260,6 +17105,9 @@
         <v>0</v>
       </c>
       <c r="R282" t="inlineStr"/>
+      <c r="S282" t="n">
+        <v>3.595980621417293</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -16288,7 +17136,7 @@
         <v>184.82</v>
       </c>
       <c r="H283" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I283" t="n">
         <v>100.84</v>
@@ -16316,6 +17164,9 @@
         <v>0</v>
       </c>
       <c r="R283" t="inlineStr"/>
+      <c r="S283" t="n">
+        <v>3.641753923615312</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -16344,7 +17195,7 @@
         <v>184.46</v>
       </c>
       <c r="H284" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I284" t="n">
         <v>100.96</v>
@@ -16372,6 +17223,9 @@
         <v>0</v>
       </c>
       <c r="R284" t="inlineStr"/>
+      <c r="S284" t="n">
+        <v>3.582231811091661</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -16400,7 +17254,7 @@
         <v>184.82</v>
       </c>
       <c r="H285" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I285" t="n">
         <v>101.02</v>
@@ -16428,6 +17282,9 @@
         <v>0</v>
       </c>
       <c r="R285" t="inlineStr"/>
+      <c r="S285" t="n">
+        <v>3.641753923615312</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -16456,7 +17313,7 @@
         <v>185.54</v>
       </c>
       <c r="H286" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I286" t="n">
         <v>101.13</v>
@@ -16484,6 +17341,9 @@
         <v>0</v>
       </c>
       <c r="R286" t="inlineStr"/>
+      <c r="S286" t="n">
+        <v>3.580876399692203</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -16512,7 +17372,7 @@
         <v>182.12</v>
       </c>
       <c r="H287" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I287" t="n">
         <v>101.08</v>
@@ -16540,6 +17400,9 @@
         <v>0</v>
       </c>
       <c r="R287" t="inlineStr"/>
+      <c r="S287" t="n">
+        <v>3.58560090706071</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -16568,7 +17431,7 @@
         <v>183.56</v>
       </c>
       <c r="H288" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I288" t="n">
         <v>100.98</v>
@@ -16596,6 +17459,9 @@
         <v>0</v>
       </c>
       <c r="R288" t="inlineStr"/>
+      <c r="S288" t="n">
+        <v>3.422042997538003</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -16624,7 +17490,7 @@
         <v>182.12</v>
       </c>
       <c r="H289" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I289" t="n">
         <v>100.95</v>
@@ -16652,6 +17518,9 @@
         <v>0</v>
       </c>
       <c r="R289" t="inlineStr"/>
+      <c r="S289" t="n">
+        <v>3.555613856585186</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -16680,7 +17549,7 @@
         <v>181.76</v>
       </c>
       <c r="H290" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I290" t="n">
         <v>100.95</v>
@@ -16708,6 +17577,9 @@
         <v>0</v>
       </c>
       <c r="R290" t="inlineStr"/>
+      <c r="S290" t="n">
+        <v>3.541209286557535</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -16736,7 +17608,7 @@
         <v>181.76</v>
       </c>
       <c r="H291" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I291" t="n">
         <v>100.94</v>
@@ -16764,6 +17636,9 @@
         <v>0</v>
       </c>
       <c r="R291" t="inlineStr"/>
+      <c r="S291" t="n">
+        <v>3.646879000157619</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -16792,7 +17667,7 @@
         <v>179.78</v>
       </c>
       <c r="H292" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I292" t="n">
         <v>101.08</v>
@@ -16820,6 +17695,9 @@
         <v>0</v>
       </c>
       <c r="R292" t="inlineStr"/>
+      <c r="S292" t="n">
+        <v>3.7599796249734</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -16848,7 +17726,7 @@
         <v>183.2</v>
       </c>
       <c r="H293" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I293" t="n">
         <v>101.12</v>
@@ -16876,6 +17754,9 @@
         <v>0</v>
       </c>
       <c r="R293" t="inlineStr"/>
+      <c r="S293" t="n">
+        <v>3.629164608679982</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -16904,7 +17785,7 @@
         <v>181.58</v>
       </c>
       <c r="H294" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I294" t="n">
         <v>101.09</v>
@@ -16932,6 +17813,9 @@
         <v>0</v>
       </c>
       <c r="R294" t="inlineStr"/>
+      <c r="S294" t="n">
+        <v>3.739978991328964</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -16960,7 +17844,7 @@
         <v>184.46</v>
       </c>
       <c r="H295" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I295" t="n">
         <v>101.08</v>
@@ -16988,6 +17872,9 @@
         <v>0</v>
       </c>
       <c r="R295" t="inlineStr"/>
+      <c r="S295" t="n">
+        <v>3.627205185501407</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -17016,7 +17903,7 @@
         <v>181.94</v>
       </c>
       <c r="H296" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I296" t="n">
         <v>101.2</v>
@@ -17044,6 +17931,9 @@
         <v>0</v>
       </c>
       <c r="R296" t="inlineStr"/>
+      <c r="S296" t="n">
+        <v>3.7704984911551</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -17072,7 +17962,7 @@
         <v>181.4</v>
       </c>
       <c r="H297" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I297" t="n">
         <v>101.27</v>
@@ -17100,6 +17990,9 @@
         <v>0</v>
       </c>
       <c r="R297" t="inlineStr"/>
+      <c r="S297" t="n">
+        <v>3.693719815890568</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -17128,7 +18021,7 @@
         <v>181.22</v>
       </c>
       <c r="H298" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I298" t="n">
         <v>101.2</v>
@@ -17156,6 +18049,9 @@
         <v>0</v>
       </c>
       <c r="R298" t="inlineStr"/>
+      <c r="S298" t="n">
+        <v>3.571983873079442</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -17184,7 +18080,7 @@
         <v>181.76</v>
       </c>
       <c r="H299" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I299" t="n">
         <v>101.14</v>
@@ -17212,6 +18108,9 @@
         <v>0</v>
       </c>
       <c r="R299" t="inlineStr"/>
+      <c r="S299" t="n">
+        <v>3.526328577875911</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -17240,7 +18139,7 @@
         <v>181.76</v>
       </c>
       <c r="H300" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I300" t="n">
         <v>101.04</v>
@@ -17268,6 +18167,9 @@
         <v>0</v>
       </c>
       <c r="R300" t="inlineStr"/>
+      <c r="S300" t="n">
+        <v>3.692980744362385</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -17296,7 +18198,7 @@
         <v>182.66</v>
       </c>
       <c r="H301" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I301" t="n">
         <v>101.16</v>
@@ -17324,6 +18226,9 @@
         <v>0</v>
       </c>
       <c r="R301" t="inlineStr"/>
+      <c r="S301" t="n">
+        <v>3.645262240477907</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -17352,7 +18257,7 @@
         <v>182.84</v>
       </c>
       <c r="H302" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I302" t="n">
         <v>101.25</v>
@@ -17380,6 +18285,9 @@
         <v>0</v>
       </c>
       <c r="R302" t="inlineStr"/>
+      <c r="S302" t="n">
+        <v>3.599532294743124</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -17408,7 +18316,7 @@
         <v>184.28</v>
       </c>
       <c r="H303" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I303" t="n">
         <v>101.19</v>
@@ -17436,6 +18344,9 @@
         <v>0</v>
       </c>
       <c r="R303" t="inlineStr"/>
+      <c r="S303" t="n">
+        <v>3.421493250833808</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -17464,7 +18375,7 @@
         <v>180.86</v>
       </c>
       <c r="H304" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I304" t="n">
         <v>101.11</v>
@@ -17492,6 +18403,9 @@
         <v>0</v>
       </c>
       <c r="R304" t="inlineStr"/>
+      <c r="S304" t="n">
+        <v>3.917437950113348</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -17520,7 +18434,7 @@
         <v>178.34</v>
       </c>
       <c r="H305" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I305" t="n">
         <v>101.05</v>
@@ -17548,6 +18462,9 @@
         <v>0</v>
       </c>
       <c r="R305" t="inlineStr"/>
+      <c r="S305" t="n">
+        <v>3.942072420275714</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -17576,7 +18493,7 @@
         <v>183.2</v>
       </c>
       <c r="H306" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I306" t="n">
         <v>101</v>
@@ -17604,6 +18521,9 @@
         <v>0</v>
       </c>
       <c r="R306" t="inlineStr"/>
+      <c r="S306" t="n">
+        <v>3.674841449541528</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -17632,7 +18552,7 @@
         <v>179.06</v>
       </c>
       <c r="H307" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I307" t="n">
         <v>100.89</v>
@@ -17660,6 +18580,9 @@
         <v>0</v>
       </c>
       <c r="R307" t="inlineStr"/>
+      <c r="S307" t="n">
+        <v>3.95612212958579</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -17688,7 +18611,7 @@
         <v>181.4</v>
       </c>
       <c r="H308" t="n">
-        <v>174.92</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I308" t="n">
         <v>100.73</v>
@@ -17716,6 +18639,9 @@
         <v>0.001016</v>
       </c>
       <c r="R308" t="inlineStr"/>
+      <c r="S308" t="n">
+        <v>4.081300467686157</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -17744,7 +18670,7 @@
         <v>179.78</v>
       </c>
       <c r="H309" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I309" t="n">
         <v>100.75</v>
@@ -17772,6 +18698,9 @@
         <v>0</v>
       </c>
       <c r="R309" t="inlineStr"/>
+      <c r="S309" t="n">
+        <v>3.871964307041462</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -17800,7 +18729,7 @@
         <v>183.2</v>
       </c>
       <c r="H310" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I310" t="n">
         <v>100.84</v>
@@ -17828,6 +18757,9 @@
         <v>0</v>
       </c>
       <c r="R310" t="inlineStr"/>
+      <c r="S310" t="n">
+        <v>3.659561811097916</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -17856,7 +18788,7 @@
         <v>181.22</v>
       </c>
       <c r="H311" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I311" t="n">
         <v>100.86</v>
@@ -17884,6 +18816,9 @@
         <v>0</v>
       </c>
       <c r="R311" t="inlineStr"/>
+      <c r="S311" t="n">
+        <v>3.678639524131287</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -17912,7 +18847,7 @@
         <v>179.96</v>
       </c>
       <c r="H312" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I312" t="n">
         <v>100.86</v>
@@ -17940,6 +18875,9 @@
         <v>0</v>
       </c>
       <c r="R312" t="inlineStr"/>
+      <c r="S312" t="n">
+        <v>3.855270272657362</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -17968,7 +18906,7 @@
         <v>179.78</v>
       </c>
       <c r="H313" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I313" t="n">
         <v>101.07</v>
@@ -17996,6 +18934,9 @@
         <v>0</v>
       </c>
       <c r="R313" t="inlineStr"/>
+      <c r="S313" t="n">
+        <v>3.888191447859775</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -18024,7 +18965,7 @@
         <v>176.36</v>
       </c>
       <c r="H314" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I314" t="n">
         <v>101.22</v>
@@ -18052,6 +18993,9 @@
         <v>0</v>
       </c>
       <c r="R314" t="inlineStr"/>
+      <c r="S314" t="n">
+        <v>4.101750539739181</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -18080,7 +19024,7 @@
         <v>180.5</v>
       </c>
       <c r="H315" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I315" t="n">
         <v>101.08</v>
@@ -18108,6 +19052,9 @@
         <v>0</v>
       </c>
       <c r="R315" t="inlineStr"/>
+      <c r="S315" t="n">
+        <v>3.821652000855147</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -18136,7 +19083,7 @@
         <v>179.24</v>
       </c>
       <c r="H316" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I316" t="n">
         <v>100.97</v>
@@ -18164,6 +19111,9 @@
         <v>0</v>
       </c>
       <c r="R316" t="inlineStr"/>
+      <c r="S316" t="n">
+        <v>3.906187191964374</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -18192,7 +19142,7 @@
         <v>181.58</v>
       </c>
       <c r="H317" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I317" t="n">
         <v>100.93</v>
@@ -18220,6 +19170,9 @@
         <v>0</v>
       </c>
       <c r="R317" t="inlineStr"/>
+      <c r="S317" t="n">
+        <v>3.787109580749608</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -18248,7 +19201,7 @@
         <v>183.56</v>
       </c>
       <c r="H318" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I318" t="n">
         <v>100.88</v>
@@ -18276,6 +19229,9 @@
         <v>0</v>
       </c>
       <c r="R318" t="inlineStr"/>
+      <c r="S318" t="n">
+        <v>3.76688843246971</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -18304,7 +19260,7 @@
         <v>183.02</v>
       </c>
       <c r="H319" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I319" t="n">
         <v>100.79</v>
@@ -18332,6 +19288,9 @@
         <v>0</v>
       </c>
       <c r="R319" t="inlineStr"/>
+      <c r="S319" t="n">
+        <v>3.752438281495254</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -18360,7 +19319,7 @@
         <v>181.58</v>
       </c>
       <c r="H320" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I320" t="n">
         <v>100.79</v>
@@ -18388,6 +19347,9 @@
         <v>0</v>
       </c>
       <c r="R320" t="inlineStr"/>
+      <c r="S320" t="n">
+        <v>3.818809876458169</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -18416,7 +19378,7 @@
         <v>181.4</v>
       </c>
       <c r="H321" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I321" t="n">
         <v>100.93</v>
@@ -18444,6 +19406,9 @@
         <v>0</v>
       </c>
       <c r="R321" t="inlineStr"/>
+      <c r="S321" t="n">
+        <v>3.867282845669359</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -18472,7 +19437,7 @@
         <v>181.4</v>
       </c>
       <c r="H322" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I322" t="n">
         <v>100.96</v>
@@ -18500,6 +19465,9 @@
         <v>0</v>
       </c>
       <c r="R322" t="inlineStr"/>
+      <c r="S322" t="n">
+        <v>3.662886126504965</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -18528,7 +19496,7 @@
         <v>181.22</v>
       </c>
       <c r="H323" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I323" t="n">
         <v>100.98</v>
@@ -18556,6 +19524,9 @@
         <v>0</v>
       </c>
       <c r="R323" t="inlineStr"/>
+      <c r="S323" t="n">
+        <v>3.981895037539316</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -18584,7 +19555,7 @@
         <v>182.12</v>
       </c>
       <c r="H324" t="n">
-        <v>174.56</v>
+        <v>79.2</v>
       </c>
       <c r="I324" t="n">
         <v>100.96</v>
@@ -18612,6 +19583,9 @@
         <v>0</v>
       </c>
       <c r="R324" t="inlineStr"/>
+      <c r="S324" t="n">
+        <v>3.978986569066238</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -18640,7 +19614,7 @@
         <v>182.12</v>
       </c>
       <c r="H325" t="n">
-        <v>174.74</v>
+        <v>79.3</v>
       </c>
       <c r="I325" t="n">
         <v>101.07</v>
@@ -18668,6 +19642,9 @@
         <v>0</v>
       </c>
       <c r="R325" t="inlineStr"/>
+      <c r="S325" t="n">
+        <v>3.995455777766793</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -18696,7 +19673,7 @@
         <v>181.76</v>
       </c>
       <c r="H326" t="n">
-        <v>174.38</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I326" t="n">
         <v>101.25</v>
@@ -18724,6 +19701,9 @@
         <v>0</v>
       </c>
       <c r="R326" t="inlineStr"/>
+      <c r="S326" t="n">
+        <v>3.996631486954471</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -18752,7 +19732,7 @@
         <v>181.94</v>
       </c>
       <c r="H327" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I327" t="n">
         <v>101.39</v>
@@ -18780,6 +19760,9 @@
         <v>0</v>
       </c>
       <c r="R327" t="inlineStr"/>
+      <c r="S327" t="n">
+        <v>3.898014640041912</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -18808,7 +19791,7 @@
         <v>182.48</v>
       </c>
       <c r="H328" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I328" t="n">
         <v>101.31</v>
@@ -18836,6 +19819,9 @@
         <v>0</v>
       </c>
       <c r="R328" t="inlineStr"/>
+      <c r="S328" t="n">
+        <v>3.848359493234631</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -18864,7 +19850,7 @@
         <v>183.38</v>
       </c>
       <c r="H329" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I329" t="n">
         <v>101.1</v>
@@ -18892,6 +19878,9 @@
         <v>0</v>
       </c>
       <c r="R329" t="inlineStr"/>
+      <c r="S329" t="n">
+        <v>3.751678011589672</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -18920,7 +19909,7 @@
         <v>184.64</v>
       </c>
       <c r="H330" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I330" t="n">
         <v>101.03</v>
@@ -18948,6 +19937,9 @@
         <v>0</v>
       </c>
       <c r="R330" t="inlineStr"/>
+      <c r="S330" t="n">
+        <v>3.702909004448108</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -18976,7 +19968,7 @@
         <v>184.1</v>
       </c>
       <c r="H331" t="n">
-        <v>175.1</v>
+        <v>79.5</v>
       </c>
       <c r="I331" t="n">
         <v>101.13</v>
@@ -19004,6 +19996,9 @@
         <v>0</v>
       </c>
       <c r="R331" t="inlineStr"/>
+      <c r="S331" t="n">
+        <v>3.844335408244441</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -19032,7 +20027,7 @@
         <v>183.74</v>
       </c>
       <c r="H332" t="n">
-        <v>175.28</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I332" t="n">
         <v>101.21</v>
@@ -19060,6 +20055,9 @@
         <v>0</v>
       </c>
       <c r="R332" t="inlineStr"/>
+      <c r="S332" t="n">
+        <v>3.893086397256353</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -19088,7 +20086,7 @@
         <v>184.28</v>
       </c>
       <c r="H333" t="n">
-        <v>175.28</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I333" t="n">
         <v>101.14</v>
@@ -19116,6 +20114,9 @@
         <v>0</v>
       </c>
       <c r="R333" t="inlineStr"/>
+      <c r="S333" t="n">
+        <v>3.843908117094527</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -19144,7 +20145,7 @@
         <v>183.02</v>
       </c>
       <c r="H334" t="n">
-        <v>174.92</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I334" t="n">
         <v>101.09</v>
@@ -19172,6 +20173,9 @@
         <v>0</v>
       </c>
       <c r="R334" t="inlineStr"/>
+      <c r="S334" t="n">
+        <v>3.927308537942376</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -19200,7 +20204,7 @@
         <v>184.1</v>
       </c>
       <c r="H335" t="n">
-        <v>174.92</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I335" t="n">
         <v>101.05</v>
@@ -19228,6 +20232,9 @@
         <v>0</v>
       </c>
       <c r="R335" t="inlineStr"/>
+      <c r="S335" t="n">
+        <v>3.828508695846381</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -19256,7 +20263,7 @@
         <v>184.46</v>
       </c>
       <c r="H336" t="n">
-        <v>174.56</v>
+        <v>79.2</v>
       </c>
       <c r="I336" t="n">
         <v>101.08</v>
@@ -19284,6 +20291,9 @@
         <v>0</v>
       </c>
       <c r="R336" t="inlineStr"/>
+      <c r="S336" t="n">
+        <v>3.765017408422194</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -19312,7 +20322,7 @@
         <v>183.92</v>
       </c>
       <c r="H337" t="n">
-        <v>174.74</v>
+        <v>79.3</v>
       </c>
       <c r="I337" t="n">
         <v>101.12</v>
@@ -19340,6 +20350,9 @@
         <v>0</v>
       </c>
       <c r="R337" t="inlineStr"/>
+      <c r="S337" t="n">
+        <v>3.828928365229308</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -19368,7 +20381,7 @@
         <v>182.66</v>
       </c>
       <c r="H338" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I338" t="n">
         <v>101.2</v>
@@ -19396,6 +20409,9 @@
         <v>0</v>
       </c>
       <c r="R338" t="inlineStr"/>
+      <c r="S338" t="n">
+        <v>3.630058412412869</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -19424,7 +20440,7 @@
         <v>177.44</v>
       </c>
       <c r="H339" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I339" t="n">
         <v>101.16</v>
@@ -19452,6 +20468,9 @@
         <v>0.011938</v>
       </c>
       <c r="R339" t="inlineStr"/>
+      <c r="S339" t="n">
+        <v>4.079948314397485</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -19480,7 +20499,7 @@
         <v>179.78</v>
       </c>
       <c r="H340" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I340" t="n">
         <v>101.03</v>
@@ -19508,6 +20527,9 @@
         <v>0</v>
       </c>
       <c r="R340" t="inlineStr"/>
+      <c r="S340" t="n">
+        <v>3.970197936614899</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -19536,7 +20558,7 @@
         <v>174.74</v>
       </c>
       <c r="H341" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I341" t="n">
         <v>100.94</v>
@@ -19564,6 +20586,9 @@
         <v>0.029972</v>
       </c>
       <c r="R341" t="inlineStr"/>
+      <c r="S341" t="n">
+        <v>4.07453739055453</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -19592,7 +20617,7 @@
         <v>177.62</v>
       </c>
       <c r="H342" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I342" t="n">
         <v>100.96</v>
@@ -19620,6 +20645,9 @@
         <v>0</v>
       </c>
       <c r="R342" t="inlineStr"/>
+      <c r="S342" t="n">
+        <v>3.686728799275927</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -19648,7 +20676,7 @@
         <v>179.42</v>
       </c>
       <c r="H343" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I343" t="n">
         <v>101.08</v>
@@ -19676,6 +20704,9 @@
         <v>0</v>
       </c>
       <c r="R343" t="inlineStr"/>
+      <c r="S343" t="n">
+        <v>3.889302653688437</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -19704,7 +20735,7 @@
         <v>179.24</v>
       </c>
       <c r="H344" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I344" t="n">
         <v>101.16</v>
@@ -19732,6 +20763,9 @@
         <v>0</v>
       </c>
       <c r="R344" t="inlineStr"/>
+      <c r="S344" t="n">
+        <v>3.745555302840271</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -19760,7 +20794,7 @@
         <v>181.58</v>
       </c>
       <c r="H345" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I345" t="n">
         <v>101.09</v>
@@ -19788,6 +20822,9 @@
         <v>0</v>
       </c>
       <c r="R345" t="inlineStr"/>
+      <c r="S345" t="n">
+        <v>3.64721344714137</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -19816,7 +20853,7 @@
         <v>182.84</v>
       </c>
       <c r="H346" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I346" t="n">
         <v>101.05</v>
@@ -19844,6 +20881,9 @@
         <v>0</v>
       </c>
       <c r="R346" t="inlineStr"/>
+      <c r="S346" t="n">
+        <v>3.831529082554666</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -19872,7 +20912,7 @@
         <v>185</v>
       </c>
       <c r="H347" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I347" t="n">
         <v>100.95</v>
@@ -19900,6 +20940,9 @@
         <v>0</v>
       </c>
       <c r="R347" t="inlineStr"/>
+      <c r="S347" t="n">
+        <v>3.596445894343483</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -19928,7 +20971,7 @@
         <v>184.28</v>
       </c>
       <c r="H348" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I348" t="n">
         <v>100.79</v>
@@ -19956,6 +20999,9 @@
         <v>0</v>
       </c>
       <c r="R348" t="inlineStr"/>
+      <c r="S348" t="n">
+        <v>3.688227651719743</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -19984,7 +21030,7 @@
         <v>184.46</v>
       </c>
       <c r="H349" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I349" t="n">
         <v>100.74</v>
@@ -20012,6 +21058,9 @@
         <v>0</v>
       </c>
       <c r="R349" t="inlineStr"/>
+      <c r="S349" t="n">
+        <v>3.703227876784314</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -20040,7 +21089,7 @@
         <v>183.02</v>
       </c>
       <c r="H350" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I350" t="n">
         <v>100.81</v>
@@ -20068,6 +21117,9 @@
         <v>0</v>
       </c>
       <c r="R350" t="inlineStr"/>
+      <c r="S350" t="n">
+        <v>3.705912153759852</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -20096,7 +21148,7 @@
         <v>181.76</v>
       </c>
       <c r="H351" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I351" t="n">
         <v>100.9</v>
@@ -20124,6 +21176,9 @@
         <v>0</v>
       </c>
       <c r="R351" t="inlineStr"/>
+      <c r="S351" t="n">
+        <v>3.7709190648662</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -20152,7 +21207,7 @@
         <v>183.2</v>
       </c>
       <c r="H352" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I352" t="n">
         <v>100.9</v>
@@ -20180,6 +21235,9 @@
         <v>0</v>
       </c>
       <c r="R352" t="inlineStr"/>
+      <c r="S352" t="n">
+        <v>3.799044010864816</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -20208,7 +21266,7 @@
         <v>182.84</v>
       </c>
       <c r="H353" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I353" t="n">
         <v>100.84</v>
@@ -20236,6 +21294,9 @@
         <v>0</v>
       </c>
       <c r="R353" t="inlineStr"/>
+      <c r="S353" t="n">
+        <v>3.737249311370074</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -20264,7 +21325,7 @@
         <v>182.48</v>
       </c>
       <c r="H354" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I354" t="n">
         <v>100.75</v>
@@ -20292,6 +21353,9 @@
         <v>0</v>
       </c>
       <c r="R354" t="inlineStr"/>
+      <c r="S354" t="n">
+        <v>3.81655207136349</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -20320,7 +21384,7 @@
         <v>181.94</v>
       </c>
       <c r="H355" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I355" t="n">
         <v>100.73</v>
@@ -20348,6 +21412,9 @@
         <v>0.006604</v>
       </c>
       <c r="R355" t="inlineStr"/>
+      <c r="S355" t="n">
+        <v>3.865796808954754</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -20376,7 +21443,7 @@
         <v>180.32</v>
       </c>
       <c r="H356" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I356" t="n">
         <v>100.86</v>
@@ -20404,6 +21471,9 @@
         <v>0</v>
       </c>
       <c r="R356" t="inlineStr"/>
+      <c r="S356" t="n">
+        <v>3.984911876474307</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -20432,7 +21502,7 @@
         <v>184.1</v>
       </c>
       <c r="H357" t="n">
-        <v>174.2</v>
+        <v>79</v>
       </c>
       <c r="I357" t="n">
         <v>101.04</v>
@@ -20460,6 +21530,9 @@
         <v>0</v>
       </c>
       <c r="R357" t="inlineStr"/>
+      <c r="S357" t="n">
+        <v>3.765754394359295</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -20488,7 +21561,7 @@
         <v>183.38</v>
       </c>
       <c r="H358" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I358" t="n">
         <v>101.13</v>
@@ -20516,6 +21589,9 @@
         <v>0</v>
       </c>
       <c r="R358" t="inlineStr"/>
+      <c r="S358" t="n">
+        <v>3.798631705583173</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -20544,7 +21620,7 @@
         <v>181.04</v>
       </c>
       <c r="H359" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I359" t="n">
         <v>101.18</v>
@@ -20572,6 +21648,9 @@
         <v>0</v>
       </c>
       <c r="R359" t="inlineStr"/>
+      <c r="S359" t="n">
+        <v>3.694474119013734</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -20600,7 +21679,7 @@
         <v>181.94</v>
       </c>
       <c r="H360" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I360" t="n">
         <v>101.15</v>
@@ -20628,6 +21707,9 @@
         <v>0</v>
       </c>
       <c r="R360" t="inlineStr"/>
+      <c r="S360" t="n">
+        <v>3.585884960680702</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -20656,7 +21738,7 @@
         <v>182.48</v>
       </c>
       <c r="H361" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I361" t="n">
         <v>101.1</v>
@@ -20684,6 +21766,9 @@
         <v>0</v>
       </c>
       <c r="R361" t="inlineStr"/>
+      <c r="S361" t="n">
+        <v>3.630363616406981</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -20712,7 +21797,7 @@
         <v>185</v>
       </c>
       <c r="H362" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I362" t="n">
         <v>101.09</v>
@@ -20740,6 +21825,9 @@
         <v>0</v>
       </c>
       <c r="R362" t="inlineStr"/>
+      <c r="S362" t="n">
+        <v>3.435332361473009</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -20768,7 +21856,7 @@
         <v>184.82</v>
       </c>
       <c r="H363" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I363" t="n">
         <v>101.17</v>
@@ -20796,6 +21884,9 @@
         <v>0</v>
       </c>
       <c r="R363" t="inlineStr"/>
+      <c r="S363" t="n">
+        <v>3.435461517418672</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -20824,7 +21915,7 @@
         <v>185</v>
       </c>
       <c r="H364" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I364" t="n">
         <v>101.13</v>
@@ -20852,6 +21943,9 @@
         <v>0</v>
       </c>
       <c r="R364" t="inlineStr"/>
+      <c r="S364" t="n">
+        <v>3.566683779266829</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -20880,7 +21974,7 @@
         <v>185</v>
       </c>
       <c r="H365" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I365" t="n">
         <v>101.04</v>
@@ -20908,6 +22002,9 @@
         <v>0</v>
       </c>
       <c r="R365" t="inlineStr"/>
+      <c r="S365" t="n">
+        <v>3.537131388233764</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -20936,7 +22033,7 @@
         <v>178.16</v>
       </c>
       <c r="H366" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I366" t="n">
         <v>101.05</v>
@@ -20964,6 +22061,9 @@
         <v>0</v>
       </c>
       <c r="R366" t="inlineStr"/>
+      <c r="S366" t="n">
+        <v>4.043043150139678</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -20992,7 +22092,7 @@
         <v>174.2</v>
       </c>
       <c r="H367" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I367" t="n">
         <v>101.18</v>
@@ -21020,6 +22120,9 @@
         <v>0</v>
       </c>
       <c r="R367" t="inlineStr"/>
+      <c r="S367" t="n">
+        <v>4.199428322715598</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -21048,7 +22151,7 @@
         <v>183.02</v>
       </c>
       <c r="H368" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I368" t="n">
         <v>101.19</v>
@@ -21076,6 +22179,9 @@
         <v>0</v>
       </c>
       <c r="R368" t="inlineStr"/>
+      <c r="S368" t="n">
+        <v>3.629458917149301</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -21104,7 +22210,7 @@
         <v>183.2</v>
       </c>
       <c r="H369" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I369" t="n">
         <v>101.14</v>
@@ -21132,6 +22238,9 @@
         <v>0</v>
       </c>
       <c r="R369" t="inlineStr"/>
+      <c r="S369" t="n">
+        <v>3.49502090824223</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -21160,7 +22269,7 @@
         <v>181.94</v>
       </c>
       <c r="H370" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I370" t="n">
         <v>101.16</v>
@@ -21188,6 +22297,9 @@
         <v>0</v>
       </c>
       <c r="R370" t="inlineStr"/>
+      <c r="S370" t="n">
+        <v>3.708082740285239</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -21216,7 +22328,7 @@
         <v>178.88</v>
       </c>
       <c r="H371" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I371" t="n">
         <v>101.07</v>
@@ -21244,6 +22356,9 @@
         <v>0</v>
       </c>
       <c r="R371" t="inlineStr"/>
+      <c r="S371" t="n">
+        <v>3.956743650485044</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -21272,7 +22387,7 @@
         <v>181.58</v>
       </c>
       <c r="H372" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I372" t="n">
         <v>101.07</v>
@@ -21300,6 +22415,9 @@
         <v>0.036576</v>
       </c>
       <c r="R372" t="inlineStr"/>
+      <c r="S372" t="n">
+        <v>3.677915205991692</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -21328,7 +22446,7 @@
         <v>182.12</v>
       </c>
       <c r="H373" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I373" t="n">
         <v>101.11</v>
@@ -21356,6 +22474,9 @@
         <v>0</v>
       </c>
       <c r="R373" t="inlineStr"/>
+      <c r="S373" t="n">
+        <v>3.738786034064127</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -21384,7 +22505,7 @@
         <v>174.92</v>
       </c>
       <c r="H374" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I374" t="n">
         <v>100.97</v>
@@ -21412,6 +22533,9 @@
         <v>0.114046</v>
       </c>
       <c r="R374" t="inlineStr"/>
+      <c r="S374" t="n">
+        <v>4.375461331075796</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -21440,7 +22564,7 @@
         <v>181.04</v>
       </c>
       <c r="H375" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I375" t="n">
         <v>100.95</v>
@@ -21468,6 +22592,9 @@
         <v>0</v>
       </c>
       <c r="R375" t="inlineStr"/>
+      <c r="S375" t="n">
+        <v>3.709996181687168</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -21496,7 +22623,7 @@
         <v>182.12</v>
       </c>
       <c r="H376" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I376" t="n">
         <v>101.17</v>
@@ -21524,6 +22651,9 @@
         <v>0</v>
       </c>
       <c r="R376" t="inlineStr"/>
+      <c r="S376" t="n">
+        <v>3.630984980347997</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -21552,7 +22682,7 @@
         <v>184.82</v>
       </c>
       <c r="H377" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I377" t="n">
         <v>101.28</v>
@@ -21580,6 +22710,9 @@
         <v>0</v>
       </c>
       <c r="R377" t="inlineStr"/>
+      <c r="S377" t="n">
+        <v>3.507965036759207</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -21608,7 +22741,7 @@
         <v>186.44</v>
       </c>
       <c r="H378" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I378" t="n">
         <v>101.25</v>
@@ -21636,6 +22769,9 @@
         <v>0</v>
       </c>
       <c r="R378" t="inlineStr"/>
+      <c r="S378" t="n">
+        <v>3.448727373465845</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -21664,7 +22800,7 @@
         <v>184.28</v>
       </c>
       <c r="H379" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I379" t="n">
         <v>101.17</v>
@@ -21692,6 +22828,9 @@
         <v>0</v>
       </c>
       <c r="R379" t="inlineStr"/>
+      <c r="S379" t="n">
+        <v>3.627474369092964</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -21720,7 +22859,7 @@
         <v>183.38</v>
       </c>
       <c r="H380" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I380" t="n">
         <v>101.21</v>
@@ -21748,6 +22887,9 @@
         <v>0</v>
       </c>
       <c r="R380" t="inlineStr"/>
+      <c r="S380" t="n">
+        <v>3.751678011589672</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -21776,7 +22918,7 @@
         <v>182.84</v>
       </c>
       <c r="H381" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I381" t="n">
         <v>101.26</v>
@@ -21804,6 +22946,9 @@
         <v>0</v>
       </c>
       <c r="R381" t="inlineStr"/>
+      <c r="S381" t="n">
+        <v>3.614617691403584</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -21832,7 +22977,7 @@
         <v>183.92</v>
       </c>
       <c r="H382" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I382" t="n">
         <v>101.29</v>
@@ -21860,6 +23005,9 @@
         <v>0</v>
       </c>
       <c r="R382" t="inlineStr"/>
+      <c r="S382" t="n">
+        <v>3.628023436630566</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -21888,7 +23036,7 @@
         <v>184.46</v>
       </c>
       <c r="H383" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I383" t="n">
         <v>101.28</v>
@@ -21916,6 +23064,9 @@
         <v>0</v>
       </c>
       <c r="R383" t="inlineStr"/>
+      <c r="S383" t="n">
+        <v>3.612161011800636</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -21944,7 +23095,7 @@
         <v>183.56</v>
       </c>
       <c r="H384" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I384" t="n">
         <v>101.21</v>
@@ -21972,6 +23123,9 @@
         <v>0</v>
       </c>
       <c r="R384" t="inlineStr"/>
+      <c r="S384" t="n">
+        <v>3.494628515989726</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -22000,7 +23154,7 @@
         <v>184.28</v>
       </c>
       <c r="H385" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I385" t="n">
         <v>101.29</v>
@@ -22028,6 +23182,9 @@
         <v>0</v>
       </c>
       <c r="R385" t="inlineStr"/>
+      <c r="S385" t="n">
+        <v>3.567574285892442</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -22056,7 +23213,7 @@
         <v>181.94</v>
       </c>
       <c r="H386" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I386" t="n">
         <v>101.28</v>
@@ -22084,6 +23241,9 @@
         <v>0</v>
       </c>
       <c r="R386" t="inlineStr"/>
+      <c r="S386" t="n">
+        <v>3.661849816885036</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -22112,7 +23272,7 @@
         <v>180.32</v>
       </c>
       <c r="H387" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I387" t="n">
         <v>101.18</v>
@@ -22140,6 +23300,9 @@
         <v>0.004064</v>
       </c>
       <c r="R387" t="inlineStr"/>
+      <c r="S387" t="n">
+        <v>3.727219552210115</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -22168,7 +23331,7 @@
         <v>183.74</v>
       </c>
       <c r="H388" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I388" t="n">
         <v>101.03</v>
@@ -22196,6 +23359,9 @@
         <v>0</v>
       </c>
       <c r="R388" t="inlineStr"/>
+      <c r="S388" t="n">
+        <v>3.643443019743173</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -22224,7 +23390,7 @@
         <v>178.52</v>
       </c>
       <c r="H389" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I389" t="n">
         <v>101.13</v>
@@ -22252,6 +23418,9 @@
         <v>0</v>
       </c>
       <c r="R389" t="inlineStr"/>
+      <c r="S389" t="n">
+        <v>3.941450588185782</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -22280,7 +23449,7 @@
         <v>179.96</v>
       </c>
       <c r="H390" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I390" t="n">
         <v>101.24</v>
@@ -22308,6 +23477,9 @@
         <v>0</v>
       </c>
       <c r="R390" t="inlineStr"/>
+      <c r="S390" t="n">
+        <v>3.728065947001237</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -22336,7 +23508,7 @@
         <v>183.74</v>
       </c>
       <c r="H391" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I391" t="n">
         <v>101.33</v>
@@ -22364,6 +23536,9 @@
         <v>0</v>
       </c>
       <c r="R391" t="inlineStr"/>
+      <c r="S391" t="n">
+        <v>3.538584332643815</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -22392,7 +23567,7 @@
         <v>186.26</v>
       </c>
       <c r="H392" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I392" t="n">
         <v>101.34</v>
@@ -22420,6 +23595,9 @@
         <v>0</v>
       </c>
       <c r="R392" t="inlineStr"/>
+      <c r="S392" t="n">
+        <v>3.363663783003039</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -22448,7 +23626,7 @@
         <v>185.9</v>
       </c>
       <c r="H393" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I393" t="n">
         <v>101.29</v>
@@ -22476,6 +23654,9 @@
         <v>0</v>
       </c>
       <c r="R393" t="inlineStr"/>
+      <c r="S393" t="n">
+        <v>3.294093127209386</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -22504,7 +23685,7 @@
         <v>185.36</v>
       </c>
       <c r="H394" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I394" t="n">
         <v>101.31</v>
@@ -22532,6 +23713,9 @@
         <v>0</v>
       </c>
       <c r="R394" t="inlineStr"/>
+      <c r="S394" t="n">
+        <v>3.252867588762894</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -22560,7 +23744,7 @@
         <v>186.26</v>
       </c>
       <c r="H395" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I395" t="n">
         <v>101.4</v>
@@ -22588,6 +23772,9 @@
         <v>0</v>
       </c>
       <c r="R395" t="inlineStr"/>
+      <c r="S395" t="n">
+        <v>3.29405689728571</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -22616,7 +23803,7 @@
         <v>186.08</v>
       </c>
       <c r="H396" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I396" t="n">
         <v>101.3</v>
@@ -22644,6 +23831,9 @@
         <v>0</v>
       </c>
       <c r="R396" t="inlineStr"/>
+      <c r="S396" t="n">
+        <v>3.420344039274058</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -22672,7 +23862,7 @@
         <v>184.1</v>
       </c>
       <c r="H397" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I397" t="n">
         <v>101.29</v>
@@ -22700,6 +23890,9 @@
         <v>0</v>
       </c>
       <c r="R397" t="inlineStr"/>
+      <c r="S397" t="n">
+        <v>3.523404206042678</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -22728,7 +23921,7 @@
         <v>185</v>
       </c>
       <c r="H398" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I398" t="n">
         <v>101.29</v>
@@ -22756,6 +23949,9 @@
         <v>0</v>
       </c>
       <c r="R398" t="inlineStr"/>
+      <c r="S398" t="n">
+        <v>3.406708989239266</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -22784,7 +23980,7 @@
         <v>181.76</v>
       </c>
       <c r="H399" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I399" t="n">
         <v>101.33</v>
@@ -22812,6 +24008,9 @@
         <v>0</v>
       </c>
       <c r="R399" t="inlineStr"/>
+      <c r="S399" t="n">
+        <v>3.541209286557535</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -22840,7 +24039,7 @@
         <v>185.18</v>
       </c>
       <c r="H400" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I400" t="n">
         <v>101.24</v>
@@ -22868,6 +24067,9 @@
         <v>0</v>
       </c>
       <c r="R400" t="inlineStr"/>
+      <c r="S400" t="n">
+        <v>3.252873051048736</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -22896,7 +24098,7 @@
         <v>186.98</v>
       </c>
       <c r="H401" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I401" t="n">
         <v>101.21</v>
@@ -22924,6 +24126,9 @@
         <v>0</v>
       </c>
       <c r="R401" t="inlineStr"/>
+      <c r="S401" t="n">
+        <v>3.3216445418164</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -22952,7 +24157,7 @@
         <v>186.26</v>
       </c>
       <c r="H402" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I402" t="n">
         <v>101.17</v>
@@ -22980,6 +24185,9 @@
         <v>0</v>
       </c>
       <c r="R402" t="inlineStr"/>
+      <c r="S402" t="n">
+        <v>3.349643181555897</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -23008,7 +24216,7 @@
         <v>187.16</v>
       </c>
       <c r="H403" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I403" t="n">
         <v>101.14</v>
@@ -23036,6 +24244,9 @@
         <v>0</v>
       </c>
       <c r="R403" t="inlineStr"/>
+      <c r="S403" t="n">
+        <v>3.349429281505134</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -23064,7 +24275,7 @@
         <v>186.08</v>
       </c>
       <c r="H404" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I404" t="n">
         <v>101.14</v>
@@ -23092,6 +24303,9 @@
         <v>0</v>
       </c>
       <c r="R404" t="inlineStr"/>
+      <c r="S404" t="n">
+        <v>3.477772105547853</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -23120,7 +24334,7 @@
         <v>183.56</v>
       </c>
       <c r="H405" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I405" t="n">
         <v>101.19</v>
@@ -23148,6 +24362,9 @@
         <v>0</v>
       </c>
       <c r="R405" t="inlineStr"/>
+      <c r="S405" t="n">
+        <v>3.643737136987534</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -23176,7 +24393,7 @@
         <v>183.92</v>
       </c>
       <c r="H406" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I406" t="n">
         <v>101.1</v>
@@ -23204,6 +24421,9 @@
         <v>0</v>
       </c>
       <c r="R406" t="inlineStr"/>
+      <c r="S406" t="n">
+        <v>3.688862120490054</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -23232,7 +24452,7 @@
         <v>183.92</v>
       </c>
       <c r="H407" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I407" t="n">
         <v>101.07</v>
@@ -23260,6 +24480,9 @@
         <v>0</v>
       </c>
       <c r="R407" t="inlineStr"/>
+      <c r="S407" t="n">
+        <v>3.612947827592605</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -23288,7 +24511,7 @@
         <v>185.9</v>
       </c>
       <c r="H408" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I408" t="n">
         <v>101.15</v>
@@ -23316,6 +24539,9 @@
         <v>0</v>
       </c>
       <c r="R408" t="inlineStr"/>
+      <c r="S408" t="n">
+        <v>3.294093127209386</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -23344,7 +24570,7 @@
         <v>185.9</v>
       </c>
       <c r="H409" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I409" t="n">
         <v>101.2</v>
@@ -23372,6 +24598,9 @@
         <v>0</v>
       </c>
       <c r="R409" t="inlineStr"/>
+      <c r="S409" t="n">
+        <v>3.33576131306023</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -23400,7 +24629,7 @@
         <v>185.18</v>
       </c>
       <c r="H410" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I410" t="n">
         <v>101.16</v>
@@ -23428,6 +24657,9 @@
         <v>0</v>
       </c>
       <c r="R410" t="inlineStr"/>
+      <c r="S410" t="n">
+        <v>3.493029030776237</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -23456,7 +24688,7 @@
         <v>179.78</v>
       </c>
       <c r="H411" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I411" t="n">
         <v>101.13</v>
@@ -23484,6 +24716,9 @@
         <v>0</v>
       </c>
       <c r="R411" t="inlineStr"/>
+      <c r="S411" t="n">
+        <v>3.681689137993945</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -23512,7 +24747,7 @@
         <v>178.16</v>
       </c>
       <c r="H412" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I412" t="n">
         <v>101.25</v>
@@ -23540,6 +24775,9 @@
         <v>0</v>
       </c>
       <c r="R412" t="inlineStr"/>
+      <c r="S412" t="n">
+        <v>3.992602641019454</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -23568,7 +24806,7 @@
         <v>186.8</v>
       </c>
       <c r="H413" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I413" t="n">
         <v>101.35</v>
@@ -23596,6 +24834,9 @@
         <v>0</v>
       </c>
       <c r="R413" t="inlineStr"/>
+      <c r="S413" t="n">
+        <v>3.349505763260779</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -23624,7 +24865,7 @@
         <v>186.08</v>
       </c>
       <c r="H414" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I414" t="n">
         <v>101.36</v>
@@ -23652,6 +24893,9 @@
         <v>0</v>
       </c>
       <c r="R414" t="inlineStr"/>
+      <c r="S414" t="n">
+        <v>3.363724644797349</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -23680,7 +24924,7 @@
         <v>183.92</v>
       </c>
       <c r="H415" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I415" t="n">
         <v>101.35</v>
@@ -23708,6 +24952,9 @@
         <v>0</v>
       </c>
       <c r="R415" t="inlineStr"/>
+      <c r="S415" t="n">
+        <v>3.53836650922676</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -23736,7 +24983,7 @@
         <v>185.54</v>
       </c>
       <c r="H416" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I416" t="n">
         <v>101.35</v>
@@ -23764,6 +25011,9 @@
         <v>0</v>
       </c>
       <c r="R416" t="inlineStr"/>
+      <c r="S416" t="n">
+        <v>3.536559642890513</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -23792,7 +25042,7 @@
         <v>185</v>
       </c>
       <c r="H417" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I417" t="n">
         <v>101.3</v>
@@ -23820,6 +25070,9 @@
         <v>0</v>
       </c>
       <c r="R417" t="inlineStr"/>
+      <c r="S417" t="n">
+        <v>3.596445894343483</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -23848,7 +25101,7 @@
         <v>186.8</v>
       </c>
       <c r="H418" t="n">
-        <v>174.2</v>
+        <v>79</v>
       </c>
       <c r="I418" t="n">
         <v>101.36</v>
@@ -23876,6 +25129,9 @@
         <v>0</v>
       </c>
       <c r="R418" t="inlineStr"/>
+      <c r="S418" t="n">
+        <v>3.535342901409296</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -23904,7 +25160,7 @@
         <v>186.26</v>
       </c>
       <c r="H419" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I419" t="n">
         <v>101.44</v>
@@ -23932,6 +25188,9 @@
         <v>0</v>
       </c>
       <c r="R419" t="inlineStr"/>
+      <c r="S419" t="n">
+        <v>3.448840292847289</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -23960,7 +25219,7 @@
         <v>183.02</v>
       </c>
       <c r="H420" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I420" t="n">
         <v>101.32</v>
@@ -23988,6 +25247,9 @@
         <v>0</v>
       </c>
       <c r="R420" t="inlineStr"/>
+      <c r="S420" t="n">
+        <v>3.629458917149301</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -24016,7 +25278,7 @@
         <v>182.84</v>
       </c>
       <c r="H421" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I421" t="n">
         <v>101.23</v>
@@ -24044,6 +25306,9 @@
         <v>0</v>
       </c>
       <c r="R421" t="inlineStr"/>
+      <c r="S421" t="n">
+        <v>3.51014025492668</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -24072,7 +25337,7 @@
         <v>185</v>
       </c>
       <c r="H422" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I422" t="n">
         <v>101.24</v>
@@ -24100,6 +25365,9 @@
         <v>0</v>
       </c>
       <c r="R422" t="inlineStr"/>
+      <c r="S422" t="n">
+        <v>3.364154570627961</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -24128,7 +25396,7 @@
         <v>179.24</v>
       </c>
       <c r="H423" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I423" t="n">
         <v>101.26</v>
@@ -24156,6 +25424,9 @@
         <v>0</v>
       </c>
       <c r="R423" t="inlineStr"/>
+      <c r="S423" t="n">
+        <v>3.906187191964374</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -24184,7 +25455,7 @@
         <v>178.7</v>
       </c>
       <c r="H424" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I424" t="n">
         <v>101.02</v>
@@ -24212,6 +25483,9 @@
         <v>0</v>
       </c>
       <c r="R424" t="inlineStr"/>
+      <c r="S424" t="n">
+        <v>3.99061964203987</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -24240,7 +25514,7 @@
         <v>182.66</v>
       </c>
       <c r="H425" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I425" t="n">
         <v>101.01</v>
@@ -24268,6 +25542,9 @@
         <v>0</v>
       </c>
       <c r="R425" t="inlineStr"/>
+      <c r="S425" t="n">
+        <v>3.630058412412869</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -24296,7 +25573,7 @@
         <v>178.88</v>
       </c>
       <c r="H426" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I426" t="n">
         <v>101.07</v>
@@ -24324,6 +25601,9 @@
         <v>0</v>
       </c>
       <c r="R426" t="inlineStr"/>
+      <c r="S426" t="n">
+        <v>4.006668444570207</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -24352,7 +25632,7 @@
         <v>178.88</v>
       </c>
       <c r="H427" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I427" t="n">
         <v>101.16</v>
@@ -24380,6 +25660,9 @@
         <v>0</v>
       </c>
       <c r="R427" t="inlineStr"/>
+      <c r="S427" t="n">
+        <v>3.940220131117209</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -24408,7 +25691,7 @@
         <v>180.86</v>
       </c>
       <c r="H428" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I428" t="n">
         <v>101.12</v>
@@ -24436,6 +25719,9 @@
         <v>0</v>
       </c>
       <c r="R428" t="inlineStr"/>
+      <c r="S428" t="n">
+        <v>3.901169832528539</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -24464,7 +25750,7 @@
         <v>179.24</v>
       </c>
       <c r="H429" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I429" t="n">
         <v>101.09</v>
@@ -24492,6 +25778,9 @@
         <v>0</v>
       </c>
       <c r="R429" t="inlineStr"/>
+      <c r="S429" t="n">
+        <v>3.841244802234076</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -24520,7 +25809,7 @@
         <v>184.82</v>
       </c>
       <c r="H430" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I430" t="n">
         <v>101.14</v>
@@ -24548,6 +25837,9 @@
         <v>0</v>
       </c>
       <c r="R430" t="inlineStr"/>
+      <c r="S430" t="n">
+        <v>3.656883627689855</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -24576,7 +25868,7 @@
         <v>181.94</v>
       </c>
       <c r="H431" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I431" t="n">
         <v>101.18</v>
@@ -24604,6 +25896,9 @@
         <v>0</v>
       </c>
       <c r="R431" t="inlineStr"/>
+      <c r="S431" t="n">
+        <v>3.881877303173143</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -24632,7 +25927,7 @@
         <v>183.56</v>
       </c>
       <c r="H432" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I432" t="n">
         <v>101.21</v>
@@ -24660,6 +25955,9 @@
         <v>0</v>
       </c>
       <c r="R432" t="inlineStr"/>
+      <c r="S432" t="n">
+        <v>3.674199228802139</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -24688,7 +25986,7 @@
         <v>184.64</v>
       </c>
       <c r="H433" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I433" t="n">
         <v>101.1</v>
@@ -24716,6 +26014,9 @@
         <v>0</v>
       </c>
       <c r="R433" t="inlineStr"/>
+      <c r="S433" t="n">
+        <v>3.626939557556305</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -24744,7 +26045,7 @@
         <v>180.32</v>
       </c>
       <c r="H434" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I434" t="n">
         <v>101.22</v>
@@ -24772,6 +26073,9 @@
         <v>0</v>
       </c>
       <c r="R434" t="inlineStr"/>
+      <c r="S434" t="n">
+        <v>3.968373823601898</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -24800,7 +26104,7 @@
         <v>179.24</v>
       </c>
       <c r="H435" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I435" t="n">
         <v>101.27</v>
@@ -24828,6 +26132,9 @@
         <v>0</v>
       </c>
       <c r="R435" t="inlineStr"/>
+      <c r="S435" t="n">
+        <v>3.841244802234076</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -24856,7 +26163,7 @@
         <v>183.74</v>
       </c>
       <c r="H436" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I436" t="n">
         <v>101.14</v>
@@ -24884,6 +26191,9 @@
         <v>0</v>
       </c>
       <c r="R436" t="inlineStr"/>
+      <c r="S436" t="n">
+        <v>3.553405038449316</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -24912,7 +26222,7 @@
         <v>181.4</v>
       </c>
       <c r="H437" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I437" t="n">
         <v>101.2</v>
@@ -24940,6 +26250,9 @@
         <v>0</v>
       </c>
       <c r="R437" t="inlineStr"/>
+      <c r="S437" t="n">
+        <v>3.8192734572505</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -24968,7 +26281,7 @@
         <v>177.44</v>
       </c>
       <c r="H438" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I438" t="n">
         <v>101.25</v>
@@ -24996,6 +26309,9 @@
         <v>0</v>
       </c>
       <c r="R438" t="inlineStr"/>
+      <c r="S438" t="n">
+        <v>3.961875706265303</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -25024,7 +26340,7 @@
         <v>180.68</v>
       </c>
       <c r="H439" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I439" t="n">
         <v>101.19</v>
@@ -25052,6 +26368,9 @@
         <v>0</v>
       </c>
       <c r="R439" t="inlineStr"/>
+      <c r="S439" t="n">
+        <v>3.901710355986292</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -25080,7 +26399,7 @@
         <v>177.08</v>
       </c>
       <c r="H440" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I440" t="n">
         <v>101.28</v>
@@ -25108,6 +26427,9 @@
         <v>0</v>
       </c>
       <c r="R440" t="inlineStr"/>
+      <c r="S440" t="n">
+        <v>4.185210616373437</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -25136,7 +26458,7 @@
         <v>182.3</v>
       </c>
       <c r="H441" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I441" t="n">
         <v>101.2</v>
@@ -25164,6 +26486,9 @@
         <v>0</v>
       </c>
       <c r="R441" t="inlineStr"/>
+      <c r="S441" t="n">
+        <v>3.510805142946864</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -25192,7 +26517,7 @@
         <v>183.38</v>
       </c>
       <c r="H442" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I442" t="n">
         <v>101.15</v>
@@ -25220,6 +26545,9 @@
         <v>0</v>
       </c>
       <c r="R442" t="inlineStr"/>
+      <c r="S442" t="n">
+        <v>3.58371256879028</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -25248,7 +26576,7 @@
         <v>183.02</v>
       </c>
       <c r="H443" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I443" t="n">
         <v>101.18</v>
@@ -25276,6 +26604,9 @@
         <v>0</v>
       </c>
       <c r="R443" t="inlineStr"/>
+      <c r="S443" t="n">
+        <v>3.584234314318788</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -25304,7 +26635,7 @@
         <v>183.74</v>
       </c>
       <c r="H444" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I444" t="n">
         <v>101.16</v>
@@ -25332,6 +26663,9 @@
         <v>0</v>
       </c>
       <c r="R444" t="inlineStr"/>
+      <c r="S444" t="n">
+        <v>3.421900688381607</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -25360,7 +26694,7 @@
         <v>184.1</v>
       </c>
       <c r="H445" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I445" t="n">
         <v>101.37</v>
@@ -25388,6 +26722,9 @@
         <v>0</v>
       </c>
       <c r="R445" t="inlineStr"/>
+      <c r="S445" t="n">
+        <v>3.612682011010504</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -25416,7 +26753,7 @@
         <v>183.02</v>
       </c>
       <c r="H446" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I446" t="n">
         <v>101.4</v>
@@ -25444,6 +26781,9 @@
         <v>0</v>
       </c>
       <c r="R446" t="inlineStr"/>
+      <c r="S446" t="n">
+        <v>3.584234314318788</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -25472,7 +26812,7 @@
         <v>183.2</v>
       </c>
       <c r="H447" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I447" t="n">
         <v>101.29</v>
@@ -25500,6 +26840,9 @@
         <v>0</v>
       </c>
       <c r="R447" t="inlineStr"/>
+      <c r="S447" t="n">
+        <v>3.598982474219738</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -25528,7 +26871,7 @@
         <v>183.2</v>
       </c>
       <c r="H448" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I448" t="n">
         <v>101.31</v>
@@ -25556,6 +26899,9 @@
         <v>0</v>
       </c>
       <c r="R448" t="inlineStr"/>
+      <c r="S448" t="n">
+        <v>3.539258482125011</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -25584,7 +26930,7 @@
         <v>182.84</v>
       </c>
       <c r="H449" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I449" t="n">
         <v>101.27</v>
@@ -25612,6 +26958,9 @@
         <v>0</v>
       </c>
       <c r="R449" t="inlineStr"/>
+      <c r="S449" t="n">
+        <v>3.539725228331039</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -25640,7 +26989,7 @@
         <v>182.66</v>
       </c>
       <c r="H450" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I450" t="n">
         <v>101.24</v>
@@ -25668,6 +27017,9 @@
         <v>0</v>
       </c>
       <c r="R450" t="inlineStr"/>
+      <c r="S450" t="n">
+        <v>3.599812572349763</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -25696,7 +27048,7 @@
         <v>179.78</v>
       </c>
       <c r="H451" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I451" t="n">
         <v>101.18</v>
@@ -25724,6 +27076,9 @@
         <v>0</v>
       </c>
       <c r="R451" t="inlineStr"/>
+      <c r="S451" t="n">
+        <v>3.888191447859775</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -25752,7 +27107,7 @@
         <v>176.9</v>
       </c>
       <c r="H452" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I452" t="n">
         <v>101.03</v>
@@ -25780,6 +27135,9 @@
         <v>0</v>
       </c>
       <c r="R452" t="inlineStr"/>
+      <c r="S452" t="n">
+        <v>4.133868971282751</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -25808,7 +27166,7 @@
         <v>174.74</v>
       </c>
       <c r="H453" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I453" t="n">
         <v>101.23</v>
@@ -25836,6 +27194,9 @@
         <v>0.022098</v>
       </c>
       <c r="R453" t="inlineStr"/>
+      <c r="S453" t="n">
+        <v>4.394868188965629</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -25864,7 +27225,7 @@
         <v>180.86</v>
       </c>
       <c r="H454" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I454" t="n">
         <v>101.44</v>
@@ -25892,6 +27253,9 @@
         <v>0</v>
       </c>
       <c r="R454" t="inlineStr"/>
+      <c r="S454" t="n">
+        <v>3.836670689596326</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -25920,7 +27284,7 @@
         <v>182.3</v>
       </c>
       <c r="H455" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I455" t="n">
         <v>101.51</v>
@@ -25948,6 +27312,9 @@
         <v>0</v>
       </c>
       <c r="R455" t="inlineStr"/>
+      <c r="S455" t="n">
+        <v>3.630672469493267</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -25976,7 +27343,7 @@
         <v>180.86</v>
       </c>
       <c r="H456" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I456" t="n">
         <v>101.56</v>
@@ -26004,6 +27371,9 @@
         <v>0</v>
       </c>
       <c r="R456" t="inlineStr"/>
+      <c r="S456" t="n">
+        <v>3.633275709143881</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -26032,7 +27402,7 @@
         <v>179.78</v>
       </c>
       <c r="H457" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I457" t="n">
         <v>101.47</v>
@@ -26060,6 +27430,9 @@
         <v>0</v>
       </c>
       <c r="R457" t="inlineStr"/>
+      <c r="S457" t="n">
+        <v>3.697235196603555</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -26088,7 +27461,7 @@
         <v>179.6</v>
       </c>
       <c r="H458" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I458" t="n">
         <v>101.56</v>
@@ -26116,6 +27489,9 @@
         <v>0.006604</v>
       </c>
       <c r="R458" t="inlineStr"/>
+      <c r="S458" t="n">
+        <v>3.921397941249653</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -26144,7 +27520,7 @@
         <v>181.94</v>
       </c>
       <c r="H459" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I459" t="n">
         <v>101.56</v>
@@ -26172,6 +27548,9 @@
         <v>0</v>
       </c>
       <c r="R459" t="inlineStr"/>
+      <c r="S459" t="n">
+        <v>3.802040023734011</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -26200,7 +27579,7 @@
         <v>182.66</v>
       </c>
       <c r="H460" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I460" t="n">
         <v>101.47</v>
@@ -26228,6 +27607,9 @@
         <v>0</v>
       </c>
       <c r="R460" t="inlineStr"/>
+      <c r="S460" t="n">
+        <v>3.7532138832517</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -26256,7 +27638,7 @@
         <v>182.48</v>
       </c>
       <c r="H461" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I461" t="n">
         <v>101.34</v>
@@ -26284,6 +27666,9 @@
         <v>0</v>
       </c>
       <c r="R461" t="inlineStr"/>
+      <c r="S461" t="n">
+        <v>3.691548004165615</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -26312,7 +27697,7 @@
         <v>181.58</v>
       </c>
       <c r="H462" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I462" t="n">
         <v>101.26</v>
@@ -26340,6 +27725,9 @@
         <v>0</v>
       </c>
       <c r="R462" t="inlineStr"/>
+      <c r="S462" t="n">
+        <v>3.834744478183693</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -26368,7 +27756,7 @@
         <v>181.76</v>
       </c>
       <c r="H463" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I463" t="n">
         <v>101.28</v>
@@ -26396,6 +27784,9 @@
         <v>0</v>
       </c>
       <c r="R463" t="inlineStr"/>
+      <c r="S463" t="n">
+        <v>3.786673473348495</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result/NCDC_weather_data/stations_imputed/59997099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/59997099999.xlsx
@@ -557,7 +557,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H2" t="n">
-        <v>66.23275488069415</v>
+        <v>19.01819715594119</v>
       </c>
       <c r="I2" t="n">
         <v>100.87</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>962.1315756633205</v>
+        <v>72.07194251197494</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="n">
-        <v>-27.9</v>
+        <v>-33.27777777777778</v>
       </c>
       <c r="I3" t="n">
         <v>100.74</v>
@@ -645,7 +645,7 @@
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>1.741639477008282</v>
+        <v>1.045305284787119</v>
       </c>
     </row>
     <row r="4">
@@ -675,7 +675,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>-27.5</v>
+        <v>-33.05555555555556</v>
       </c>
       <c r="I4" t="n">
         <v>100.69</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>1.789594545116702</v>
+        <v>1.057732088974696</v>
       </c>
     </row>
     <row r="5">
@@ -734,7 +734,7 @@
         <v>28.5</v>
       </c>
       <c r="H5" t="n">
-        <v>-13.25</v>
+        <v>-25.13888888888889</v>
       </c>
       <c r="I5" t="n">
         <v>100.88</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>9.065847677547382</v>
+        <v>2.509558695640376</v>
       </c>
     </row>
     <row r="6">
@@ -793,7 +793,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>-17.22222222222222</v>
       </c>
       <c r="I6" t="n">
         <v>100.98</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>16.34210080997806</v>
+        <v>3.961385302306054</v>
       </c>
     </row>
     <row r="7">
@@ -852,7 +852,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>-12.4</v>
+        <v>-24.66666666666667</v>
       </c>
       <c r="I7" t="n">
         <v>100.99</v>
@@ -881,7 +881,7 @@
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>5.852873752835158</v>
+        <v>2.06121935305073</v>
       </c>
     </row>
     <row r="8">
@@ -911,7 +911,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H8" t="n">
-        <v>-12.3</v>
+        <v>-24.61111111111111</v>
       </c>
       <c r="I8" t="n">
         <v>100.93</v>
@@ -940,7 +940,7 @@
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>5.806199884479868</v>
+        <v>2.038529497770651</v>
       </c>
     </row>
     <row r="9">
@@ -970,7 +970,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9</v>
+        <v>-17.27777777777778</v>
       </c>
       <c r="I9" t="n">
         <v>100.84</v>
@@ -999,7 +999,7 @@
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>16.59498823343257</v>
+        <v>4.032879305186985</v>
       </c>
     </row>
     <row r="10">
@@ -1029,7 +1029,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H10" t="n">
-        <v>-12.3</v>
+        <v>-24.61111111111111</v>
       </c>
       <c r="I10" t="n">
         <v>100.94</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>5.806199884479868</v>
+        <v>2.038529497770651</v>
       </c>
     </row>
     <row r="11">
@@ -1088,7 +1088,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H11" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I11" t="n">
         <v>100.87</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>92.4127109950806</v>
+        <v>12.76112298774386</v>
       </c>
     </row>
     <row r="12">
@@ -1147,7 +1147,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H12" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I12" t="n">
         <v>100.86</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>97.62724194008776</v>
+        <v>13.48118919937328</v>
       </c>
     </row>
     <row r="13">
@@ -1206,7 +1206,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H13" t="n">
-        <v>23.9</v>
+        <v>-4.5</v>
       </c>
       <c r="I13" t="n">
         <v>100.99</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>79.6085821128087</v>
+        <v>11.6288941714256</v>
       </c>
     </row>
     <row r="14">
@@ -1265,7 +1265,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>20.1</v>
+        <v>-6.611111111111111</v>
       </c>
       <c r="I14" t="n">
         <v>101.09</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>61.58992228552964</v>
+        <v>9.776599143477924</v>
       </c>
     </row>
     <row r="15">
@@ -1324,7 +1324,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I15" t="n">
         <v>100.9</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>100.1952143912759</v>
+        <v>13.83579639491908</v>
       </c>
     </row>
     <row r="16">
@@ -1383,7 +1383,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H16" t="n">
-        <v>-4.4</v>
+        <v>-20.22222222222222</v>
       </c>
       <c r="I16" t="n">
         <v>100.91</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>10.98252447998854</v>
+        <v>3.068247219415937</v>
       </c>
     </row>
     <row r="17">
@@ -1442,7 +1442,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H17" t="n">
-        <v>18.8</v>
+        <v>-7.333333333333333</v>
       </c>
       <c r="I17" t="n">
         <v>101.06</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>54.99698598661116</v>
+        <v>8.954216774770799</v>
       </c>
     </row>
     <row r="18">
@@ -1501,7 +1501,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H18" t="n">
-        <v>1.5</v>
+        <v>-16.94444444444445</v>
       </c>
       <c r="I18" t="n">
         <v>100.99</v>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>16.56291556386136</v>
+        <v>3.964642059696625</v>
       </c>
     </row>
     <row r="19">
@@ -1560,7 +1560,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H19" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I19" t="n">
         <v>100.91</v>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>91.52545856962739</v>
+        <v>12.63860372388431</v>
       </c>
     </row>
     <row r="20">
@@ -1619,7 +1619,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H20" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I20" t="n">
         <v>100.94</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>90.35734815540157</v>
+        <v>12.47730123098381</v>
       </c>
     </row>
     <row r="21">
@@ -1678,7 +1678,7 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>7.2</v>
+        <v>-13.77777777777778</v>
       </c>
       <c r="I21" t="n">
         <v>100.95</v>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>24.37684395255483</v>
+        <v>5.085462205521239</v>
       </c>
     </row>
     <row r="22">
@@ -1737,7 +1737,7 @@
         <v>30.38888888888889</v>
       </c>
       <c r="H22" t="n">
-        <v>17.45</v>
+        <v>-8.083333333333334</v>
       </c>
       <c r="I22" t="n">
         <v>100.84</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>57.95115126109111</v>
+        <v>8.862032964702774</v>
       </c>
     </row>
     <row r="23">
@@ -1796,7 +1796,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H23" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I23" t="n">
         <v>100.93</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>91.52545856962739</v>
+        <v>12.63860372388431</v>
       </c>
     </row>
     <row r="24">
@@ -1855,7 +1855,7 @@
         <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I24" t="n">
         <v>100.93</v>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>98.26221483164478</v>
+        <v>13.56887158717244</v>
       </c>
     </row>
     <row r="25">
@@ -1914,7 +1914,7 @@
         <v>25.88888888888889</v>
       </c>
       <c r="H25" t="n">
-        <v>2.6</v>
+        <v>-16.33333333333333</v>
       </c>
       <c r="I25" t="n">
         <v>101.01</v>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>22.05904999553536</v>
+        <v>5.137496239311425</v>
       </c>
     </row>
     <row r="26">
@@ -1973,7 +1973,7 @@
         <v>28</v>
       </c>
       <c r="H26" t="n">
-        <v>-22.4</v>
+        <v>-30.22222222222222</v>
       </c>
       <c r="I26" t="n">
         <v>101.18</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>2.698438718163401</v>
+        <v>1.321738196875637</v>
       </c>
     </row>
     <row r="27">
@@ -2032,7 +2032,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H27" t="n">
-        <v>-20.7</v>
+        <v>-29.27777777777778</v>
       </c>
       <c r="I27" t="n">
         <v>101.25</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>2.915773819378784</v>
+        <v>1.345635304276356</v>
       </c>
     </row>
     <row r="28">
@@ -2091,7 +2091,7 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.849999999999998</v>
+        <v>-18.80555555555556</v>
       </c>
       <c r="I28" t="n">
         <v>101.15</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>25.85189789594679</v>
+        <v>4.789540355452249</v>
       </c>
     </row>
     <row r="29">
@@ -2150,7 +2150,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H29" t="n">
-        <v>17</v>
+        <v>-8.333333333333334</v>
       </c>
       <c r="I29" t="n">
         <v>101.04</v>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>48.7880219725148</v>
+        <v>8.233445406628141</v>
       </c>
     </row>
     <row r="30">
@@ -2209,7 +2209,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H30" t="n">
-        <v>12.7</v>
+        <v>-10.72222222222222</v>
       </c>
       <c r="I30" t="n">
         <v>101.04</v>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>36.15230451474938</v>
+        <v>6.671941376522714</v>
       </c>
     </row>
     <row r="31">
@@ -2268,7 +2268,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H31" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I31" t="n">
         <v>101.1</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>93.00959576048155</v>
+        <v>12.84354584731344</v>
       </c>
     </row>
     <row r="32">
@@ -2327,7 +2327,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H32" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I32" t="n">
         <v>101.06</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>96.3711115080412</v>
+        <v>13.30773216343753</v>
       </c>
     </row>
     <row r="33">
@@ -2386,7 +2386,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H33" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I33" t="n">
         <v>101.03</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>106.6046379179157</v>
+        <v>14.72086340597499</v>
       </c>
     </row>
     <row r="34">
@@ -2445,7 +2445,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>-17.3</v>
+        <v>-27.38888888888889</v>
       </c>
       <c r="I34" t="n">
         <v>100.84</v>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
-        <v>3.986593609684469</v>
+        <v>1.640407885274061</v>
       </c>
     </row>
     <row r="35">
@@ -2504,7 +2504,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H35" t="n">
-        <v>-20.55</v>
+        <v>-29.19444444444444</v>
       </c>
       <c r="I35" t="n">
         <v>100.96</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="n">
-        <v>3.181304176891997</v>
+        <v>1.432046203527908</v>
       </c>
     </row>
     <row r="36">
@@ -2563,7 +2563,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H36" t="n">
-        <v>-23.8</v>
+        <v>-31</v>
       </c>
       <c r="I36" t="n">
         <v>100.99</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="n">
-        <v>2.376014744099525</v>
+        <v>1.223684521781755</v>
       </c>
     </row>
     <row r="37">
@@ -2622,7 +2622,7 @@
         <v>28.22222222222222</v>
       </c>
       <c r="H37" t="n">
-        <v>-21</v>
+        <v>-29.44444444444445</v>
       </c>
       <c r="I37" t="n">
         <v>100.98</v>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>3.010658183001195</v>
+        <v>1.403949764303642</v>
       </c>
     </row>
     <row r="38">
@@ -2681,7 +2681,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H38" t="n">
-        <v>-26.8</v>
+        <v>-32.66666666666666</v>
       </c>
       <c r="I38" t="n">
         <v>100.98</v>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="n">
-        <v>1.748440595093487</v>
+        <v>1.006248245841269</v>
       </c>
     </row>
     <row r="39">
@@ -2740,7 +2740,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H39" t="n">
-        <v>-27.8</v>
+        <v>-33.22222222222222</v>
       </c>
       <c r="I39" t="n">
         <v>101.03</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="n">
-        <v>1.729377388209858</v>
+        <v>1.033962952618634</v>
       </c>
     </row>
     <row r="40">
@@ -2799,7 +2799,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H40" t="n">
-        <v>-26.2</v>
+        <v>-32.33333333333334</v>
       </c>
       <c r="I40" t="n">
         <v>101.06</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
-        <v>1.799977939815202</v>
+        <v>1.012750208480996</v>
       </c>
     </row>
     <row r="41">
@@ -2858,7 +2858,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8</v>
+        <v>-17.33333333333333</v>
       </c>
       <c r="I41" t="n">
         <v>101.03</v>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
-        <v>16.79833783955074</v>
+        <v>4.092655847570546</v>
       </c>
     </row>
     <row r="42">
@@ -2917,7 +2917,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I42" t="n">
         <v>100.86</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="n">
-        <v>99.22341392504582</v>
+        <v>13.70160202776358</v>
       </c>
     </row>
     <row r="43">
@@ -2976,7 +2976,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H43" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I43" t="n">
         <v>100.85</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="n">
-        <v>101.5076633349504</v>
+        <v>14.01703036376409</v>
       </c>
     </row>
     <row r="44">
@@ -3035,7 +3035,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>-27.4</v>
+        <v>-33</v>
       </c>
       <c r="I44" t="n">
         <v>100.57</v>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="n">
-        <v>1.736982143452706</v>
+        <v>1.022719674100942</v>
       </c>
     </row>
     <row r="45">
@@ -3094,7 +3094,7 @@
         <v>28</v>
       </c>
       <c r="H45" t="n">
-        <v>-27.5</v>
+        <v>-33.05555555555556</v>
       </c>
       <c r="I45" t="n">
         <v>100.51</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="n">
-        <v>1.704372429128905</v>
+        <v>1.007361927187721</v>
       </c>
     </row>
     <row r="46">
@@ -3153,7 +3153,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>-27.6</v>
+        <v>-33.11111111111111</v>
       </c>
       <c r="I46" t="n">
         <v>100.78</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="n">
-        <v>1.699715817676432</v>
+        <v>1.008461821616607</v>
       </c>
     </row>
     <row r="47">
@@ -3212,7 +3212,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H47" t="n">
-        <v>-27.7</v>
+        <v>-33.16666666666667</v>
       </c>
       <c r="I47" t="n">
         <v>101.04</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="n">
-        <v>1.695059206223958</v>
+        <v>1.009561716045493</v>
       </c>
     </row>
     <row r="48">
@@ -3271,7 +3271,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>-27.6</v>
+        <v>-33.11111111111111</v>
       </c>
       <c r="I48" t="n">
         <v>101.12</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="n">
-        <v>1.705238664644098</v>
+        <v>1.011738905373224</v>
       </c>
     </row>
     <row r="49">
@@ -3330,7 +3330,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H49" t="n">
-        <v>-26.9</v>
+        <v>-32.72222222222222</v>
       </c>
       <c r="I49" t="n">
         <v>101.06</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
-        <v>1.755012305331731</v>
+        <v>1.013863432080929</v>
       </c>
     </row>
     <row r="50">
@@ -3389,7 +3389,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>-27.1</v>
+        <v>-32.83333333333334</v>
       </c>
       <c r="I50" t="n">
         <v>100.95</v>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="n">
-        <v>1.734265435014938</v>
+        <v>1.009513847368813</v>
       </c>
     </row>
     <row r="51">
@@ -3448,7 +3448,7 @@
         <v>28.22222222222222</v>
       </c>
       <c r="H51" t="n">
-        <v>-18.675</v>
+        <v>-28.15277777777778</v>
       </c>
       <c r="I51" t="n">
         <v>100.97</v>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="n">
-        <v>7.457682887380544</v>
+        <v>2.059649005410868</v>
       </c>
     </row>
     <row r="52">
@@ -3507,7 +3507,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>-10.25</v>
+        <v>-23.47222222222222</v>
       </c>
       <c r="I52" t="n">
         <v>101.14</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="n">
-        <v>13.18110033974615</v>
+        <v>3.109784163452924</v>
       </c>
     </row>
     <row r="53">
@@ -3566,7 +3566,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H53" t="n">
-        <v>-1.824999999999999</v>
+        <v>-18.79166666666667</v>
       </c>
       <c r="I53" t="n">
         <v>101.15</v>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="n">
-        <v>18.90451779211175</v>
+        <v>4.159919321494979</v>
       </c>
     </row>
     <row r="54">
@@ -3625,7 +3625,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H54" t="n">
-        <v>6.6</v>
+        <v>-14.11111111111111</v>
       </c>
       <c r="I54" t="n">
         <v>101.06</v>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="n">
-        <v>24.62793524447736</v>
+        <v>5.210054479537034</v>
       </c>
     </row>
     <row r="55">
@@ -3684,7 +3684,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H55" t="n">
-        <v>-11.7</v>
+        <v>-24.27777777777778</v>
       </c>
       <c r="I55" t="n">
         <v>101.05</v>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="n">
-        <v>5.995868359768757</v>
+        <v>2.066984312764187</v>
       </c>
     </row>
     <row r="56">
@@ -3743,7 +3743,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H56" t="n">
-        <v>14.3</v>
+        <v>-9.833333333333334</v>
       </c>
       <c r="I56" t="n">
         <v>101.12</v>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="n">
-        <v>42.11171499981347</v>
+        <v>7.512591269089981</v>
       </c>
     </row>
     <row r="57">
@@ -3802,7 +3802,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H57" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I57" t="n">
         <v>101.2</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="n">
-        <v>94.82647255046258</v>
+        <v>13.09443544811478</v>
       </c>
     </row>
     <row r="58">
@@ -3861,7 +3861,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H58" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I58" t="n">
         <v>101.13</v>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="n">
-        <v>96.05993013273994</v>
+        <v>13.26476162660384</v>
       </c>
     </row>
     <row r="59">
@@ -3920,7 +3920,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H59" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I59" t="n">
         <v>100.98</v>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="n">
-        <v>93.30966608586587</v>
+        <v>12.88498207709146</v>
       </c>
     </row>
     <row r="60">
@@ -3979,7 +3979,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H60" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I60" t="n">
         <v>100.7</v>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="n">
-        <v>102.839501068258</v>
+        <v>14.20094169946076</v>
       </c>
     </row>
     <row r="61">
@@ -4038,7 +4038,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H61" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I61" t="n">
         <v>100.6</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="n">
-        <v>95.74988008630835</v>
+        <v>13.22194731315859</v>
       </c>
     </row>
     <row r="62">
@@ -4097,7 +4097,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H62" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I62" t="n">
         <v>100.7</v>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="n">
-        <v>100.8490348684108</v>
+        <v>13.92608141557027</v>
       </c>
     </row>
     <row r="63">
@@ -4156,7 +4156,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H63" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I63" t="n">
         <v>100.82</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="n">
-        <v>95.13315581224097</v>
+        <v>13.13678484766918</v>
       </c>
     </row>
     <row r="64">
@@ -4215,7 +4215,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H64" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I64" t="n">
         <v>100.99</v>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="n">
-        <v>96.05993013273994</v>
+        <v>13.26476162660384</v>
       </c>
     </row>
     <row r="65">
@@ -4274,7 +4274,7 @@
         <v>28.5</v>
       </c>
       <c r="H65" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I65" t="n">
         <v>100.89</v>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="n">
-        <v>95.44095682180732</v>
+        <v>13.17928859522224</v>
       </c>
     </row>
     <row r="66">
@@ -4333,7 +4333,7 @@
         <v>28.5</v>
       </c>
       <c r="H66" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I66" t="n">
         <v>100.92</v>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="n">
-        <v>95.44095682180732</v>
+        <v>13.17928859522224</v>
       </c>
     </row>
     <row r="67">
@@ -4392,7 +4392,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H67" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I67" t="n">
         <v>101.09</v>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="n">
-        <v>381.0507603815593</v>
+        <v>36.45077869497613</v>
       </c>
     </row>
     <row r="68">
@@ -4451,7 +4451,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H68" t="n">
-        <v>80.3</v>
+        <v>26.83333333333333</v>
       </c>
       <c r="I68" t="n">
         <v>101.25</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
-        <v>1380.224938835358</v>
+        <v>99.67351393653161</v>
       </c>
     </row>
     <row r="69">
@@ -4510,7 +4510,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H69" t="n">
-        <v>79.7</v>
+        <v>26.5</v>
       </c>
       <c r="I69" t="n">
         <v>101.26</v>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
-        <v>1373.304138245827</v>
+        <v>99.67270870483785</v>
       </c>
     </row>
     <row r="70">
@@ -4569,7 +4569,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H70" t="n">
-        <v>79.09999999999999</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="I70" t="n">
         <v>101.2</v>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="n">
-        <v>1370.856768585571</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
@@ -4628,7 +4628,7 @@
         <v>26</v>
       </c>
       <c r="H71" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I71" t="n">
         <v>101.1</v>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="n">
-        <v>1361.715507088249</v>
+        <v>99.67136002025416</v>
       </c>
     </row>
     <row r="72">
@@ -4687,7 +4687,7 @@
         <v>25.72222222222222</v>
       </c>
       <c r="H72" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I72" t="n">
         <v>101.11</v>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="n">
-        <v>1361.543354075182</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73">
@@ -4746,7 +4746,7 @@
         <v>26</v>
       </c>
       <c r="H73" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I73" t="n">
         <v>101.09</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="n">
-        <v>1361.715507088249</v>
+        <v>99.67136002025416</v>
       </c>
     </row>
     <row r="74">
@@ -4805,7 +4805,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H74" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I74" t="n">
         <v>101.02</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="n">
-        <v>1343.036196812648</v>
+        <v>99.6691847303951</v>
       </c>
     </row>
     <row r="75">
@@ -4864,7 +4864,7 @@
         <v>24.16666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I75" t="n">
         <v>100.92</v>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="n">
-        <v>1311.85465169821</v>
+        <v>99.00346353028363</v>
       </c>
     </row>
     <row r="76">
@@ -4923,7 +4923,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H76" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I76" t="n">
         <v>100.72</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="n">
-        <v>1357.061401325465</v>
+        <v>99.67081821255987</v>
       </c>
     </row>
     <row r="77">
@@ -4982,7 +4982,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H77" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I77" t="n">
         <v>100.62</v>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="n">
-        <v>1330.385209702006</v>
+        <v>99.33768995950125</v>
       </c>
     </row>
     <row r="78">
@@ -5041,7 +5041,7 @@
         <v>25</v>
       </c>
       <c r="H78" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I78" t="n">
         <v>100.58</v>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="n">
-        <v>1340.689601548961</v>
+        <v>99.66891130226072</v>
       </c>
     </row>
     <row r="79">
@@ -5100,7 +5100,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H79" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I79" t="n">
         <v>100.78</v>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="n">
-        <v>1348.668289404247</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80">
@@ -5159,7 +5159,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I80" t="n">
         <v>101.04</v>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="n">
-        <v>1344.208530873987</v>
+        <v>99.66932131753235</v>
       </c>
     </row>
     <row r="81">
@@ -5218,7 +5218,7 @@
         <v>25</v>
       </c>
       <c r="H81" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I81" t="n">
         <v>101.17</v>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="n">
-        <v>1340.689601548961</v>
+        <v>99.66891130226072</v>
       </c>
     </row>
     <row r="82">
@@ -5277,7 +5277,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H82" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I82" t="n">
         <v>101.27</v>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="n">
-        <v>1357.061401325465</v>
+        <v>99.67081821255987</v>
       </c>
     </row>
     <row r="83">
@@ -5336,7 +5336,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H83" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I83" t="n">
         <v>101.33</v>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="n">
-        <v>1363.875709795811</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
@@ -5395,7 +5395,7 @@
         <v>24.44444444444445</v>
       </c>
       <c r="H84" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I84" t="n">
         <v>101.32</v>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="n">
-        <v>1317.748912065485</v>
+        <v>99.00551901243702</v>
       </c>
     </row>
     <row r="85">
@@ -5454,7 +5454,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H85" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I85" t="n">
         <v>101.24</v>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="n">
-        <v>1346.773622869928</v>
+        <v>99.3415017661081</v>
       </c>
     </row>
     <row r="86">
@@ -5513,7 +5513,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H86" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I86" t="n">
         <v>101.17</v>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="n">
-        <v>1347.939407682556</v>
+        <v>99.34177277933236</v>
       </c>
     </row>
     <row r="87">
@@ -5572,7 +5572,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H87" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I87" t="n">
         <v>101.15</v>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="n">
-        <v>1357.061401325465</v>
+        <v>99.67081821255987</v>
       </c>
     </row>
     <row r="88">
@@ -5631,7 +5631,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H88" t="n">
-        <v>79.2</v>
+        <v>26.22222222222222</v>
       </c>
       <c r="I88" t="n">
         <v>101.13</v>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="n">
-        <v>1372.017930494825</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
@@ -5690,7 +5690,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H89" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I89" t="n">
         <v>101.03</v>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="n">
-        <v>1351.01509692688</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
@@ -5749,7 +5749,7 @@
         <v>25.38888888888889</v>
       </c>
       <c r="H90" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I90" t="n">
         <v>101.07</v>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="n">
-        <v>1348.891412323214</v>
+        <v>99.66986682150829</v>
       </c>
     </row>
     <row r="91">
@@ -5808,7 +5808,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I91" t="n">
         <v>101.06</v>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="n">
-        <v>1347.721662825797</v>
+        <v>99.66973057206097</v>
       </c>
     </row>
     <row r="92">
@@ -5867,7 +5867,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H92" t="n">
-        <v>80.09999999999999</v>
+        <v>26.72222222222222</v>
       </c>
       <c r="I92" t="n">
         <v>101.05</v>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="n">
-        <v>1382.437899689774</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -5926,7 +5926,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H93" t="n">
-        <v>79.90000000000001</v>
+        <v>26.61111111111111</v>
       </c>
       <c r="I93" t="n">
         <v>101.03</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="n">
-        <v>1380.127116716148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
@@ -5985,7 +5985,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H94" t="n">
-        <v>83.59999999999999</v>
+        <v>28.66666666666666</v>
       </c>
       <c r="I94" t="n">
         <v>101.04</v>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="n">
-        <v>1413.27745453835</v>
+        <v>99.35694850922997</v>
       </c>
     </row>
     <row r="95">
@@ -6044,7 +6044,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H95" t="n">
-        <v>22.9</v>
+        <v>-5.055555555555556</v>
       </c>
       <c r="I95" t="n">
         <v>100.93</v>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="n">
-        <v>79.57639898059404</v>
+        <v>11.97886504421683</v>
       </c>
     </row>
     <row r="96">
@@ -6103,7 +6103,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H96" t="n">
-        <v>-15.1</v>
+        <v>-26.16666666666667</v>
       </c>
       <c r="I96" t="n">
         <v>100.77</v>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="n">
-        <v>5.260253305078611</v>
+        <v>2.01563319922202</v>
       </c>
     </row>
     <row r="97">
@@ -6162,7 +6162,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H97" t="n">
-        <v>63.8</v>
+        <v>17.66666666666666</v>
       </c>
       <c r="I97" t="n">
         <v>100.86</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="n">
-        <v>667.4451782787296</v>
+        <v>56.2719235447278</v>
       </c>
     </row>
     <row r="98">
@@ -6221,7 +6221,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I98" t="n">
         <v>101</v>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="n">
-        <v>1207.34810106715</v>
+        <v>88.59905787757208</v>
       </c>
     </row>
     <row r="99">
@@ -6280,7 +6280,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I99" t="n">
         <v>101.16</v>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="n">
-        <v>1189.267524311367</v>
+        <v>88.80066295641407</v>
       </c>
     </row>
     <row r="100">
@@ -6339,7 +6339,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H100" t="n">
-        <v>75.84999999999999</v>
+        <v>24.36111111111111</v>
       </c>
       <c r="I100" t="n">
         <v>101.23</v>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="n">
-        <v>1190.974997494498</v>
+        <v>89.3649405766258</v>
       </c>
     </row>
     <row r="101">
@@ -6398,7 +6398,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H101" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I101" t="n">
         <v>101.39</v>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="n">
-        <v>1192.682470677629</v>
+        <v>89.92921819683751</v>
       </c>
     </row>
     <row r="102">
@@ -6457,7 +6457,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H102" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I102" t="n">
         <v>101.29</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="n">
-        <v>1089.068924727759</v>
+        <v>80.61115876536367</v>
       </c>
     </row>
     <row r="103">
@@ -6516,7 +6516,7 @@
         <v>28.22222222222222</v>
       </c>
       <c r="H103" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I103" t="n">
         <v>101.3</v>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="n">
-        <v>1141.598686258975</v>
+        <v>84.35296420715649</v>
       </c>
     </row>
     <row r="104">
@@ -6575,7 +6575,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H104" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I104" t="n">
         <v>101.24</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="n">
-        <v>1060.376317312176</v>
+        <v>78.55558674002818</v>
       </c>
     </row>
     <row r="105">
@@ -6634,7 +6634,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H105" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I105" t="n">
         <v>101.2</v>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="n">
-        <v>1059.349303464455</v>
+        <v>78.54780243497868</v>
       </c>
     </row>
     <row r="106">
@@ -6693,7 +6693,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H106" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I106" t="n">
         <v>101.13</v>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="n">
-        <v>1065.151918876059</v>
+        <v>79.04688170009341</v>
       </c>
     </row>
     <row r="107">
@@ -6752,7 +6752,7 @@
         <v>28.5</v>
       </c>
       <c r="H107" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I107" t="n">
         <v>101.04</v>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="n">
-        <v>1109.298311596368</v>
+        <v>82.17986229460524</v>
       </c>
     </row>
     <row r="108">
@@ -6811,7 +6811,7 @@
         <v>26.05555555555556</v>
       </c>
       <c r="H108" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I108" t="n">
         <v>101.04</v>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="n">
-        <v>1217.522619277092</v>
+        <v>91.1513925153193</v>
       </c>
     </row>
     <row r="109">
@@ -6870,7 +6870,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H109" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I109" t="n">
         <v>101.08</v>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="n">
-        <v>1108.244311052227</v>
+        <v>82.17323116136851</v>
       </c>
     </row>
     <row r="110">
@@ -6929,7 +6929,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H110" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I110" t="n">
         <v>101.17</v>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="n">
-        <v>1165.098431331169</v>
+        <v>86.01493271268018</v>
       </c>
     </row>
     <row r="111">
@@ -6988,7 +6988,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H111" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I111" t="n">
         <v>101.05</v>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="n">
-        <v>1143.209648091749</v>
+        <v>84.25650911826246</v>
       </c>
     </row>
     <row r="112">
@@ -7047,7 +7047,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H112" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I112" t="n">
         <v>101.09</v>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="n">
-        <v>1121.320864852329</v>
+        <v>82.49808552384474</v>
       </c>
     </row>
     <row r="113">
@@ -7106,7 +7106,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H113" t="n">
-        <v>77.44999999999999</v>
+        <v>25.25</v>
       </c>
       <c r="I113" t="n">
         <v>101.07</v>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="n">
-        <v>1102.065924076905</v>
+        <v>81.53318143985587</v>
       </c>
     </row>
     <row r="114">
@@ -7165,7 +7165,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H114" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I114" t="n">
         <v>101.03</v>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="n">
-        <v>1082.810983301481</v>
+        <v>80.568277355867</v>
       </c>
     </row>
     <row r="115">
@@ -7224,7 +7224,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H115" t="n">
-        <v>76.55</v>
+        <v>24.75</v>
       </c>
       <c r="I115" t="n">
         <v>100.91</v>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="n">
-        <v>1120.142710662498</v>
+        <v>83.53559389476928</v>
       </c>
     </row>
     <row r="116">
@@ -7283,7 +7283,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H116" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I116" t="n">
         <v>101.12</v>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="n">
-        <v>1157.474438023514</v>
+        <v>86.50291043367156</v>
       </c>
     </row>
     <row r="117">
@@ -7342,7 +7342,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H117" t="n">
-        <v>75.40000000000001</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="I117" t="n">
         <v>101.17</v>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="n">
-        <v>1103.491844222177</v>
+        <v>83.12984551789106</v>
       </c>
     </row>
     <row r="118">
@@ -7401,7 +7401,7 @@
         <v>26.94444444444445</v>
       </c>
       <c r="H118" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I118" t="n">
         <v>101.23</v>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="n">
-        <v>1075.044706866825</v>
+        <v>81.71854380651101</v>
       </c>
     </row>
     <row r="119">
@@ -7460,7 +7460,7 @@
         <v>27.5</v>
       </c>
       <c r="H119" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I119" t="n">
         <v>101.14</v>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="n">
-        <v>1049.440348615962</v>
+        <v>79.62806528512675</v>
       </c>
     </row>
     <row r="120">
@@ -7519,7 +7519,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H120" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I120" t="n">
         <v>101.21</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="n">
-        <v>1082.484040263696</v>
+        <v>81.04155609382474</v>
       </c>
     </row>
     <row r="121">
@@ -7578,7 +7578,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H121" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I121" t="n">
         <v>101.03</v>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="n">
-        <v>1133.641584580125</v>
+        <v>84.05636830690912</v>
       </c>
     </row>
     <row r="122">
@@ -7637,7 +7637,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H122" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I122" t="n">
         <v>100.98</v>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="n">
-        <v>1143.733795467539</v>
+        <v>84.36475955051391</v>
       </c>
     </row>
     <row r="123">
@@ -7696,7 +7696,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H123" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I123" t="n">
         <v>101.1</v>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="R123" t="inlineStr"/>
       <c r="S123" t="n">
-        <v>1157.566464581284</v>
+        <v>85.45887530519971</v>
       </c>
     </row>
     <row r="124">
@@ -7755,7 +7755,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H124" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I124" t="n">
         <v>101.04</v>
@@ -7784,7 +7784,7 @@
       </c>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="n">
-        <v>1129.649441549517</v>
+        <v>84.79778190399884</v>
       </c>
     </row>
     <row r="125">
@@ -7814,7 +7814,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I125" t="n">
         <v>100.9</v>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="n">
-        <v>1159.653155910994</v>
+        <v>86.51325324813716</v>
       </c>
     </row>
     <row r="126">
@@ -7873,7 +7873,7 @@
         <v>26.5</v>
       </c>
       <c r="H126" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I126" t="n">
         <v>100.87</v>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="n">
-        <v>1190.953527997074</v>
+        <v>89.0835125921855</v>
       </c>
     </row>
     <row r="127">
@@ -7932,7 +7932,7 @@
         <v>26.5</v>
       </c>
       <c r="H127" t="n">
-        <v>75.40000000000001</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="I127" t="n">
         <v>100.87</v>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="n">
-        <v>1151.415731648439</v>
+        <v>86.74011720156636</v>
       </c>
     </row>
     <row r="128">
@@ -7991,7 +7991,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H128" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I128" t="n">
         <v>100.96</v>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="n">
-        <v>1058.982141120087</v>
+        <v>80.64373770279741</v>
       </c>
     </row>
     <row r="129">
@@ -8050,7 +8050,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H129" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I129" t="n">
         <v>101.05</v>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="n">
-        <v>1077.932433606547</v>
+        <v>80.77223609844437</v>
       </c>
     </row>
     <row r="130">
@@ -8109,7 +8109,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H130" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I130" t="n">
         <v>101.1</v>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="n">
-        <v>1163.967695417541</v>
+        <v>87.06496803952574</v>
       </c>
     </row>
     <row r="131">
@@ -8168,7 +8168,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H131" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I131" t="n">
         <v>101.26</v>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="n">
-        <v>1184.851262170421</v>
+        <v>89.33873877259518</v>
       </c>
     </row>
     <row r="132">
@@ -8227,7 +8227,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H132" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I132" t="n">
         <v>101.44</v>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="n">
-        <v>1200.296920416395</v>
+        <v>88.84407902966296</v>
       </c>
     </row>
     <row r="133">
@@ -8286,7 +8286,7 @@
         <v>26.94444444444445</v>
       </c>
       <c r="H133" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I133" t="n">
         <v>101.37</v>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="n">
-        <v>1169.972045951155</v>
+        <v>87.35990111316092</v>
       </c>
     </row>
     <row r="134">
@@ -8345,7 +8345,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H134" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I134" t="n">
         <v>101.4</v>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="n">
-        <v>1222.477390641027</v>
+        <v>90.8808351135481</v>
       </c>
     </row>
     <row r="135">
@@ -8404,7 +8404,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H135" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I135" t="n">
         <v>101.48</v>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="n">
-        <v>1198.195040420097</v>
+        <v>89.38858178770998</v>
       </c>
     </row>
     <row r="136">
@@ -8463,7 +8463,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H136" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I136" t="n">
         <v>101.3</v>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="n">
-        <v>1275.837193479098</v>
+        <v>94.84768430073454</v>
       </c>
     </row>
     <row r="137">
@@ -8522,7 +8522,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H137" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I137" t="n">
         <v>101.36</v>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="n">
-        <v>1145.799807554965</v>
+        <v>84.88399325745493</v>
       </c>
     </row>
     <row r="138">
@@ -8581,7 +8581,7 @@
         <v>28.5</v>
       </c>
       <c r="H138" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I138" t="n">
         <v>101.4</v>
@@ -8610,7 +8610,7 @@
       </c>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="n">
-        <v>1137.424005685119</v>
+        <v>83.82700029580226</v>
       </c>
     </row>
     <row r="139">
@@ -8640,7 +8640,7 @@
         <v>27.88888888888889</v>
       </c>
       <c r="H139" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I139" t="n">
         <v>101.36</v>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="n">
-        <v>1102.310337158444</v>
+        <v>82.38026623564194</v>
       </c>
     </row>
     <row r="140">
@@ -8699,7 +8699,7 @@
         <v>25.5</v>
       </c>
       <c r="H140" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I140" t="n">
         <v>101.26</v>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="n">
-        <v>1242.511847107003</v>
+        <v>93.26986297589026</v>
       </c>
     </row>
     <row r="141">
@@ -8758,7 +8758,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H141" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I141" t="n">
         <v>101.1</v>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="n">
-        <v>1280.847427215106</v>
+        <v>96.40457862230124</v>
       </c>
     </row>
     <row r="142">
@@ -8817,7 +8817,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H142" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I142" t="n">
         <v>101.17</v>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="n">
-        <v>1208.30028148559</v>
+        <v>89.98431092648488</v>
       </c>
     </row>
     <row r="143">
@@ -8876,7 +8876,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H143" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I143" t="n">
         <v>101.25</v>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="n">
-        <v>1159.076523281491</v>
+        <v>86.77575057427165</v>
       </c>
     </row>
     <row r="144">
@@ -8935,7 +8935,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H144" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I144" t="n">
         <v>101.25</v>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="n">
-        <v>1146.075612491864</v>
+        <v>86.18397009102368</v>
       </c>
     </row>
     <row r="145">
@@ -8994,7 +8994,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>79.3</v>
+        <v>26.27777777777778</v>
       </c>
       <c r="I145" t="n">
         <v>101.35</v>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="n">
-        <v>1303.106323935845</v>
+        <v>94.89708741769969</v>
       </c>
     </row>
     <row r="146">
@@ -9053,7 +9053,7 @@
         <v>28</v>
       </c>
       <c r="H146" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I146" t="n">
         <v>101.43</v>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="n">
-        <v>1166.177438049641</v>
+        <v>86.02026060974661</v>
       </c>
     </row>
     <row r="147">
@@ -9112,7 +9112,7 @@
         <v>27.61111111111111</v>
       </c>
       <c r="H147" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I147" t="n">
         <v>101.4</v>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="n">
-        <v>1207.987224359236</v>
+        <v>88.8743235505782</v>
       </c>
     </row>
     <row r="148">
@@ -9171,7 +9171,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H148" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I148" t="n">
         <v>101.33</v>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="n">
-        <v>1177.627877096213</v>
+        <v>87.39392929581551</v>
       </c>
     </row>
     <row r="149">
@@ -9230,7 +9230,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H149" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I149" t="n">
         <v>101.22</v>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="n">
-        <v>1165.599751663764</v>
+        <v>85.24396401316862</v>
       </c>
     </row>
     <row r="150">
@@ -9289,7 +9289,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H150" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I150" t="n">
         <v>101.12</v>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="n">
-        <v>1076.171493025792</v>
+        <v>80.99938923721699</v>
       </c>
     </row>
     <row r="151">
@@ -9348,7 +9348,7 @@
         <v>28</v>
       </c>
       <c r="H151" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I151" t="n">
         <v>101.14</v>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="n">
-        <v>1058.845437412455</v>
+        <v>79.69532205864444</v>
       </c>
     </row>
     <row r="152">
@@ -9407,7 +9407,7 @@
         <v>28</v>
       </c>
       <c r="H152" t="n">
-        <v>73.7</v>
+        <v>23.16666666666667</v>
       </c>
       <c r="I152" t="n">
         <v>101.19</v>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="R152" t="inlineStr"/>
       <c r="S152" t="n">
-        <v>980.8260661292618</v>
+        <v>75.03322339116465</v>
       </c>
     </row>
     <row r="153">
@@ -9466,7 +9466,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H153" t="n">
-        <v>75.40000000000001</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="I153" t="n">
         <v>101.14</v>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="R153" t="inlineStr"/>
       <c r="S153" t="n">
-        <v>1170.468290006056</v>
+        <v>88.17541211677774</v>
       </c>
     </row>
     <row r="154">
@@ -9525,7 +9525,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H154" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I154" t="n">
         <v>101.25</v>
@@ -9554,7 +9554,7 @@
       </c>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="n">
-        <v>1124.452922242154</v>
+        <v>84.25813537593262</v>
       </c>
     </row>
     <row r="155">
@@ -9584,7 +9584,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H155" t="n">
-        <v>75</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="I155" t="n">
         <v>101.28</v>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="n">
-        <v>1081.41907013886</v>
+        <v>81.75940512941324</v>
       </c>
     </row>
     <row r="156">
@@ -9643,7 +9643,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H156" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I156" t="n">
         <v>101.14</v>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="n">
-        <v>1059.447245877744</v>
+        <v>80.1702763009136</v>
       </c>
     </row>
     <row r="157">
@@ -9702,7 +9702,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H157" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I157" t="n">
         <v>101.11</v>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="n">
-        <v>1097.385615287169</v>
+        <v>82.59609659985477</v>
       </c>
     </row>
     <row r="158">
@@ -9761,7 +9761,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H158" t="n">
-        <v>74.7</v>
+        <v>23.72222222222222</v>
       </c>
       <c r="I158" t="n">
         <v>101.04</v>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="n">
-        <v>1067.733010129819</v>
+        <v>80.94295708305911</v>
       </c>
     </row>
     <row r="159">
@@ -9820,7 +9820,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H159" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I159" t="n">
         <v>101.06</v>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="n">
-        <v>1076.754555985382</v>
+        <v>82.22138779258246</v>
       </c>
     </row>
     <row r="160">
@@ -9879,7 +9879,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H160" t="n">
-        <v>73.7</v>
+        <v>23.16666666666667</v>
       </c>
       <c r="I160" t="n">
         <v>101.07</v>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="n">
-        <v>1036.614696457361</v>
+        <v>79.30105527966148</v>
       </c>
     </row>
     <row r="161">
@@ -9938,7 +9938,7 @@
         <v>26.11111111111111</v>
       </c>
       <c r="H161" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I161" t="n">
         <v>101.03</v>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="n">
-        <v>1054.505589588586</v>
+        <v>81.34095555796263</v>
       </c>
     </row>
     <row r="162">
@@ -9997,7 +9997,7 @@
         <v>25.05555555555555</v>
       </c>
       <c r="H162" t="n">
-        <v>73.2</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="I162" t="n">
         <v>101.22</v>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="n">
-        <v>1142.225547522216</v>
+        <v>87.78233623430582</v>
       </c>
     </row>
     <row r="163">
@@ -10056,7 +10056,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H163" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I163" t="n">
         <v>101.11</v>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="n">
-        <v>1158.564031138947</v>
+        <v>86.50808328611042</v>
       </c>
     </row>
     <row r="164">
@@ -10115,7 +10115,7 @@
         <v>26.94444444444445</v>
       </c>
       <c r="H164" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I164" t="n">
         <v>101.22</v>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="n">
-        <v>1165.061776154184</v>
+        <v>87.0699439760002</v>
       </c>
     </row>
     <row r="165">
@@ -10174,7 +10174,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H165" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I165" t="n">
         <v>101.22</v>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="n">
-        <v>1098.067185656871</v>
+        <v>82.35392895614692</v>
       </c>
     </row>
     <row r="166">
@@ -10233,7 +10233,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H166" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I166" t="n">
         <v>101.17</v>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="n">
-        <v>1142.466052938403</v>
+        <v>85.38127098477945</v>
       </c>
     </row>
     <row r="167">
@@ -10292,7 +10292,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H167" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I167" t="n">
         <v>101.19</v>
@@ -10321,7 +10321,7 @@
       </c>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="n">
-        <v>1161.829995043514</v>
+        <v>86.52358450928553</v>
       </c>
     </row>
     <row r="168">
@@ -10351,7 +10351,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H168" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I168" t="n">
         <v>101.19</v>
@@ -10380,7 +10380,7 @@
       </c>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="n">
-        <v>1111.380881588139</v>
+        <v>83.42644199417677</v>
       </c>
     </row>
     <row r="169">
@@ -10410,7 +10410,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H169" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I169" t="n">
         <v>101.23</v>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="n">
-        <v>1066.366321661092</v>
+        <v>80.69385519496079</v>
       </c>
     </row>
     <row r="170">
@@ -10469,7 +10469,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>75.09999999999999</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="I170" t="n">
         <v>101.23</v>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="n">
-        <v>1093.121364519103</v>
+        <v>82.57000102715062</v>
       </c>
     </row>
     <row r="171">
@@ -10528,7 +10528,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H171" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I171" t="n">
         <v>101.18</v>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="n">
-        <v>1116.079617710948</v>
+        <v>83.70484315255058</v>
       </c>
     </row>
     <row r="172">
@@ -10587,7 +10587,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H172" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I172" t="n">
         <v>101.24</v>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="n">
-        <v>1102.033929372516</v>
+        <v>82.87207071951241</v>
       </c>
     </row>
     <row r="173">
@@ -10646,7 +10646,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H173" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I173" t="n">
         <v>101.29</v>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="n">
-        <v>1019.011935995389</v>
+        <v>78.24105080833715</v>
       </c>
     </row>
     <row r="174">
@@ -10705,7 +10705,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H174" t="n">
-        <v>72.40000000000001</v>
+        <v>22.44444444444445</v>
       </c>
       <c r="I174" t="n">
         <v>101.22</v>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="n">
-        <v>967.6239107273873</v>
+        <v>74.91714226143598</v>
       </c>
     </row>
     <row r="175">
@@ -10764,7 +10764,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H175" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I175" t="n">
         <v>101.23</v>
@@ -10793,7 +10793,7 @@
       </c>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="n">
-        <v>1029.04996794137</v>
+        <v>79.01178384860727</v>
       </c>
     </row>
     <row r="176">
@@ -10823,7 +10823,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H176" t="n">
-        <v>73.7</v>
+        <v>23.16666666666667</v>
       </c>
       <c r="I176" t="n">
         <v>101.34</v>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="n">
-        <v>1036.614696457361</v>
+        <v>79.30105527966148</v>
       </c>
     </row>
     <row r="177">
@@ -10882,7 +10882,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H177" t="n">
-        <v>73.5</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="I177" t="n">
         <v>101.31</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="n">
-        <v>1076.000724963111</v>
+        <v>82.46505250499811</v>
       </c>
     </row>
     <row r="178">
@@ -10941,7 +10941,7 @@
         <v>26.94444444444445</v>
       </c>
       <c r="H178" t="n">
-        <v>73</v>
+        <v>22.77777777777778</v>
       </c>
       <c r="I178" t="n">
         <v>101.24</v>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="n">
-        <v>1012.571991414815</v>
+        <v>77.9619331260061</v>
       </c>
     </row>
     <row r="179">
@@ -11000,7 +11000,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H179" t="n">
-        <v>72.09999999999999</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="I179" t="n">
         <v>101.18</v>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="n">
-        <v>993.3814825169969</v>
+        <v>77.12716140137331</v>
       </c>
     </row>
     <row r="180">
@@ -11059,7 +11059,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H180" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I180" t="n">
         <v>101.2</v>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="n">
-        <v>1039.199447912429</v>
+        <v>79.79107401199292</v>
       </c>
     </row>
     <row r="181">
@@ -11118,7 +11118,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H181" t="n">
-        <v>74</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="I181" t="n">
         <v>101.26</v>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="n">
-        <v>1106.495024260012</v>
+        <v>84.41539020522492</v>
       </c>
     </row>
     <row r="182">
@@ -11177,7 +11177,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H182" t="n">
-        <v>75.09999999999999</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="I182" t="n">
         <v>101.22</v>
@@ -11206,7 +11206,7 @@
       </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="n">
-        <v>1182.620389314948</v>
+        <v>89.33039818814923</v>
       </c>
     </row>
     <row r="183">
@@ -11236,7 +11236,7 @@
         <v>26.38888888888889</v>
       </c>
       <c r="H183" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I183" t="n">
         <v>101.19</v>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="n">
-        <v>1106.113537496798</v>
+        <v>84.15646438989172</v>
       </c>
     </row>
     <row r="184">
@@ -11295,7 +11295,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H184" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I184" t="n">
         <v>101.29</v>
@@ -11324,7 +11324,7 @@
       </c>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="n">
-        <v>1116.375097154308</v>
+        <v>85.24682739893827</v>
       </c>
     </row>
     <row r="185">
@@ -11354,7 +11354,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H185" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I185" t="n">
         <v>101.46</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="n">
-        <v>1134.248203600224</v>
+        <v>85.59980369323537</v>
       </c>
     </row>
     <row r="186">
@@ -11413,7 +11413,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H186" t="n">
-        <v>75.09999999999999</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="I186" t="n">
         <v>101.48</v>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="n">
-        <v>1122.078482761704</v>
+        <v>84.75730553023914</v>
       </c>
     </row>
     <row r="187">
@@ -11472,7 +11472,7 @@
         <v>26.38888888888889</v>
       </c>
       <c r="H187" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I187" t="n">
         <v>101.51</v>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="n">
-        <v>1154.099862785836</v>
+        <v>87.02005850932004</v>
       </c>
     </row>
     <row r="188">
@@ -11531,7 +11531,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H188" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I188" t="n">
         <v>101.51</v>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="n">
-        <v>1090.27397112991</v>
+        <v>82.80119706434215</v>
       </c>
     </row>
     <row r="189">
@@ -11590,7 +11590,7 @@
         <v>26.38888888888889</v>
       </c>
       <c r="H189" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I189" t="n">
         <v>101.58</v>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="n">
-        <v>1115.572304454668</v>
+        <v>84.72248688551596</v>
       </c>
     </row>
     <row r="190">
@@ -11649,7 +11649,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H190" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I190" t="n">
         <v>101.61</v>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="n">
-        <v>1112.313505124961</v>
+        <v>84.70503426592217</v>
       </c>
     </row>
     <row r="191">
@@ -11708,7 +11708,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H191" t="n">
-        <v>72.40000000000001</v>
+        <v>22.44444444444445</v>
       </c>
       <c r="I191" t="n">
         <v>101.65</v>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="n">
-        <v>980.3354238899936</v>
+        <v>75.90131620484881</v>
       </c>
     </row>
     <row r="192">
@@ -11767,7 +11767,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H192" t="n">
-        <v>72.40000000000001</v>
+        <v>22.44444444444445</v>
       </c>
       <c r="I192" t="n">
         <v>101.69</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="n">
-        <v>1006.326440780435</v>
+        <v>77.91364009258409</v>
       </c>
     </row>
     <row r="193">
@@ -11826,7 +11826,7 @@
         <v>26.38888888888889</v>
       </c>
       <c r="H193" t="n">
-        <v>71.8</v>
+        <v>22.11111111111111</v>
       </c>
       <c r="I193" t="n">
         <v>101.62</v>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="n">
-        <v>993.524694326843</v>
+        <v>77.35560742920362</v>
       </c>
     </row>
     <row r="194">
@@ -11885,7 +11885,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H194" t="n">
-        <v>72.90000000000001</v>
+        <v>22.72222222222222</v>
       </c>
       <c r="I194" t="n">
         <v>101.55</v>
@@ -11914,7 +11914,7 @@
       </c>
       <c r="R194" t="inlineStr"/>
       <c r="S194" t="n">
-        <v>1031.596155521348</v>
+        <v>79.50015348375916</v>
       </c>
     </row>
     <row r="195">
@@ -11944,7 +11944,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H195" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I195" t="n">
         <v>101.59</v>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="n">
-        <v>1013.802691539476</v>
+        <v>78.20127317601847</v>
       </c>
     </row>
     <row r="196">
@@ -12003,7 +12003,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H196" t="n">
-        <v>73.8</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="I196" t="n">
         <v>101.53</v>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="n">
-        <v>1072.164184241734</v>
+        <v>81.94564149254872</v>
       </c>
     </row>
     <row r="197">
@@ -12062,7 +12062,7 @@
         <v>26.44444444444444</v>
       </c>
       <c r="H197" t="n">
-        <v>71.7</v>
+        <v>22.05555555555556</v>
       </c>
       <c r="I197" t="n">
         <v>101.39</v>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="n">
-        <v>985.9923156005553</v>
+        <v>76.84137007155175</v>
       </c>
     </row>
     <row r="198">
@@ -12121,7 +12121,7 @@
         <v>26.44444444444444</v>
       </c>
       <c r="H198" t="n">
-        <v>70.8</v>
+        <v>21.55555555555555</v>
       </c>
       <c r="I198" t="n">
         <v>101.32</v>
@@ -12150,7 +12150,7 @@
       </c>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="n">
-        <v>948.1950237906176</v>
+        <v>74.52830268178201</v>
       </c>
     </row>
     <row r="199">
@@ -12180,7 +12180,7 @@
         <v>26.94444444444445</v>
       </c>
       <c r="H199" t="n">
-        <v>72</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="I199" t="n">
         <v>101.43</v>
@@ -12209,7 +12209,7 @@
       </c>
       <c r="R199" t="inlineStr"/>
       <c r="S199" t="n">
-        <v>969.8683045469724</v>
+        <v>75.3721252761256</v>
       </c>
     </row>
     <row r="200">
@@ -12239,7 +12239,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H200" t="n">
-        <v>71.8</v>
+        <v>22.11111111111111</v>
       </c>
       <c r="I200" t="n">
         <v>101.39</v>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="R200" t="inlineStr"/>
       <c r="S200" t="n">
-        <v>964.6628218787438</v>
+        <v>75.10842858451508</v>
       </c>
     </row>
     <row r="201">
@@ -12298,7 +12298,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H201" t="n">
-        <v>71.3</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="I201" t="n">
         <v>101.24</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="R201" t="inlineStr"/>
       <c r="S201" t="n">
-        <v>962.7036610117481</v>
+        <v>75.31018494140744</v>
       </c>
     </row>
     <row r="202">
@@ -12357,7 +12357,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H202" t="n">
-        <v>73.5</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="I202" t="n">
         <v>101.18</v>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="n">
-        <v>1072.473274245044</v>
+        <v>82.19470751179733</v>
       </c>
     </row>
     <row r="203">
@@ -12416,7 +12416,7 @@
         <v>27</v>
       </c>
       <c r="H203" t="n">
-        <v>74</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="I203" t="n">
         <v>101.35</v>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="R203" t="inlineStr"/>
       <c r="S203" t="n">
-        <v>1053.421339377652</v>
+        <v>80.36635634538462</v>
       </c>
     </row>
     <row r="204">
@@ -12475,7 +12475,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H204" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I204" t="n">
         <v>101.41</v>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="R204" t="inlineStr"/>
       <c r="S204" t="n">
-        <v>1086.364879809245</v>
+        <v>82.28120821497936</v>
       </c>
     </row>
     <row r="205">
@@ -12534,7 +12534,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H205" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I205" t="n">
         <v>101.34</v>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="n">
-        <v>1117.573864320071</v>
+        <v>83.96590538505033</v>
       </c>
     </row>
     <row r="206">
@@ -12593,7 +12593,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H206" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I206" t="n">
         <v>101.27</v>
@@ -12622,7 +12622,7 @@
       </c>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="n">
-        <v>1115.007821101828</v>
+        <v>83.6987002847124</v>
       </c>
     </row>
     <row r="207">
@@ -12652,7 +12652,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H207" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I207" t="n">
         <v>101.15</v>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="R207" t="inlineStr"/>
       <c r="S207" t="n">
-        <v>1148.856632733334</v>
+        <v>85.93465815650806</v>
       </c>
     </row>
     <row r="208">
@@ -12711,7 +12711,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H208" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I208" t="n">
         <v>101.14</v>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="R208" t="inlineStr"/>
       <c r="S208" t="n">
-        <v>1144.628777976616</v>
+        <v>85.39239413047159</v>
       </c>
     </row>
     <row r="209">
@@ -12770,7 +12770,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H209" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I209" t="n">
         <v>101.15</v>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="R209" t="inlineStr"/>
       <c r="S209" t="n">
-        <v>1060.931382441046</v>
+        <v>79.71022490962852</v>
       </c>
     </row>
     <row r="210">
@@ -12829,7 +12829,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H210" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I210" t="n">
         <v>101.08</v>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="R210" t="inlineStr"/>
       <c r="S210" t="n">
-        <v>1025.365896286042</v>
+        <v>77.38263914126439</v>
       </c>
     </row>
     <row r="211">
@@ -12888,7 +12888,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H211" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I211" t="n">
         <v>101.05</v>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="R211" t="inlineStr"/>
       <c r="S211" t="n">
-        <v>946.825943760363</v>
+        <v>73.23865283551314</v>
       </c>
     </row>
     <row r="212">
@@ -12947,7 +12947,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H212" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I212" t="n">
         <v>101.18</v>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="R212" t="inlineStr"/>
       <c r="S212" t="n">
-        <v>1022.284343603247</v>
+        <v>77.35809272586278</v>
       </c>
     </row>
     <row r="213">
@@ -13006,7 +13006,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H213" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I213" t="n">
         <v>101.17</v>
@@ -13035,7 +13035,7 @@
       </c>
       <c r="R213" t="inlineStr"/>
       <c r="S213" t="n">
-        <v>1127.515953200323</v>
+        <v>83.02524779537417</v>
       </c>
     </row>
     <row r="214">
@@ -13065,7 +13065,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H214" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I214" t="n">
         <v>101.13</v>
@@ -13094,7 +13094,7 @@
       </c>
       <c r="R214" t="inlineStr"/>
       <c r="S214" t="n">
-        <v>1096.111755819469</v>
+        <v>81.13245798013413</v>
       </c>
     </row>
     <row r="215">
@@ -13124,7 +13124,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H215" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I215" t="n">
         <v>101.2</v>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="R215" t="inlineStr"/>
       <c r="S215" t="n">
-        <v>1093.359581260942</v>
+        <v>81.35316260289514</v>
       </c>
     </row>
     <row r="216">
@@ -13183,7 +13183,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H216" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I216" t="n">
         <v>101.23</v>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="R216" t="inlineStr"/>
       <c r="S216" t="n">
-        <v>1093.743632786804</v>
+        <v>81.59622505186796</v>
       </c>
     </row>
     <row r="217">
@@ -13242,7 +13242,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H217" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I217" t="n">
         <v>101.18</v>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="R217" t="inlineStr"/>
       <c r="S217" t="n">
-        <v>1105.894409433336</v>
+        <v>82.64811896119522</v>
       </c>
     </row>
     <row r="218">
@@ -13301,7 +13301,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H218" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I218" t="n">
         <v>101.11</v>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="R218" t="inlineStr"/>
       <c r="S218" t="n">
-        <v>1029.71734542716</v>
+        <v>77.64151659357856</v>
       </c>
     </row>
     <row r="219">
@@ -13360,7 +13360,7 @@
         <v>28</v>
       </c>
       <c r="H219" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I219" t="n">
         <v>101.15</v>
@@ -13389,7 +13389,7 @@
       </c>
       <c r="R219" t="inlineStr"/>
       <c r="S219" t="n">
-        <v>1113.743868553775</v>
+        <v>82.94252355647093</v>
       </c>
     </row>
     <row r="220">
@@ -13419,7 +13419,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H220" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I220" t="n">
         <v>101.13</v>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="R220" t="inlineStr"/>
       <c r="S220" t="n">
-        <v>1150.52910057258</v>
+        <v>85.68198642526485</v>
       </c>
     </row>
     <row r="221">
@@ -13478,7 +13478,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H221" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I221" t="n">
         <v>101.12</v>
@@ -13507,7 +13507,7 @@
       </c>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="n">
-        <v>1177.64763190855</v>
+        <v>87.93302457584886</v>
       </c>
     </row>
     <row r="222">
@@ -13537,7 +13537,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H222" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I222" t="n">
         <v>101.09</v>
@@ -13566,7 +13566,7 @@
       </c>
       <c r="R222" t="inlineStr"/>
       <c r="S222" t="n">
-        <v>1078.277842236591</v>
+        <v>80.30130432615792</v>
       </c>
     </row>
     <row r="223">
@@ -13596,7 +13596,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H223" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I223" t="n">
         <v>101.19</v>
@@ -13625,7 +13625,7 @@
       </c>
       <c r="R223" t="inlineStr"/>
       <c r="S223" t="n">
-        <v>995.9971257783149</v>
+        <v>75.16622744037431</v>
       </c>
     </row>
     <row r="224">
@@ -13655,7 +13655,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H224" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I224" t="n">
         <v>101.34</v>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="R224" t="inlineStr"/>
       <c r="S224" t="n">
-        <v>993.6184950897507</v>
+        <v>74.71931670940337</v>
       </c>
     </row>
     <row r="225">
@@ -13714,7 +13714,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H225" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I225" t="n">
         <v>101.38</v>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="R225" t="inlineStr"/>
       <c r="S225" t="n">
-        <v>1039.229652552361</v>
+        <v>77.94117344852729</v>
       </c>
     </row>
     <row r="226">
@@ -13773,7 +13773,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H226" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I226" t="n">
         <v>101.29</v>
@@ -13802,7 +13802,7 @@
       </c>
       <c r="R226" t="inlineStr"/>
       <c r="S226" t="n">
-        <v>1074.104077170012</v>
+        <v>80.27229434330836</v>
       </c>
     </row>
     <row r="227">
@@ -13832,7 +13832,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H227" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I227" t="n">
         <v>101.18</v>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="R227" t="inlineStr"/>
       <c r="S227" t="n">
-        <v>1031.519729760745</v>
+        <v>77.43161892236398</v>
       </c>
     </row>
     <row r="228">
@@ -13891,7 +13891,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H228" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I228" t="n">
         <v>101.16</v>
@@ -13920,7 +13920,7 @@
       </c>
       <c r="R228" t="inlineStr"/>
       <c r="S228" t="n">
-        <v>1001.038586375303</v>
+        <v>75.21034082298527</v>
       </c>
     </row>
     <row r="229">
@@ -13950,7 +13950,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H229" t="n">
-        <v>75</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="I229" t="n">
         <v>101.1</v>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="R229" t="inlineStr"/>
       <c r="S229" t="n">
-        <v>990.7779239635008</v>
+        <v>74.90658886587724</v>
       </c>
     </row>
     <row r="230">
@@ -14009,7 +14009,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H230" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I230" t="n">
         <v>101.13</v>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="R230" t="inlineStr"/>
       <c r="S230" t="n">
-        <v>993.1411979604082</v>
+        <v>75.35627180033272</v>
       </c>
     </row>
     <row r="231">
@@ -14068,7 +14068,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H231" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I231" t="n">
         <v>101.08</v>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="R231" t="inlineStr"/>
       <c r="S231" t="n">
-        <v>968.9553495734127</v>
+        <v>73.6542579809911</v>
       </c>
     </row>
     <row r="232">
@@ -14127,7 +14127,7 @@
         <v>29.5</v>
       </c>
       <c r="H232" t="n">
-        <v>73.8</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="I232" t="n">
         <v>101.01</v>
@@ -14156,7 +14156,7 @@
       </c>
       <c r="R232" t="inlineStr"/>
       <c r="S232" t="n">
-        <v>902.8847732259633</v>
+        <v>69.00759512702996</v>
       </c>
     </row>
     <row r="233">
@@ -14186,7 +14186,7 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H233" t="n">
-        <v>73.8</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="I233" t="n">
         <v>101.06</v>
@@ -14215,7 +14215,7 @@
       </c>
       <c r="R233" t="inlineStr"/>
       <c r="S233" t="n">
-        <v>894.2442541903486</v>
+        <v>68.3471991861762</v>
       </c>
     </row>
     <row r="234">
@@ -14245,7 +14245,7 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H234" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I234" t="n">
         <v>101.25</v>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="R234" t="inlineStr"/>
       <c r="S234" t="n">
-        <v>981.764125872553</v>
+        <v>73.56609866783683</v>
       </c>
     </row>
     <row r="235">
@@ -14304,7 +14304,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H235" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I235" t="n">
         <v>101.19</v>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="R235" t="inlineStr"/>
       <c r="S235" t="n">
-        <v>1034.802588423399</v>
+        <v>76.79460210367692</v>
       </c>
     </row>
     <row r="236">
@@ -14363,7 +14363,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H236" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I236" t="n">
         <v>100.9</v>
@@ -14392,7 +14392,7 @@
       </c>
       <c r="R236" t="inlineStr"/>
       <c r="S236" t="n">
-        <v>1022.885892923646</v>
+        <v>76.0428985324814</v>
       </c>
     </row>
     <row r="237">
@@ -14422,7 +14422,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H237" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I237" t="n">
         <v>100.84</v>
@@ -14451,7 +14451,7 @@
       </c>
       <c r="R237" t="inlineStr"/>
       <c r="S237" t="n">
-        <v>996.6289391673162</v>
+        <v>74.74616300707196</v>
       </c>
     </row>
     <row r="238">
@@ -14481,7 +14481,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H238" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I238" t="n">
         <v>100.95</v>
@@ -14510,7 +14510,7 @@
       </c>
       <c r="R238" t="inlineStr"/>
       <c r="S238" t="n">
-        <v>991.4315335059257</v>
+        <v>74.48854075409218</v>
       </c>
     </row>
     <row r="239">
@@ -14540,7 +14540,7 @@
         <v>30.16666666666667</v>
       </c>
       <c r="H239" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I239" t="n">
         <v>101.02</v>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="R239" t="inlineStr"/>
       <c r="S239" t="n">
-        <v>978.299410345001</v>
+        <v>72.9196784187388</v>
       </c>
     </row>
     <row r="240">
@@ -14599,7 +14599,7 @@
         <v>30.66666666666667</v>
       </c>
       <c r="H240" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I240" t="n">
         <v>101.1</v>
@@ -14628,7 +14628,7 @@
       </c>
       <c r="R240" t="inlineStr"/>
       <c r="S240" t="n">
-        <v>995.4309921661938</v>
+        <v>73.48900960536469</v>
       </c>
     </row>
     <row r="241">
@@ -14658,7 +14658,7 @@
         <v>30</v>
       </c>
       <c r="H241" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I241" t="n">
         <v>101.12</v>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="R241" t="inlineStr"/>
       <c r="S241" t="n">
-        <v>1012.871417824817</v>
+        <v>75.10159657362723</v>
       </c>
     </row>
     <row r="242">
@@ -14717,7 +14717,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H242" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I242" t="n">
         <v>100.98</v>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="R242" t="inlineStr"/>
       <c r="S242" t="n">
-        <v>1052.253615134954</v>
+        <v>77.81861582166634</v>
       </c>
     </row>
     <row r="243">
@@ -14776,7 +14776,7 @@
         <v>30.16666666666667</v>
       </c>
       <c r="H243" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I243" t="n">
         <v>101.03</v>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="R243" t="inlineStr"/>
       <c r="S243" t="n">
-        <v>1011.637349805807</v>
+        <v>74.8797960960579</v>
       </c>
     </row>
     <row r="244">
@@ -14835,7 +14835,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H244" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I244" t="n">
         <v>101.03</v>
@@ -14864,7 +14864,7 @@
       </c>
       <c r="R244" t="inlineStr"/>
       <c r="S244" t="n">
-        <v>1025.388312684163</v>
+        <v>75.63529099893755</v>
       </c>
     </row>
     <row r="245">
@@ -14894,7 +14894,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H245" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I245" t="n">
         <v>100.97</v>
@@ -14923,7 +14923,7 @@
       </c>
       <c r="R245" t="inlineStr"/>
       <c r="S245" t="n">
-        <v>1021.122197201882</v>
+        <v>75.38569679764555</v>
       </c>
     </row>
     <row r="246">
@@ -14953,7 +14953,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H246" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I246" t="n">
         <v>100.98</v>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="R246" t="inlineStr"/>
       <c r="S246" t="n">
-        <v>1074.101388864772</v>
+        <v>79.57237769552218</v>
       </c>
     </row>
     <row r="247">
@@ -15012,7 +15012,7 @@
         <v>29</v>
       </c>
       <c r="H247" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I247" t="n">
         <v>101.05</v>
@@ -15041,7 +15041,7 @@
       </c>
       <c r="R247" t="inlineStr"/>
       <c r="S247" t="n">
-        <v>1100.29093460028</v>
+        <v>81.16030189981169</v>
       </c>
     </row>
     <row r="248">
@@ -15071,7 +15071,7 @@
         <v>30.33333333333333</v>
       </c>
       <c r="H248" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I248" t="n">
         <v>101.11</v>
@@ -15100,7 +15100,7 @@
       </c>
       <c r="R248" t="inlineStr"/>
       <c r="S248" t="n">
-        <v>1062.094156400786</v>
+        <v>77.67427533987859</v>
       </c>
     </row>
     <row r="249">
@@ -15130,7 +15130,7 @@
         <v>30.38888888888889</v>
       </c>
       <c r="H249" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I249" t="n">
         <v>101.1</v>
@@ -15159,7 +15159,7 @@
       </c>
       <c r="R249" t="inlineStr"/>
       <c r="S249" t="n">
-        <v>1045.628055850574</v>
+        <v>76.66593431795314</v>
       </c>
     </row>
     <row r="250">
@@ -15189,7 +15189,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H250" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I250" t="n">
         <v>100.89</v>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="R250" t="inlineStr"/>
       <c r="S250" t="n">
-        <v>1086.486439189638</v>
+        <v>79.6616899462414</v>
       </c>
     </row>
     <row r="251">
@@ -15248,7 +15248,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H251" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I251" t="n">
         <v>100.7</v>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="R251" t="inlineStr"/>
       <c r="S251" t="n">
-        <v>1025.388312684163</v>
+        <v>75.63529099893755</v>
       </c>
     </row>
     <row r="252">
@@ -15307,7 +15307,7 @@
         <v>27</v>
       </c>
       <c r="H252" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I252" t="n">
         <v>100.81</v>
@@ -15336,7 +15336,7 @@
       </c>
       <c r="R252" t="inlineStr"/>
       <c r="S252" t="n">
-        <v>1151.525072049985</v>
+        <v>86.21040149215604</v>
       </c>
     </row>
     <row r="253">
@@ -15366,7 +15366,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H253" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I253" t="n">
         <v>100.98</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="R253" t="inlineStr"/>
       <c r="S253" t="n">
-        <v>1056.578458126164</v>
+        <v>78.75437782749603</v>
       </c>
     </row>
     <row r="254">
@@ -15425,7 +15425,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H254" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I254" t="n">
         <v>101.07</v>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="R254" t="inlineStr"/>
       <c r="S254" t="n">
-        <v>1074.418956153722</v>
+        <v>79.11542166433661</v>
       </c>
     </row>
     <row r="255">
@@ -15484,7 +15484,7 @@
         <v>30</v>
       </c>
       <c r="H255" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I255" t="n">
         <v>101.13</v>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="R255" t="inlineStr"/>
       <c r="S255" t="n">
-        <v>1021.376296925809</v>
+        <v>75.60065755365044</v>
       </c>
     </row>
     <row r="256">
@@ -15543,7 +15543,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H256" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I256" t="n">
         <v>101.23</v>
@@ -15572,7 +15572,7 @@
       </c>
       <c r="R256" t="inlineStr"/>
       <c r="S256" t="n">
-        <v>1021.122197201882</v>
+        <v>75.38569679764555</v>
       </c>
     </row>
     <row r="257">
@@ -15602,7 +15602,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H257" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I257" t="n">
         <v>101.21</v>
@@ -15631,7 +15631,7 @@
       </c>
       <c r="R257" t="inlineStr"/>
       <c r="S257" t="n">
-        <v>1051.939875535062</v>
+        <v>77.59380286986706</v>
       </c>
     </row>
     <row r="258">
@@ -15661,7 +15661,7 @@
         <v>30</v>
       </c>
       <c r="H258" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I258" t="n">
         <v>101.27</v>
@@ -15690,7 +15690,7 @@
       </c>
       <c r="R258" t="inlineStr"/>
       <c r="S258" t="n">
-        <v>1038.568461437327</v>
+        <v>76.60749282143078</v>
       </c>
     </row>
     <row r="259">
@@ -15720,7 +15720,7 @@
         <v>29.94444444444445</v>
       </c>
       <c r="H259" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I259" t="n">
         <v>101.24</v>
@@ -15749,7 +15749,7 @@
       </c>
       <c r="R259" t="inlineStr"/>
       <c r="S259" t="n">
-        <v>982.5873597730384</v>
+        <v>73.36819275457988</v>
       </c>
     </row>
     <row r="260">
@@ -15779,7 +15779,7 @@
         <v>30</v>
       </c>
       <c r="H260" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I260" t="n">
         <v>101.28</v>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="R260" t="inlineStr"/>
       <c r="S260" t="n">
-        <v>1000.227122538912</v>
+        <v>74.35841095751618</v>
       </c>
     </row>
     <row r="261">
@@ -15838,7 +15838,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H261" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I261" t="n">
         <v>101.24</v>
@@ -15867,7 +15867,7 @@
       </c>
       <c r="R261" t="inlineStr"/>
       <c r="S261" t="n">
-        <v>1027.661234306573</v>
+        <v>75.86844986076927</v>
       </c>
     </row>
     <row r="262">
@@ -15897,7 +15897,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H262" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I262" t="n">
         <v>101.26</v>
@@ -15926,7 +15926,7 @@
       </c>
       <c r="R262" t="inlineStr"/>
       <c r="S262" t="n">
-        <v>1033.966042909074</v>
+        <v>76.13664949118146</v>
       </c>
     </row>
     <row r="263">
@@ -15956,7 +15956,7 @@
         <v>30.44444444444444</v>
       </c>
       <c r="H263" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I263" t="n">
         <v>101.15</v>
@@ -15985,7 +15985,7 @@
       </c>
       <c r="R263" t="inlineStr"/>
       <c r="S263" t="n">
-        <v>1042.302136531606</v>
+        <v>76.42207636996855</v>
       </c>
     </row>
     <row r="264">
@@ -16015,7 +16015,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H264" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I264" t="n">
         <v>101.09</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="R264" t="inlineStr"/>
       <c r="S264" t="n">
-        <v>1072.362361884102</v>
+        <v>79.10021822376164</v>
       </c>
     </row>
     <row r="265">
@@ -16074,7 +16074,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H265" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I265" t="n">
         <v>101.17</v>
@@ -16103,7 +16103,7 @@
       </c>
       <c r="R265" t="inlineStr"/>
       <c r="S265" t="n">
-        <v>1092.973013233536</v>
+        <v>81.11153624886722</v>
       </c>
     </row>
     <row r="266">
@@ -16133,7 +16133,7 @@
         <v>29.5</v>
       </c>
       <c r="H266" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I266" t="n">
         <v>101.24</v>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="R266" t="inlineStr"/>
       <c r="S266" t="n">
-        <v>1064.480539711282</v>
+        <v>78.58668378139625</v>
       </c>
     </row>
     <row r="267">
@@ -16192,7 +16192,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H267" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I267" t="n">
         <v>101.25</v>
@@ -16221,7 +16221,7 @@
       </c>
       <c r="R267" t="inlineStr"/>
       <c r="S267" t="n">
-        <v>1103.370087622481</v>
+        <v>82.38684170232206</v>
       </c>
     </row>
     <row r="268">
@@ -16251,7 +16251,7 @@
         <v>29</v>
       </c>
       <c r="H268" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I268" t="n">
         <v>101.18</v>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="R268" t="inlineStr"/>
       <c r="S268" t="n">
-        <v>1095.713187679385</v>
+        <v>80.89247532756268</v>
       </c>
     </row>
     <row r="269">
@@ -16310,7 +16310,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H269" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I269" t="n">
         <v>101.24</v>
@@ -16339,7 +16339,7 @@
       </c>
       <c r="R269" t="inlineStr"/>
       <c r="S269" t="n">
-        <v>1133.343585065758</v>
+        <v>85.07508490145142</v>
       </c>
     </row>
     <row r="270">
@@ -16369,7 +16369,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H270" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I270" t="n">
         <v>101.24</v>
@@ -16398,7 +16398,7 @@
       </c>
       <c r="R270" t="inlineStr"/>
       <c r="S270" t="n">
-        <v>1099.004623183489</v>
+        <v>81.63033532640961</v>
       </c>
     </row>
     <row r="271">
@@ -16428,7 +16428,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H271" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I271" t="n">
         <v>101.11</v>
@@ -16457,7 +16457,7 @@
       </c>
       <c r="R271" t="inlineStr"/>
       <c r="S271" t="n">
-        <v>1141.017878713209</v>
+        <v>84.60329998692526</v>
       </c>
     </row>
     <row r="272">
@@ -16487,7 +16487,7 @@
         <v>28.22222222222222</v>
       </c>
       <c r="H272" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I272" t="n">
         <v>100.94</v>
@@ -16516,7 +16516,7 @@
       </c>
       <c r="R272" t="inlineStr"/>
       <c r="S272" t="n">
-        <v>1122.677622085897</v>
+        <v>83.24342100323437</v>
       </c>
     </row>
     <row r="273">
@@ -16546,7 +16546,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H273" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I273" t="n">
         <v>100.91</v>
@@ -16575,7 +16575,7 @@
       </c>
       <c r="R273" t="inlineStr"/>
       <c r="S273" t="n">
-        <v>1098.60463578569</v>
+        <v>81.3876454523386</v>
       </c>
     </row>
     <row r="274">
@@ -16605,7 +16605,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H274" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I274" t="n">
         <v>100.97</v>
@@ -16634,7 +16634,7 @@
       </c>
       <c r="R274" t="inlineStr"/>
       <c r="S274" t="n">
-        <v>1072.715798873689</v>
+        <v>79.33188105766433</v>
       </c>
     </row>
     <row r="275">
@@ -16664,7 +16664,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H275" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I275" t="n">
         <v>100.9</v>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="R275" t="inlineStr"/>
       <c r="S275" t="n">
-        <v>1106.116795783851</v>
+        <v>80.96270094828063</v>
       </c>
     </row>
     <row r="276">
@@ -16723,7 +16723,7 @@
         <v>29.5</v>
       </c>
       <c r="H276" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I276" t="n">
         <v>100.86</v>
@@ -16752,7 +16752,7 @@
       </c>
       <c r="R276" t="inlineStr"/>
       <c r="S276" t="n">
-        <v>1118.900185575998</v>
+        <v>81.75912848761824</v>
       </c>
     </row>
     <row r="277">
@@ -16782,7 +16782,7 @@
         <v>29.83333333333334</v>
       </c>
       <c r="H277" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I277" t="n">
         <v>101.05</v>
@@ -16811,7 +16811,7 @@
       </c>
       <c r="R277" t="inlineStr"/>
       <c r="S277" t="n">
-        <v>1088.544936596781</v>
+        <v>79.67652105670791</v>
       </c>
     </row>
     <row r="278">
@@ -16841,7 +16841,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H278" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I278" t="n">
         <v>101.02</v>
@@ -16870,7 +16870,7 @@
       </c>
       <c r="R278" t="inlineStr"/>
       <c r="S278" t="n">
-        <v>1129.973587291132</v>
+        <v>83.78439651682474</v>
       </c>
     </row>
     <row r="279">
@@ -16900,7 +16900,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H279" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I279" t="n">
         <v>101.11</v>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="R279" t="inlineStr"/>
       <c r="S279" t="n">
-        <v>1103.616238587709</v>
+        <v>81.90138956515896</v>
       </c>
     </row>
     <row r="280">
@@ -16959,7 +16959,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H280" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I280" t="n">
         <v>101.02</v>
@@ -16988,7 +16988,7 @@
       </c>
       <c r="R280" t="inlineStr"/>
       <c r="S280" t="n">
-        <v>1121.320864852329</v>
+        <v>82.49808552384474</v>
       </c>
     </row>
     <row r="281">
@@ -17018,7 +17018,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H281" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I281" t="n">
         <v>100.8</v>
@@ -17047,7 +17047,7 @@
       </c>
       <c r="R281" t="inlineStr"/>
       <c r="S281" t="n">
-        <v>1111.149967903621</v>
+        <v>81.47003131758783</v>
       </c>
     </row>
     <row r="282">
@@ -17077,7 +17077,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H282" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I282" t="n">
         <v>100.75</v>
@@ -17106,7 +17106,7 @@
       </c>
       <c r="R282" t="inlineStr"/>
       <c r="S282" t="n">
-        <v>1101.540434735506</v>
+        <v>80.69651558027829</v>
       </c>
     </row>
     <row r="283">
@@ -17136,7 +17136,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H283" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I283" t="n">
         <v>100.84</v>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="R283" t="inlineStr"/>
       <c r="S283" t="n">
-        <v>1112.192634434906</v>
+        <v>81.47687313402821</v>
       </c>
     </row>
     <row r="284">
@@ -17195,7 +17195,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H284" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I284" t="n">
         <v>100.96</v>
@@ -17224,7 +17224,7 @@
       </c>
       <c r="R284" t="inlineStr"/>
       <c r="S284" t="n">
-        <v>1091.798394055937</v>
+        <v>80.39516598571866</v>
       </c>
     </row>
     <row r="285">
@@ -17254,7 +17254,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H285" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I285" t="n">
         <v>101.02</v>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="R285" t="inlineStr"/>
       <c r="S285" t="n">
-        <v>1112.192634434906</v>
+        <v>81.47687313402821</v>
       </c>
     </row>
     <row r="286">
@@ -17313,7 +17313,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H286" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I286" t="n">
         <v>101.13</v>
@@ -17342,7 +17342,7 @@
       </c>
       <c r="R286" t="inlineStr"/>
       <c r="S286" t="n">
-        <v>1098.015287792364</v>
+        <v>80.4382707930242</v>
       </c>
     </row>
     <row r="287">
@@ -17372,7 +17372,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H287" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I287" t="n">
         <v>101.08</v>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="R287" t="inlineStr"/>
       <c r="S287" t="n">
-        <v>1078.277842236591</v>
+        <v>80.30130432615792</v>
       </c>
     </row>
     <row r="288">
@@ -17431,7 +17431,7 @@
         <v>29</v>
       </c>
       <c r="H288" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I288" t="n">
         <v>100.98</v>
@@ -17460,7 +17460,7 @@
       </c>
       <c r="R288" t="inlineStr"/>
       <c r="S288" t="n">
-        <v>1037.660959269861</v>
+        <v>77.48044844704545</v>
       </c>
     </row>
     <row r="289">
@@ -17490,7 +17490,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H289" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I289" t="n">
         <v>100.95</v>
@@ -17519,7 +17519,7 @@
       </c>
       <c r="R289" t="inlineStr"/>
       <c r="S289" t="n">
-        <v>1069.260003129591</v>
+        <v>79.76968024217949</v>
       </c>
     </row>
     <row r="290">
@@ -17549,7 +17549,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H290" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I290" t="n">
         <v>100.95</v>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="R290" t="inlineStr"/>
       <c r="S290" t="n">
-        <v>1062.698486057309</v>
+        <v>79.49001513400394</v>
       </c>
     </row>
     <row r="291">
@@ -17608,7 +17608,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H291" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I291" t="n">
         <v>100.94</v>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="R291" t="inlineStr"/>
       <c r="S291" t="n">
-        <v>1094.409417430722</v>
+        <v>81.36006651221719</v>
       </c>
     </row>
     <row r="292">
@@ -17667,7 +17667,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H292" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I292" t="n">
         <v>101.08</v>
@@ -17696,7 +17696,7 @@
       </c>
       <c r="R292" t="inlineStr"/>
       <c r="S292" t="n">
-        <v>1115.232927765145</v>
+        <v>83.19938441819129</v>
       </c>
     </row>
     <row r="293">
@@ -17726,7 +17726,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H293" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I293" t="n">
         <v>101.12</v>
@@ -17755,7 +17755,7 @@
       </c>
       <c r="R293" t="inlineStr"/>
       <c r="S293" t="n">
-        <v>1098.20217974027</v>
+        <v>81.14638732059414</v>
       </c>
     </row>
     <row r="294">
@@ -17785,7 +17785,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H294" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I294" t="n">
         <v>101.09</v>
@@ -17814,7 +17814,7 @@
       </c>
       <c r="R294" t="inlineStr"/>
       <c r="S294" t="n">
-        <v>1121.168783551499</v>
+        <v>82.98713952951324</v>
       </c>
     </row>
     <row r="295">
@@ -17844,7 +17844,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H295" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I295" t="n">
         <v>101.08</v>
@@ -17873,7 +17873,7 @@
       </c>
       <c r="R295" t="inlineStr"/>
       <c r="S295" t="n">
-        <v>1105.505451707484</v>
+        <v>81.19502389686227</v>
       </c>
     </row>
     <row r="296">
@@ -17903,7 +17903,7 @@
         <v>28.5</v>
       </c>
       <c r="H296" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I296" t="n">
         <v>101.2</v>
@@ -17932,7 +17932,7 @@
       </c>
       <c r="R296" t="inlineStr"/>
       <c r="S296" t="n">
-        <v>1132.694705713246</v>
+        <v>83.55048777112953</v>
       </c>
     </row>
     <row r="297">
@@ -17962,7 +17962,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H297" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I297" t="n">
         <v>101.27</v>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="R297" t="inlineStr"/>
       <c r="S297" t="n">
-        <v>1106.135036338429</v>
+        <v>82.15995822751032</v>
       </c>
     </row>
     <row r="298">
@@ -18021,7 +18021,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H298" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I298" t="n">
         <v>101.2</v>
@@ -18050,7 +18050,7 @@
       </c>
       <c r="R298" t="inlineStr"/>
       <c r="S298" t="n">
-        <v>1068.550493525943</v>
+        <v>79.99840324580818</v>
       </c>
     </row>
     <row r="299">
@@ -18080,7 +18080,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H299" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I299" t="n">
         <v>101.14</v>
@@ -18109,7 +18109,7 @@
       </c>
       <c r="R299" t="inlineStr"/>
       <c r="S299" t="n">
-        <v>1058.232862789164</v>
+        <v>79.22596058706345</v>
       </c>
     </row>
     <row r="300">
@@ -18139,7 +18139,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H300" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I300" t="n">
         <v>101.04</v>
@@ -18168,7 +18168,7 @@
       </c>
       <c r="R300" t="inlineStr"/>
       <c r="S300" t="n">
-        <v>1108.244311052227</v>
+        <v>82.17323116136851</v>
       </c>
     </row>
     <row r="301">
@@ -18198,7 +18198,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H301" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I301" t="n">
         <v>101.16</v>
@@ -18227,7 +18227,7 @@
       </c>
       <c r="R301" t="inlineStr"/>
       <c r="S301" t="n">
-        <v>1099.652402225967</v>
+        <v>81.39453102539849</v>
       </c>
     </row>
     <row r="302">
@@ -18257,7 +18257,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H302" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I302" t="n">
         <v>101.25</v>
@@ -18286,7 +18286,7 @@
       </c>
       <c r="R302" t="inlineStr"/>
       <c r="S302" t="n">
-        <v>1086.984563429672</v>
+        <v>80.59688004600673</v>
       </c>
     </row>
     <row r="303">
@@ -18316,7 +18316,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H303" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I303" t="n">
         <v>101.19</v>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="R303" t="inlineStr"/>
       <c r="S303" t="n">
-        <v>1041.747968358107</v>
+        <v>77.51291826915114</v>
       </c>
     </row>
     <row r="304">
@@ -18375,7 +18375,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H304" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I304" t="n">
         <v>101.11</v>
@@ -18404,7 +18404,7 @@
       </c>
       <c r="R304" t="inlineStr"/>
       <c r="S304" t="n">
-        <v>1169.411573380485</v>
+        <v>86.03622657643325</v>
       </c>
     </row>
     <row r="305">
@@ -18434,7 +18434,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H305" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I305" t="n">
         <v>101.05</v>
@@ -18463,7 +18463,7 @@
       </c>
       <c r="R305" t="inlineStr"/>
       <c r="S305" t="n">
-        <v>1159.134924123613</v>
+        <v>86.2472818431517</v>
       </c>
     </row>
     <row r="306">
@@ -18493,7 +18493,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H306" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I306" t="n">
         <v>101</v>
@@ -18522,7 +18522,7 @@
       </c>
       <c r="R306" t="inlineStr"/>
       <c r="S306" t="n">
-        <v>1112.024205359561</v>
+        <v>81.95506066839712</v>
       </c>
     </row>
     <row r="307">
@@ -18552,7 +18552,7 @@
         <v>27.61111111111111</v>
       </c>
       <c r="H307" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I307" t="n">
         <v>100.89</v>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="R307" t="inlineStr"/>
       <c r="S307" t="n">
-        <v>1168.349132843289</v>
+        <v>86.55450913912428</v>
       </c>
     </row>
     <row r="308">
@@ -18611,7 +18611,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H308" t="n">
-        <v>79.40000000000001</v>
+        <v>26.33333333333334</v>
       </c>
       <c r="I308" t="n">
         <v>100.73</v>
@@ -18640,7 +18640,7 @@
       </c>
       <c r="R308" t="inlineStr"/>
       <c r="S308" t="n">
-        <v>1222.201375889584</v>
+        <v>88.93017372054447</v>
       </c>
     </row>
     <row r="309">
@@ -18670,7 +18670,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H309" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I309" t="n">
         <v>100.75</v>
@@ -18699,7 +18699,7 @@
       </c>
       <c r="R309" t="inlineStr"/>
       <c r="S309" t="n">
-        <v>1148.448268619152</v>
+        <v>85.15424271793781</v>
       </c>
     </row>
     <row r="310">
@@ -18729,7 +18729,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H310" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I310" t="n">
         <v>100.84</v>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="R310" t="inlineStr"/>
       <c r="S310" t="n">
-        <v>1107.400515322387</v>
+        <v>81.68472294123093</v>
       </c>
     </row>
     <row r="311">
@@ -18788,7 +18788,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H311" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I311" t="n">
         <v>100.86</v>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="R311" t="inlineStr"/>
       <c r="S311" t="n">
-        <v>1100.456278271418</v>
+        <v>81.88120365702932</v>
       </c>
     </row>
     <row r="312">
@@ -18847,7 +18847,7 @@
         <v>27.88888888888889</v>
       </c>
       <c r="H312" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I312" t="n">
         <v>100.86</v>
@@ -18876,7 +18876,7 @@
       </c>
       <c r="R312" t="inlineStr"/>
       <c r="S312" t="n">
-        <v>1144.726284346878</v>
+        <v>84.87826794330155</v>
       </c>
     </row>
     <row r="313">
@@ -18906,7 +18906,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H313" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I313" t="n">
         <v>101.07</v>
@@ -18935,7 +18935,7 @@
       </c>
       <c r="R313" t="inlineStr"/>
       <c r="S313" t="n">
-        <v>1153.261337723002</v>
+        <v>85.4367638830894</v>
       </c>
     </row>
     <row r="314">
@@ -18965,7 +18965,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H314" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I314" t="n">
         <v>101.22</v>
@@ -18994,7 +18994,7 @@
       </c>
       <c r="R314" t="inlineStr"/>
       <c r="S314" t="n">
-        <v>1191.477420748049</v>
+        <v>88.80936597262871</v>
       </c>
     </row>
     <row r="315">
@@ -19024,7 +19024,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H315" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I315" t="n">
         <v>101.08</v>
@@ -19053,7 +19053,7 @@
       </c>
       <c r="R315" t="inlineStr"/>
       <c r="S315" t="n">
-        <v>1138.392599871517</v>
+        <v>84.33524699051318</v>
       </c>
     </row>
     <row r="316">
@@ -19083,7 +19083,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H316" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I316" t="n">
         <v>100.97</v>
@@ -19112,7 +19112,7 @@
       </c>
       <c r="R316" t="inlineStr"/>
       <c r="S316" t="n">
-        <v>1154.853306670624</v>
+        <v>85.70378656378007</v>
       </c>
     </row>
     <row r="317">
@@ -19142,7 +19142,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H317" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I317" t="n">
         <v>100.93</v>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="R317" t="inlineStr"/>
       <c r="S317" t="n">
-        <v>1135.297564951426</v>
+        <v>83.81484433602301</v>
       </c>
     </row>
     <row r="318">
@@ -19201,7 +19201,7 @@
         <v>29</v>
       </c>
       <c r="H318" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I318" t="n">
         <v>100.88</v>
@@ -19230,7 +19230,7 @@
       </c>
       <c r="R318" t="inlineStr"/>
       <c r="S318" t="n">
-        <v>1142.227922650657</v>
+        <v>83.60587061767411</v>
       </c>
     </row>
     <row r="319">
@@ -19260,7 +19260,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H319" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I319" t="n">
         <v>100.79</v>
@@ -19289,7 +19289,7 @@
       </c>
       <c r="R319" t="inlineStr"/>
       <c r="S319" t="n">
-        <v>1134.332880225475</v>
+        <v>83.31228504992862</v>
       </c>
     </row>
     <row r="320">
@@ -19319,7 +19319,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H320" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I320" t="n">
         <v>100.79</v>
@@ -19348,7 +19348,7 @@
       </c>
       <c r="R320" t="inlineStr"/>
       <c r="S320" t="n">
-        <v>1144.800661642662</v>
+        <v>84.37065238864032</v>
       </c>
     </row>
     <row r="321">
@@ -19378,7 +19378,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H321" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I321" t="n">
         <v>100.93</v>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="R321" t="inlineStr"/>
       <c r="S321" t="n">
-        <v>1158.110864993717</v>
+        <v>85.20480816962925</v>
       </c>
     </row>
     <row r="322">
@@ -19437,7 +19437,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H322" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I322" t="n">
         <v>100.96</v>
@@ -19466,7 +19466,7 @@
       </c>
       <c r="R322" t="inlineStr"/>
       <c r="S322" t="n">
-        <v>1096.90146535065</v>
+        <v>81.61670213481958</v>
       </c>
     </row>
     <row r="323">
@@ -19496,7 +19496,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H323" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I323" t="n">
         <v>100.98</v>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="R323" t="inlineStr"/>
       <c r="S323" t="n">
-        <v>1191.174444990701</v>
+        <v>87.18853265280492</v>
       </c>
     </row>
     <row r="324">
@@ -19555,7 +19555,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H324" t="n">
-        <v>79.2</v>
+        <v>26.22222222222222</v>
       </c>
       <c r="I324" t="n">
         <v>100.96</v>
@@ -19584,7 +19584,7 @@
       </c>
       <c r="R324" t="inlineStr"/>
       <c r="S324" t="n">
-        <v>1196.578527055933</v>
+        <v>87.21303858065332</v>
       </c>
     </row>
     <row r="325">
@@ -19614,7 +19614,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H325" t="n">
-        <v>79.3</v>
+        <v>26.27777777777778</v>
       </c>
       <c r="I325" t="n">
         <v>101.07</v>
@@ -19643,7 +19643,7 @@
       </c>
       <c r="R325" t="inlineStr"/>
       <c r="S325" t="n">
-        <v>1201.531220699559</v>
+        <v>87.50000762902829</v>
       </c>
     </row>
     <row r="326">
@@ -19673,7 +19673,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H326" t="n">
-        <v>79.09999999999999</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="I326" t="n">
         <v>101.25</v>
@@ -19702,7 +19702,7 @@
       </c>
       <c r="R326" t="inlineStr"/>
       <c r="S326" t="n">
-        <v>1199.368319358575</v>
+        <v>87.49041817082504</v>
       </c>
     </row>
     <row r="327">
@@ -19732,7 +19732,7 @@
         <v>28.5</v>
       </c>
       <c r="H327" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I327" t="n">
         <v>101.39</v>
@@ -19761,7 +19761,7 @@
       </c>
       <c r="R327" t="inlineStr"/>
       <c r="S327" t="n">
-        <v>1171.001806770535</v>
+        <v>85.78510834900234</v>
       </c>
     </row>
     <row r="328">
@@ -19791,7 +19791,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H328" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I328" t="n">
         <v>101.31</v>
@@ -19820,7 +19820,7 @@
       </c>
       <c r="R328" t="inlineStr"/>
       <c r="S328" t="n">
-        <v>1159.713307036591</v>
+        <v>84.95813680448798</v>
       </c>
     </row>
     <row r="329">
@@ -19850,7 +19850,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H329" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I329" t="n">
         <v>101.1</v>
@@ -19879,7 +19879,7 @@
       </c>
       <c r="R329" t="inlineStr"/>
       <c r="S329" t="n">
-        <v>1136.446186810623</v>
+        <v>83.32476182751013</v>
       </c>
     </row>
     <row r="330">
@@ -19909,7 +19909,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H330" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I330" t="n">
         <v>101.03</v>
@@ -19938,7 +19938,7 @@
       </c>
       <c r="R330" t="inlineStr"/>
       <c r="S330" t="n">
-        <v>1129.724685661647</v>
+        <v>82.5500852724374</v>
       </c>
     </row>
     <row r="331">
@@ -19968,7 +19968,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H331" t="n">
-        <v>79.5</v>
+        <v>26.38888888888889</v>
       </c>
       <c r="I331" t="n">
         <v>101.13</v>
@@ -19997,7 +19997,7 @@
       </c>
       <c r="R331" t="inlineStr"/>
       <c r="S331" t="n">
-        <v>1169.298729021229</v>
+        <v>85.00915798516108</v>
       </c>
     </row>
     <row r="332">
@@ -20027,7 +20027,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H332" t="n">
-        <v>79.59999999999999</v>
+        <v>26.44444444444444</v>
       </c>
       <c r="I332" t="n">
         <v>101.21</v>
@@ -20056,7 +20056,7 @@
       </c>
       <c r="R332" t="inlineStr"/>
       <c r="S332" t="n">
-        <v>1181.706895519821</v>
+        <v>85.83894936809467</v>
       </c>
     </row>
     <row r="333">
@@ -20086,7 +20086,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H333" t="n">
-        <v>79.59999999999999</v>
+        <v>26.44444444444444</v>
       </c>
       <c r="I333" t="n">
         <v>101.14</v>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="R333" t="inlineStr"/>
       <c r="S333" t="n">
-        <v>1170.3613533543</v>
+        <v>85.01481148484123</v>
       </c>
     </row>
     <row r="334">
@@ -20145,7 +20145,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H334" t="n">
-        <v>79.40000000000001</v>
+        <v>26.33333333333334</v>
       </c>
       <c r="I334" t="n">
         <v>101.09</v>
@@ -20174,7 +20174,7 @@
       </c>
       <c r="R334" t="inlineStr"/>
       <c r="S334" t="n">
-        <v>1187.194797405999</v>
+        <v>86.38301482568461</v>
       </c>
     </row>
     <row r="335">
@@ -20204,7 +20204,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H335" t="n">
-        <v>79.40000000000001</v>
+        <v>26.33333333333334</v>
       </c>
       <c r="I335" t="n">
         <v>101.05</v>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="R335" t="inlineStr"/>
       <c r="S335" t="n">
-        <v>1164.484852830315</v>
+        <v>84.73058720112111</v>
       </c>
     </row>
     <row r="336">
@@ -20263,7 +20263,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H336" t="n">
-        <v>79.2</v>
+        <v>26.22222222222222</v>
       </c>
       <c r="I336" t="n">
         <v>101.08</v>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="R336" t="inlineStr"/>
       <c r="S336" t="n">
-        <v>1147.508083474729</v>
+        <v>83.63652237845569</v>
       </c>
     </row>
     <row r="337">
@@ -20322,7 +20322,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H337" t="n">
-        <v>79.3</v>
+        <v>26.27777777777778</v>
       </c>
       <c r="I337" t="n">
         <v>101.12</v>
@@ -20351,7 +20351,7 @@
       </c>
       <c r="R337" t="inlineStr"/>
       <c r="S337" t="n">
-        <v>1163.423143635908</v>
+        <v>84.72483460284957</v>
       </c>
     </row>
     <row r="338">
@@ -20381,7 +20381,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H338" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I338" t="n">
         <v>101.2</v>
@@ -20410,7 +20410,7 @@
       </c>
       <c r="R338" t="inlineStr"/>
       <c r="S338" t="n">
-        <v>1095.065921212585</v>
+        <v>81.12548776826245</v>
       </c>
     </row>
     <row r="339">
@@ -20440,7 +20440,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H339" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I339" t="n">
         <v>101.16</v>
@@ -20469,7 +20469,7 @@
       </c>
       <c r="R339" t="inlineStr"/>
       <c r="S339" t="n">
-        <v>1193.091786926031</v>
+        <v>88.54153446769406</v>
       </c>
     </row>
     <row r="340">
@@ -20499,7 +20499,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H340" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I340" t="n">
         <v>101.03</v>
@@ -20528,7 +20528,7 @@
       </c>
       <c r="R340" t="inlineStr"/>
       <c r="S340" t="n">
-        <v>1177.584963293384</v>
+        <v>86.86170914267325</v>
       </c>
     </row>
     <row r="341">
@@ -20558,7 +20558,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H341" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I341" t="n">
         <v>100.94</v>
@@ -20587,7 +20587,7 @@
       </c>
       <c r="R341" t="inlineStr"/>
       <c r="S341" t="n">
-        <v>1171.574292238659</v>
+        <v>88.17999987208526</v>
       </c>
     </row>
     <row r="342">
@@ -20617,7 +20617,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H342" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I342" t="n">
         <v>100.96</v>
@@ -20646,7 +20646,7 @@
       </c>
       <c r="R342" t="inlineStr"/>
       <c r="S342" t="n">
-        <v>1079.29583628499</v>
+        <v>81.74579929951244</v>
       </c>
     </row>
     <row r="343">
@@ -20676,7 +20676,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H343" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I343" t="n">
         <v>101.08</v>
@@ -20705,7 +20705,7 @@
       </c>
       <c r="R343" t="inlineStr"/>
       <c r="S343" t="n">
-        <v>1151.105970173867</v>
+        <v>85.42568983457159</v>
       </c>
     </row>
     <row r="344">
@@ -20735,7 +20735,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H344" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I344" t="n">
         <v>101.16</v>
@@ -20764,7 +20764,7 @@
       </c>
       <c r="R344" t="inlineStr"/>
       <c r="S344" t="n">
-        <v>1107.362938391978</v>
+        <v>82.9041467124583</v>
       </c>
     </row>
     <row r="345">
@@ -20794,7 +20794,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H345" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I345" t="n">
         <v>101.09</v>
@@ -20823,7 +20823,7 @@
       </c>
       <c r="R345" t="inlineStr"/>
       <c r="S345" t="n">
-        <v>1093.359581260942</v>
+        <v>81.35316260289514</v>
       </c>
     </row>
     <row r="346">
@@ -20853,7 +20853,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H346" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I346" t="n">
         <v>101.05</v>
@@ -20882,7 +20882,7 @@
       </c>
       <c r="R346" t="inlineStr"/>
       <c r="S346" t="n">
-        <v>1157.042811687287</v>
+        <v>84.69025287751009</v>
       </c>
     </row>
     <row r="347">
@@ -20912,7 +20912,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H347" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I347" t="n">
         <v>100.95</v>
@@ -20941,7 +20941,7 @@
       </c>
       <c r="R347" t="inlineStr"/>
       <c r="S347" t="n">
-        <v>1099.466027194922</v>
+        <v>80.68232690453317</v>
       </c>
     </row>
     <row r="348">
@@ -20971,7 +20971,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H348" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I348" t="n">
         <v>100.79</v>
@@ -21000,7 +21000,7 @@
       </c>
       <c r="R348" t="inlineStr"/>
       <c r="S348" t="n">
-        <v>1122.961052775685</v>
+        <v>82.26574461891413</v>
       </c>
     </row>
     <row r="349">
@@ -21030,7 +21030,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H349" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I349" t="n">
         <v>100.74</v>
@@ -21059,7 +21059,7 @@
       </c>
       <c r="R349" t="inlineStr"/>
       <c r="S349" t="n">
-        <v>1128.675770277458</v>
+        <v>82.54359749711162</v>
       </c>
     </row>
     <row r="350">
@@ -21089,7 +21089,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H350" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I350" t="n">
         <v>100.81</v>
@@ -21118,7 +21118,7 @@
       </c>
       <c r="R350" t="inlineStr"/>
       <c r="S350" t="n">
-        <v>1120.268394011245</v>
+        <v>82.49156984973011</v>
       </c>
     </row>
     <row r="351">
@@ -21148,7 +21148,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H351" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I351" t="n">
         <v>100.9</v>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="R351" t="inlineStr"/>
       <c r="S351" t="n">
-        <v>1131.633195611989</v>
+        <v>83.54431742285402</v>
       </c>
     </row>
     <row r="352">
@@ -21207,7 +21207,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H352" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I352" t="n">
         <v>100.9</v>
@@ -21236,7 +21236,7 @@
       </c>
       <c r="R352" t="inlineStr"/>
       <c r="S352" t="n">
-        <v>1149.608481159102</v>
+        <v>84.14609381438189</v>
       </c>
     </row>
     <row r="353">
@@ -21266,7 +21266,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H353" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I353" t="n">
         <v>100.84</v>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="R353" t="inlineStr"/>
       <c r="S353" t="n">
-        <v>1128.572263980019</v>
+        <v>83.03158718617446</v>
       </c>
     </row>
     <row r="354">
@@ -21325,7 +21325,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H354" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I354" t="n">
         <v>100.75</v>
@@ -21354,7 +21354,7 @@
       </c>
       <c r="R354" t="inlineStr"/>
       <c r="S354" t="n">
-        <v>1150.128056367744</v>
+        <v>84.40006833379513</v>
       </c>
     </row>
     <row r="355">
@@ -21384,7 +21384,7 @@
         <v>28.5</v>
       </c>
       <c r="H355" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I355" t="n">
         <v>100.73</v>
@@ -21413,7 +21413,7 @@
       </c>
       <c r="R355" t="inlineStr"/>
       <c r="S355" t="n">
-        <v>1161.323254508124</v>
+        <v>85.2216077118036</v>
       </c>
     </row>
     <row r="356">
@@ -21443,7 +21443,7 @@
         <v>28</v>
       </c>
       <c r="H356" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I356" t="n">
         <v>100.86</v>
@@ -21472,7 +21472,7 @@
       </c>
       <c r="R356" t="inlineStr"/>
       <c r="S356" t="n">
-        <v>1185.757724251942</v>
+        <v>87.16395805974874</v>
       </c>
     </row>
     <row r="357">
@@ -21502,7 +21502,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H357" t="n">
-        <v>79</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="I357" t="n">
         <v>101.04</v>
@@ -21531,7 +21531,7 @@
       </c>
       <c r="R357" t="inlineStr"/>
       <c r="S357" t="n">
-        <v>1145.397411913454</v>
+        <v>83.62427163118588</v>
       </c>
     </row>
     <row r="358">
@@ -21561,7 +21561,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H358" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I358" t="n">
         <v>101.13</v>
@@ -21590,7 +21590,7 @@
       </c>
       <c r="R358" t="inlineStr"/>
       <c r="S358" t="n">
-        <v>1150.669248152973</v>
+        <v>84.1520494840555</v>
       </c>
     </row>
     <row r="359">
@@ -21620,7 +21620,7 @@
         <v>28.22222222222222</v>
       </c>
       <c r="H359" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I359" t="n">
         <v>101.18</v>
@@ -21649,7 +21649,7 @@
       </c>
       <c r="R359" t="inlineStr"/>
       <c r="S359" t="n">
-        <v>1104.024072234014</v>
+        <v>82.14667105434974</v>
       </c>
     </row>
     <row r="360">
@@ -21679,7 +21679,7 @@
         <v>28.5</v>
       </c>
       <c r="H360" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I360" t="n">
         <v>101.15</v>
@@ -21708,7 +21708,7 @@
       </c>
       <c r="R360" t="inlineStr"/>
       <c r="S360" t="n">
-        <v>1077.234991550273</v>
+        <v>80.29405756010547</v>
       </c>
     </row>
     <row r="361">
@@ -21738,7 +21738,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H361" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I361" t="n">
         <v>101.1</v>
@@ -21767,7 +21767,7 @@
       </c>
       <c r="R361" t="inlineStr"/>
       <c r="S361" t="n">
-        <v>1094.01967324781</v>
+        <v>81.11851385866538</v>
       </c>
     </row>
     <row r="362">
@@ -21797,7 +21797,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H362" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I362" t="n">
         <v>101.09</v>
@@ -21826,7 +21826,7 @@
       </c>
       <c r="R362" t="inlineStr"/>
       <c r="S362" t="n">
-        <v>1050.212163487131</v>
+        <v>77.80259833920627</v>
       </c>
     </row>
     <row r="363">
@@ -21856,7 +21856,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H363" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I363" t="n">
         <v>101.17</v>
@@ -21885,7 +21885,7 @@
       </c>
       <c r="R363" t="inlineStr"/>
       <c r="S363" t="n">
-        <v>1049.190877719838</v>
+        <v>77.79458343929039</v>
       </c>
     </row>
     <row r="364">
@@ -21915,7 +21915,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H364" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I364" t="n">
         <v>101.13</v>
@@ -21944,7 +21944,7 @@
       </c>
       <c r="R364" t="inlineStr"/>
       <c r="S364" t="n">
-        <v>1090.367479521589</v>
+        <v>80.15190903748231</v>
       </c>
     </row>
     <row r="365">
@@ -21974,7 +21974,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H365" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I365" t="n">
         <v>101.04</v>
@@ -22003,7 +22003,7 @@
       </c>
       <c r="R365" t="inlineStr"/>
       <c r="S365" t="n">
-        <v>1081.333046384603</v>
+        <v>79.62454444266105</v>
       </c>
     </row>
     <row r="366">
@@ -22033,7 +22033,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H366" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I366" t="n">
         <v>101.05</v>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="R366" t="inlineStr"/>
       <c r="S366" t="n">
-        <v>1187.522376798251</v>
+        <v>87.97491565330368</v>
       </c>
     </row>
     <row r="367">
@@ -22092,7 +22092,7 @@
         <v>26.11111111111111</v>
       </c>
       <c r="H367" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I367" t="n">
         <v>101.18</v>
@@ -22121,7 +22121,7 @@
       </c>
       <c r="R367" t="inlineStr"/>
       <c r="S367" t="n">
-        <v>1203.337718738986</v>
+        <v>90.24911252584272</v>
       </c>
     </row>
     <row r="368">
@@ -22151,7 +22151,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H368" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I368" t="n">
         <v>101.19</v>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="R368" t="inlineStr"/>
       <c r="S368" t="n">
-        <v>1097.15717576292</v>
+        <v>81.13942449675409</v>
       </c>
     </row>
     <row r="369">
@@ -22210,7 +22210,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H369" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I369" t="n">
         <v>101.14</v>
@@ -22239,7 +22239,7 @@
       </c>
       <c r="R369" t="inlineStr"/>
       <c r="S369" t="n">
-        <v>1057.609668762173</v>
+        <v>78.76210800492721</v>
       </c>
     </row>
     <row r="370">
@@ -22269,7 +22269,7 @@
         <v>28.5</v>
       </c>
       <c r="H370" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I370" t="n">
         <v>101.16</v>
@@ -22298,7 +22298,7 @@
       </c>
       <c r="R370" t="inlineStr"/>
       <c r="S370" t="n">
-        <v>1113.944402343744</v>
+        <v>82.45240226238813</v>
       </c>
     </row>
     <row r="371">
@@ -22328,7 +22328,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H371" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I371" t="n">
         <v>101.07</v>
@@ -22357,7 +22357,7 @@
       </c>
       <c r="R371" t="inlineStr"/>
       <c r="S371" t="n">
-        <v>1167.263803017604</v>
+        <v>86.54936222554953</v>
       </c>
     </row>
     <row r="372">
@@ -22387,7 +22387,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H372" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I372" t="n">
         <v>101.07</v>
@@ -22416,7 +22416,7 @@
       </c>
       <c r="R372" t="inlineStr"/>
       <c r="S372" t="n">
-        <v>1102.563337138425</v>
+        <v>81.89466452698267</v>
       </c>
     </row>
     <row r="373">
@@ -22446,7 +22446,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H373" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I373" t="n">
         <v>101.11</v>
@@ -22475,7 +22475,7 @@
       </c>
       <c r="R373" t="inlineStr"/>
       <c r="S373" t="n">
-        <v>1124.344354514274</v>
+        <v>83.00620908821568</v>
       </c>
     </row>
     <row r="374">
@@ -22505,7 +22505,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H374" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I374" t="n">
         <v>100.97</v>
@@ -22534,7 +22534,7 @@
       </c>
       <c r="R374" t="inlineStr"/>
       <c r="S374" t="n">
-        <v>1259.53805821924</v>
+        <v>93.31003490874741</v>
       </c>
     </row>
     <row r="375">
@@ -22564,7 +22564,7 @@
         <v>28.22222222222222</v>
       </c>
       <c r="H375" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I375" t="n">
         <v>100.95</v>
@@ -22593,7 +22593,7 @@
       </c>
       <c r="R375" t="inlineStr"/>
       <c r="S375" t="n">
-        <v>1108.6625485882</v>
+        <v>82.41966603732192</v>
       </c>
     </row>
     <row r="376">
@@ -22623,7 +22623,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H376" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I376" t="n">
         <v>101.17</v>
@@ -22652,7 +22652,7 @@
       </c>
       <c r="R376" t="inlineStr"/>
       <c r="S376" t="n">
-        <v>1091.925942481033</v>
+        <v>81.10455493639054</v>
       </c>
     </row>
     <row r="377">
@@ -22682,7 +22682,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H377" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I377" t="n">
         <v>101.28</v>
@@ -22711,7 +22711,7 @@
       </c>
       <c r="R377" t="inlineStr"/>
       <c r="S377" t="n">
-        <v>1071.333472159909</v>
+        <v>79.09261058346026</v>
       </c>
     </row>
     <row r="378">
@@ -22741,7 +22741,7 @@
         <v>29.88888888888889</v>
       </c>
       <c r="H378" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I378" t="n">
         <v>101.25</v>
@@ -22770,7 +22770,7 @@
       </c>
       <c r="R378" t="inlineStr"/>
       <c r="S378" t="n">
-        <v>1062.779631907623</v>
+        <v>78.12395177167619</v>
       </c>
     </row>
     <row r="379">
@@ -22800,7 +22800,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H379" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I379" t="n">
         <v>101.17</v>
@@ -22829,7 +22829,7 @@
       </c>
       <c r="R379" t="inlineStr"/>
       <c r="S379" t="n">
-        <v>1104.463395727228</v>
+        <v>81.18808685343303</v>
       </c>
     </row>
     <row r="380">
@@ -22859,7 +22859,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H380" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I380" t="n">
         <v>101.21</v>
@@ -22888,7 +22888,7 @@
       </c>
       <c r="R380" t="inlineStr"/>
       <c r="S380" t="n">
-        <v>1136.446186810623</v>
+        <v>83.32476182751013</v>
       </c>
     </row>
     <row r="381">
@@ -22918,7 +22918,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H381" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I381" t="n">
         <v>101.26</v>
@@ -22947,7 +22947,7 @@
       </c>
       <c r="R381" t="inlineStr"/>
       <c r="S381" t="n">
-        <v>1091.540042297602</v>
+        <v>80.8642809849547</v>
       </c>
     </row>
     <row r="382">
@@ -22977,7 +22977,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H382" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I382" t="n">
         <v>101.29</v>
@@ -23006,7 +23006,7 @@
       </c>
       <c r="R382" t="inlineStr"/>
       <c r="S382" t="n">
-        <v>1102.378010035374</v>
+        <v>81.17420173752288</v>
       </c>
     </row>
     <row r="383">
@@ -23036,7 +23036,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H383" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I383" t="n">
         <v>101.28</v>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="R383" t="inlineStr"/>
       <c r="S383" t="n">
-        <v>1100.92026416168</v>
+        <v>80.92763451577322</v>
       </c>
     </row>
     <row r="384">
@@ -23095,7 +23095,7 @@
         <v>29</v>
       </c>
       <c r="H384" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I384" t="n">
         <v>101.21</v>
@@ -23124,7 +23124,7 @@
       </c>
       <c r="R384" t="inlineStr"/>
       <c r="S384" t="n">
-        <v>1059.670957028481</v>
+        <v>78.77755634386216</v>
       </c>
     </row>
     <row r="385">
@@ -23154,7 +23154,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H385" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I385" t="n">
         <v>101.29</v>
@@ -23183,7 +23183,7 @@
       </c>
       <c r="R385" t="inlineStr"/>
       <c r="S385" t="n">
-        <v>1086.225513783893</v>
+        <v>80.12280012286519</v>
       </c>
     </row>
     <row r="386">
@@ -23213,7 +23213,7 @@
         <v>28.5</v>
       </c>
       <c r="H386" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I386" t="n">
         <v>101.28</v>
@@ -23242,7 +23242,7 @@
       </c>
       <c r="R386" t="inlineStr"/>
       <c r="S386" t="n">
-        <v>1100.055578972537</v>
+        <v>81.63714647045396</v>
       </c>
     </row>
     <row r="387">
@@ -23272,7 +23272,7 @@
         <v>28</v>
       </c>
       <c r="H387" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I387" t="n">
         <v>101.18</v>
@@ -23301,7 +23301,7 @@
       </c>
       <c r="R387" t="inlineStr"/>
       <c r="S387" t="n">
-        <v>1109.078321181416</v>
+        <v>82.667569525799</v>
       </c>
     </row>
     <row r="388">
@@ -23331,7 +23331,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H388" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I388" t="n">
         <v>101.03</v>
@@ -23360,7 +23360,7 @@
       </c>
       <c r="R388" t="inlineStr"/>
       <c r="S388" t="n">
-        <v>1105.930179946263</v>
+        <v>81.43576769251062</v>
       </c>
     </row>
     <row r="389">
@@ -23390,7 +23390,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H389" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I389" t="n">
         <v>101.13</v>
@@ -23419,7 +23419,7 @@
       </c>
       <c r="R389" t="inlineStr"/>
       <c r="S389" t="n">
-        <v>1160.22017568085</v>
+        <v>86.25253872889452</v>
       </c>
     </row>
     <row r="390">
@@ -23449,7 +23449,7 @@
         <v>27.88888888888889</v>
       </c>
       <c r="H390" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I390" t="n">
         <v>101.24</v>
@@ -23478,7 +23478,7 @@
       </c>
       <c r="R390" t="inlineStr"/>
       <c r="S390" t="n">
-        <v>1106.956134717183</v>
+        <v>82.65460597982288</v>
       </c>
     </row>
     <row r="391">
@@ -23508,7 +23508,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H391" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I391" t="n">
         <v>101.33</v>
@@ -23537,7 +23537,7 @@
       </c>
       <c r="R391" t="inlineStr"/>
       <c r="S391" t="n">
-        <v>1074.101388864772</v>
+        <v>79.57237769552218</v>
       </c>
     </row>
     <row r="392">
@@ -23567,7 +23567,7 @@
         <v>29.83333333333334</v>
       </c>
       <c r="H392" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I392" t="n">
         <v>101.34</v>
@@ -23596,7 +23596,7 @@
       </c>
       <c r="R392" t="inlineStr"/>
       <c r="S392" t="n">
-        <v>1035.537430709661</v>
+        <v>76.58238311589498</v>
       </c>
     </row>
     <row r="393">
@@ -23626,7 +23626,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H393" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I393" t="n">
         <v>101.29</v>
@@ -23655,7 +23655,7 @@
       </c>
       <c r="R393" t="inlineStr"/>
       <c r="S393" t="n">
-        <v>1012.101200154684</v>
+        <v>75.30700322012233</v>
       </c>
     </row>
     <row r="394">
@@ -23685,7 +23685,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H394" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I394" t="n">
         <v>101.31</v>
@@ -23714,7 +23714,7 @@
       </c>
       <c r="R394" t="inlineStr"/>
       <c r="S394" t="n">
-        <v>996.4361755794652</v>
+        <v>74.53358381147561</v>
       </c>
     </row>
     <row r="395">
@@ -23744,7 +23744,7 @@
         <v>29.83333333333334</v>
       </c>
       <c r="H395" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I395" t="n">
         <v>101.4</v>
@@ -23773,7 +23773,7 @@
       </c>
       <c r="R395" t="inlineStr"/>
       <c r="S395" t="n">
-        <v>1014.108256973673</v>
+        <v>75.32452123290152</v>
       </c>
     </row>
     <row r="396">
@@ -23803,7 +23803,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H396" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I396" t="n">
         <v>101.3</v>
@@ -23832,7 +23832,7 @@
       </c>
       <c r="R396" t="inlineStr"/>
       <c r="S396" t="n">
-        <v>1051.939875535062</v>
+        <v>77.59380286986706</v>
       </c>
     </row>
     <row r="397">
@@ -23862,7 +23862,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H397" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I397" t="n">
         <v>101.29</v>
@@ -23891,7 +23891,7 @@
       </c>
       <c r="R397" t="inlineStr"/>
       <c r="S397" t="n">
-        <v>1071.683821114652</v>
+        <v>79.32434090132553</v>
       </c>
     </row>
     <row r="398">
@@ -23921,7 +23921,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H398" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I398" t="n">
         <v>101.29</v>
@@ -23950,7 +23950,7 @@
       </c>
       <c r="R398" t="inlineStr"/>
       <c r="S398" t="n">
-        <v>1041.461739796828</v>
+        <v>77.28878996693858</v>
       </c>
     </row>
     <row r="399">
@@ -23980,7 +23980,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H399" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I399" t="n">
         <v>101.33</v>
@@ -24009,7 +24009,7 @@
       </c>
       <c r="R399" t="inlineStr"/>
       <c r="S399" t="n">
-        <v>1062.698486057309</v>
+        <v>79.49001513400394</v>
       </c>
     </row>
     <row r="400">
@@ -24039,7 +24039,7 @@
         <v>29.5</v>
       </c>
       <c r="H400" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I400" t="n">
         <v>101.24</v>
@@ -24068,7 +24068,7 @@
       </c>
       <c r="R400" t="inlineStr"/>
       <c r="S400" t="n">
-        <v>995.4358826605725</v>
+        <v>74.52458412485315</v>
       </c>
     </row>
     <row r="401">
@@ -24098,7 +24098,7 @@
         <v>30.05555555555555</v>
       </c>
       <c r="H401" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I401" t="n">
         <v>101.21</v>
@@ -24127,7 +24127,7 @@
       </c>
       <c r="R401" t="inlineStr"/>
       <c r="S401" t="n">
-        <v>1026.656529462653</v>
+        <v>75.85986435093078</v>
       </c>
     </row>
     <row r="402">
@@ -24157,7 +24157,7 @@
         <v>29.83333333333334</v>
       </c>
       <c r="H402" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I402" t="n">
         <v>101.17</v>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="R402" t="inlineStr"/>
       <c r="S402" t="n">
-        <v>1031.221048771329</v>
+        <v>76.32935050962951</v>
       </c>
     </row>
     <row r="403">
@@ -24216,7 +24216,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H403" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I403" t="n">
         <v>101.14</v>
@@ -24245,7 +24245,7 @@
       </c>
       <c r="R403" t="inlineStr"/>
       <c r="S403" t="n">
-        <v>1036.263352708781</v>
+        <v>76.37156235481805</v>
       </c>
     </row>
     <row r="404">
@@ -24275,7 +24275,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H404" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I404" t="n">
         <v>101.14</v>
@@ -24304,7 +24304,7 @@
       </c>
       <c r="R404" t="inlineStr"/>
       <c r="S404" t="n">
-        <v>1069.602096701883</v>
+        <v>78.62546487425047</v>
       </c>
     </row>
     <row r="405">
@@ -24334,7 +24334,7 @@
         <v>29</v>
       </c>
       <c r="H405" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I405" t="n">
         <v>101.19</v>
@@ -24363,7 +24363,7 @@
       </c>
       <c r="R405" t="inlineStr"/>
       <c r="S405" t="n">
-        <v>1104.884940257595</v>
+        <v>81.42890404182424</v>
       </c>
     </row>
     <row r="406">
@@ -24393,7 +24393,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H406" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I406" t="n">
         <v>101.1</v>
@@ -24422,7 +24422,7 @@
       </c>
       <c r="R406" t="inlineStr"/>
       <c r="S406" t="n">
-        <v>1120.863895922727</v>
+        <v>82.25257082026538</v>
       </c>
     </row>
     <row r="407">
@@ -24452,7 +24452,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H407" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I407" t="n">
         <v>101.07</v>
@@ -24481,7 +24481,7 @@
       </c>
       <c r="R407" t="inlineStr"/>
       <c r="S407" t="n">
-        <v>1097.797273394166</v>
+        <v>80.90655015331157</v>
       </c>
     </row>
     <row r="408">
@@ -24511,7 +24511,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H408" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I408" t="n">
         <v>101.15</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="R408" t="inlineStr"/>
       <c r="S408" t="n">
-        <v>1012.101200154684</v>
+        <v>75.30700322012233</v>
       </c>
     </row>
     <row r="409">
@@ -24570,7 +24570,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H409" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I409" t="n">
         <v>101.2</v>
@@ -24599,7 +24599,7 @@
       </c>
       <c r="R409" t="inlineStr"/>
       <c r="S409" t="n">
-        <v>1024.903637511285</v>
+        <v>76.05998276174249</v>
       </c>
     </row>
     <row r="410">
@@ -24629,7 +24629,7 @@
         <v>29.5</v>
       </c>
       <c r="H410" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I410" t="n">
         <v>101.16</v>
@@ -24658,7 +24658,7 @@
       </c>
       <c r="R410" t="inlineStr"/>
       <c r="S410" t="n">
-        <v>1068.927800698747</v>
+        <v>78.84687611765941</v>
       </c>
     </row>
     <row r="411">
@@ -24688,7 +24688,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H411" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I411" t="n">
         <v>101.13</v>
@@ -24717,7 +24717,7 @@
       </c>
       <c r="R411" t="inlineStr"/>
       <c r="S411" t="n">
-        <v>1092.011491023749</v>
+        <v>81.82721590449862</v>
       </c>
     </row>
     <row r="412">
@@ -24747,7 +24747,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H412" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I412" t="n">
         <v>101.25</v>
@@ -24776,7 +24776,7 @@
       </c>
       <c r="R412" t="inlineStr"/>
       <c r="S412" t="n">
-        <v>1172.706993669013</v>
+        <v>87.10469739019874</v>
       </c>
     </row>
     <row r="413">
@@ -24806,7 +24806,7 @@
         <v>30</v>
       </c>
       <c r="H413" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I413" t="n">
         <v>101.35</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="R413" t="inlineStr"/>
       <c r="S413" t="n">
-        <v>1034.247510108021</v>
+        <v>76.35469038316135</v>
       </c>
     </row>
     <row r="414">
@@ -24865,7 +24865,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H414" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I414" t="n">
         <v>101.36</v>
@@ -24894,7 +24894,7 @@
       </c>
       <c r="R414" t="inlineStr"/>
       <c r="S414" t="n">
-        <v>1034.52636446869</v>
+        <v>76.57400474812613</v>
       </c>
     </row>
     <row r="415">
@@ -24924,7 +24924,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H415" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I415" t="n">
         <v>101.35</v>
@@ -24953,7 +24953,7 @@
       </c>
       <c r="R415" t="inlineStr"/>
       <c r="S415" t="n">
-        <v>1075.135676311895</v>
+        <v>79.57984176175968</v>
       </c>
     </row>
     <row r="416">
@@ -24983,7 +24983,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H416" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I416" t="n">
         <v>101.35</v>
@@ -25012,7 +25012,7 @@
       </c>
       <c r="R416" t="inlineStr"/>
       <c r="S416" t="n">
-        <v>1084.426302571368</v>
+        <v>79.64684336533345</v>
       </c>
     </row>
     <row r="417">
@@ -25042,7 +25042,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H417" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I417" t="n">
         <v>101.3</v>
@@ -25071,7 +25071,7 @@
       </c>
       <c r="R417" t="inlineStr"/>
       <c r="S417" t="n">
-        <v>1099.466027194922</v>
+        <v>80.68232690453317</v>
       </c>
     </row>
     <row r="418">
@@ -25101,7 +25101,7 @@
         <v>30</v>
       </c>
       <c r="H418" t="n">
-        <v>79</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="I418" t="n">
         <v>101.36</v>
@@ -25130,7 +25130,7 @@
       </c>
       <c r="R418" t="inlineStr"/>
       <c r="S418" t="n">
-        <v>1091.629587047215</v>
+        <v>79.69873875948065</v>
       </c>
     </row>
     <row r="419">
@@ -25160,7 +25160,7 @@
         <v>29.83333333333334</v>
       </c>
       <c r="H419" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I419" t="n">
         <v>101.44</v>
@@ -25189,7 +25189,7 @@
       </c>
       <c r="R419" t="inlineStr"/>
       <c r="S419" t="n">
-        <v>1061.759868459425</v>
+        <v>78.11604972274124</v>
       </c>
     </row>
     <row r="420">
@@ -25219,7 +25219,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H420" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I420" t="n">
         <v>101.32</v>
@@ -25248,7 +25248,7 @@
       </c>
       <c r="R420" t="inlineStr"/>
       <c r="S420" t="n">
-        <v>1097.15717576292</v>
+        <v>81.13942449675409</v>
       </c>
     </row>
     <row r="421">
@@ -25278,7 +25278,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H421" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I421" t="n">
         <v>101.23</v>
@@ -25307,7 +25307,7 @@
       </c>
       <c r="R421" t="inlineStr"/>
       <c r="S421" t="n">
-        <v>1059.990009855067</v>
+        <v>79.00866526991891</v>
       </c>
     </row>
     <row r="422">
@@ -25337,7 +25337,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H422" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I422" t="n">
         <v>101.24</v>
@@ -25366,7 +25366,7 @@
       </c>
       <c r="R422" t="inlineStr"/>
       <c r="S422" t="n">
-        <v>1028.452469271238</v>
+        <v>76.52364546481604</v>
       </c>
     </row>
     <row r="423">
@@ -25396,7 +25396,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H423" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I423" t="n">
         <v>101.26</v>
@@ -25425,7 +25425,7 @@
       </c>
       <c r="R423" t="inlineStr"/>
       <c r="S423" t="n">
-        <v>1154.853306670624</v>
+        <v>85.70378656378007</v>
       </c>
     </row>
     <row r="424">
@@ -25455,7 +25455,7 @@
         <v>27.5</v>
       </c>
       <c r="H424" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I424" t="n">
         <v>101.02</v>
@@ -25484,7 +25484,7 @@
       </c>
       <c r="R424" t="inlineStr"/>
       <c r="S424" t="n">
-        <v>1175.976291268996</v>
+        <v>87.11954996048973</v>
       </c>
     </row>
     <row r="425">
@@ -25514,7 +25514,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H425" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I425" t="n">
         <v>101.01</v>
@@ -25543,7 +25543,7 @@
       </c>
       <c r="R425" t="inlineStr"/>
       <c r="S425" t="n">
-        <v>1095.065921212585</v>
+        <v>81.12548776826245</v>
       </c>
     </row>
     <row r="426">
@@ -25573,7 +25573,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H426" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I426" t="n">
         <v>101.07</v>
@@ -25602,7 +25602,7 @@
       </c>
       <c r="R426" t="inlineStr"/>
       <c r="S426" t="n">
-        <v>1181.991925472941</v>
+        <v>87.41331389096125</v>
       </c>
     </row>
     <row r="427">
@@ -25632,7 +25632,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H427" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I427" t="n">
         <v>101.16</v>
@@ -25661,7 +25661,7 @@
       </c>
       <c r="R427" t="inlineStr"/>
       <c r="S427" t="n">
-        <v>1162.389262799623</v>
+        <v>86.26304371956176</v>
       </c>
     </row>
     <row r="428">
@@ -25691,7 +25691,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H428" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I428" t="n">
         <v>101.12</v>
@@ -25720,7 +25720,7 @@
       </c>
       <c r="R428" t="inlineStr"/>
       <c r="S428" t="n">
-        <v>1164.555306293922</v>
+        <v>85.75266061826839</v>
       </c>
     </row>
     <row r="429">
@@ -25750,7 +25750,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H429" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I429" t="n">
         <v>101.09</v>
@@ -25779,7 +25779,7 @@
       </c>
       <c r="R429" t="inlineStr"/>
       <c r="S429" t="n">
-        <v>1135.653270974073</v>
+        <v>84.57415644591927</v>
       </c>
     </row>
     <row r="430">
@@ -25809,7 +25809,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H430" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I430" t="n">
         <v>101.14</v>
@@ -25838,7 +25838,7 @@
       </c>
       <c r="R430" t="inlineStr"/>
       <c r="S430" t="n">
-        <v>1116.813250156295</v>
+        <v>81.74563258792664</v>
       </c>
     </row>
     <row r="431">
@@ -25868,7 +25868,7 @@
         <v>28.5</v>
       </c>
       <c r="H431" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I431" t="n">
         <v>101.18</v>
@@ -25897,7 +25897,7 @@
       </c>
       <c r="R431" t="inlineStr"/>
       <c r="S431" t="n">
-        <v>1166.153992594653</v>
+        <v>85.50295193461875</v>
       </c>
     </row>
     <row r="432">
@@ -25927,7 +25927,7 @@
         <v>29</v>
       </c>
       <c r="H432" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I432" t="n">
         <v>101.21</v>
@@ -25956,7 +25956,7 @@
       </c>
       <c r="R432" t="inlineStr"/>
       <c r="S432" t="n">
-        <v>1114.121914613689</v>
+        <v>81.96844264366217</v>
       </c>
     </row>
     <row r="433">
@@ -25986,7 +25986,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H433" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I433" t="n">
         <v>101.1</v>
@@ -26015,7 +26015,7 @@
       </c>
       <c r="R433" t="inlineStr"/>
       <c r="S433" t="n">
-        <v>1106.54708140331</v>
+        <v>81.20195726721701</v>
       </c>
     </row>
     <row r="434">
@@ -26045,7 +26045,7 @@
         <v>28</v>
       </c>
       <c r="H434" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I434" t="n">
         <v>101.22</v>
@@ -26074,7 +26074,7 @@
       </c>
       <c r="R434" t="inlineStr"/>
       <c r="S434" t="n">
-        <v>1180.836630750899</v>
+        <v>86.87679361625499</v>
       </c>
     </row>
     <row r="435">
@@ -26104,7 +26104,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H435" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I435" t="n">
         <v>101.27</v>
@@ -26133,7 +26133,7 @@
       </c>
       <c r="R435" t="inlineStr"/>
       <c r="S435" t="n">
-        <v>1135.653270974073</v>
+        <v>84.57415644591927</v>
       </c>
     </row>
     <row r="436">
@@ -26163,7 +26163,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H436" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I436" t="n">
         <v>101.14</v>
@@ -26192,7 +26192,7 @@
       </c>
       <c r="R436" t="inlineStr"/>
       <c r="S436" t="n">
-        <v>1078.600063813053</v>
+        <v>79.8362702435019</v>
       </c>
     </row>
     <row r="437">
@@ -26222,7 +26222,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H437" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I437" t="n">
         <v>101.2</v>
@@ -26251,7 +26251,7 @@
       </c>
       <c r="R437" t="inlineStr"/>
       <c r="S437" t="n">
-        <v>1143.733795467539</v>
+        <v>84.36475955051391</v>
       </c>
     </row>
     <row r="438">
@@ -26281,7 +26281,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H438" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I438" t="n">
         <v>101.25</v>
@@ -26310,7 +26310,7 @@
       </c>
       <c r="R438" t="inlineStr"/>
       <c r="S438" t="n">
-        <v>1158.564031138947</v>
+        <v>86.50808328611042</v>
       </c>
     </row>
     <row r="439">
@@ -26340,7 +26340,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H439" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I439" t="n">
         <v>101.19</v>
@@ -26369,7 +26369,7 @@
       </c>
       <c r="R439" t="inlineStr"/>
       <c r="S439" t="n">
-        <v>1163.47920525156</v>
+        <v>85.74724218523528</v>
       </c>
     </row>
     <row r="440">
@@ -26399,7 +26399,7 @@
         <v>27</v>
       </c>
       <c r="H440" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I440" t="n">
         <v>101.28</v>
@@ -26428,7 +26428,7 @@
       </c>
       <c r="R440" t="inlineStr"/>
       <c r="S440" t="n">
-        <v>1221.161647847565</v>
+        <v>90.31008091886191</v>
       </c>
     </row>
     <row r="441">
@@ -26458,7 +26458,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H441" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I441" t="n">
         <v>101.2</v>
@@ -26487,7 +26487,7 @@
       </c>
       <c r="R441" t="inlineStr"/>
       <c r="S441" t="n">
-        <v>1056.888306010701</v>
+        <v>78.98568769203459</v>
       </c>
     </row>
     <row r="442">
@@ -26517,7 +26517,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H442" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I442" t="n">
         <v>101.15</v>
@@ -26546,7 +26546,7 @@
       </c>
       <c r="R442" t="inlineStr"/>
       <c r="S442" t="n">
-        <v>1085.566637340852</v>
+        <v>80.35192499404064</v>
       </c>
     </row>
     <row r="443">
@@ -26576,7 +26576,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H443" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I443" t="n">
         <v>101.18</v>
@@ -26605,7 +26605,7 @@
       </c>
       <c r="R443" t="inlineStr"/>
       <c r="S443" t="n">
-        <v>1083.486130395227</v>
+        <v>80.33748097346012</v>
       </c>
     </row>
     <row r="444">
@@ -26635,7 +26635,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H444" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I444" t="n">
         <v>101.16</v>
@@ -26664,7 +26664,7 @@
       </c>
       <c r="R444" t="inlineStr"/>
       <c r="S444" t="n">
-        <v>1038.683251955144</v>
+        <v>77.48857213293444</v>
       </c>
     </row>
     <row r="445">
@@ -26694,7 +26694,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H445" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I445" t="n">
         <v>101.37</v>
@@ -26723,7 +26723,7 @@
       </c>
       <c r="R445" t="inlineStr"/>
       <c r="S445" t="n">
-        <v>1098.838689978281</v>
+        <v>80.91358198847784</v>
       </c>
     </row>
     <row r="446">
@@ -26753,7 +26753,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H446" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I446" t="n">
         <v>101.4</v>
@@ -26782,7 +26782,7 @@
       </c>
       <c r="R446" t="inlineStr"/>
       <c r="S446" t="n">
-        <v>1083.486130395227</v>
+        <v>80.33748097346012</v>
       </c>
     </row>
     <row r="447">
@@ -26812,7 +26812,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H447" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I447" t="n">
         <v>101.29</v>
@@ -26841,7 +26841,7 @@
       </c>
       <c r="R447" t="inlineStr"/>
       <c r="S447" t="n">
-        <v>1089.068924727759</v>
+        <v>80.61115876536367</v>
       </c>
     </row>
     <row r="448">
@@ -26871,7 +26871,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H448" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I448" t="n">
         <v>101.31</v>
@@ -26900,7 +26900,7 @@
       </c>
       <c r="R448" t="inlineStr"/>
       <c r="S448" t="n">
-        <v>1070.996165464002</v>
+        <v>79.54996209832028</v>
       </c>
     </row>
     <row r="449">
@@ -26930,7 +26930,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H449" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I449" t="n">
         <v>101.27</v>
@@ -26959,7 +26959,7 @@
       </c>
       <c r="R449" t="inlineStr"/>
       <c r="S449" t="n">
-        <v>1068.924062050398</v>
+        <v>79.53499884259865</v>
       </c>
     </row>
     <row r="450">
@@ -26989,7 +26989,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H450" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I450" t="n">
         <v>101.24</v>
@@ -27018,7 +27018,7 @@
       </c>
       <c r="R450" t="inlineStr"/>
       <c r="S450" t="n">
-        <v>1085.941773623583</v>
+        <v>80.58973503365706</v>
       </c>
     </row>
     <row r="451">
@@ -27048,7 +27048,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H451" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I451" t="n">
         <v>101.18</v>
@@ -27077,7 +27077,7 @@
       </c>
       <c r="R451" t="inlineStr"/>
       <c r="S451" t="n">
-        <v>1153.261337723002</v>
+        <v>85.4367638830894</v>
       </c>
     </row>
     <row r="452">
@@ -27107,7 +27107,7 @@
         <v>26.94444444444445</v>
       </c>
       <c r="H452" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I452" t="n">
         <v>101.03</v>
@@ -27136,7 +27136,7 @@
       </c>
       <c r="R452" t="inlineStr"/>
       <c r="S452" t="n">
-        <v>1204.839785665639</v>
+        <v>89.41337504754539</v>
       </c>
     </row>
     <row r="453">
@@ -27166,7 +27166,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H453" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I453" t="n">
         <v>101.23</v>
@@ -27195,7 +27195,7 @@
       </c>
       <c r="R453" t="inlineStr"/>
       <c r="S453" t="n">
-        <v>1263.680780033008</v>
+        <v>93.61693910631206</v>
       </c>
     </row>
     <row r="454">
@@ -27225,7 +27225,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H454" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I454" t="n">
         <v>101.44</v>
@@ -27254,7 +27254,7 @@
       </c>
       <c r="R454" t="inlineStr"/>
       <c r="S454" t="n">
-        <v>1145.301384424943</v>
+        <v>84.62655734423984</v>
       </c>
     </row>
     <row r="455">
@@ -27284,7 +27284,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H455" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I455" t="n">
         <v>101.51</v>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="R455" t="inlineStr"/>
       <c r="S455" t="n">
-        <v>1092.973013233536</v>
+        <v>81.11153624886722</v>
       </c>
     </row>
     <row r="456">
@@ -27343,7 +27343,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H456" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I456" t="n">
         <v>101.56</v>
@@ -27372,7 +27372,7 @@
       </c>
       <c r="R456" t="inlineStr"/>
       <c r="S456" t="n">
-        <v>1084.585057290341</v>
+        <v>81.05558186554006</v>
       </c>
     </row>
     <row r="457">
@@ -27402,7 +27402,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H457" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I457" t="n">
         <v>101.47</v>
@@ -27431,7 +27431,7 @@
       </c>
       <c r="R457" t="inlineStr"/>
       <c r="S457" t="n">
-        <v>1096.622546983534</v>
+        <v>82.10005353378661</v>
       </c>
     </row>
     <row r="458">
@@ -27461,7 +27461,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H458" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I458" t="n">
         <v>101.56</v>
@@ -27490,7 +27490,7 @@
       </c>
       <c r="R458" t="inlineStr"/>
       <c r="S458" t="n">
-        <v>1161.858544618178</v>
+        <v>85.99893126738766</v>
       </c>
     </row>
     <row r="459">
@@ -27520,7 +27520,7 @@
         <v>28.5</v>
       </c>
       <c r="H459" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I459" t="n">
         <v>101.56</v>
@@ -27549,7 +27549,7 @@
       </c>
       <c r="R459" t="inlineStr"/>
       <c r="S459" t="n">
-        <v>1142.170091274605</v>
+        <v>84.10431318810008</v>
       </c>
     </row>
     <row r="460">
@@ -27579,7 +27579,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H460" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I460" t="n">
         <v>101.47</v>
@@ -27608,7 +27608,7 @@
       </c>
       <c r="R460" t="inlineStr"/>
       <c r="S460" t="n">
-        <v>1132.217763911681</v>
+        <v>83.29979477471248</v>
       </c>
     </row>
     <row r="461">
@@ -27638,7 +27638,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H461" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I461" t="n">
         <v>101.34</v>
@@ -27667,7 +27667,7 @@
       </c>
       <c r="R461" t="inlineStr"/>
       <c r="S461" t="n">
-        <v>1112.457750249533</v>
+        <v>82.19973438852138</v>
       </c>
     </row>
     <row r="462">
@@ -27697,7 +27697,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H462" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I462" t="n">
         <v>101.26</v>
@@ -27726,7 +27726,7 @@
       </c>
       <c r="R462" t="inlineStr"/>
       <c r="S462" t="n">
-        <v>1149.577527521963</v>
+        <v>84.64976376750853</v>
       </c>
     </row>
     <row r="463">
@@ -27756,7 +27756,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H463" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I463" t="n">
         <v>101.28</v>
@@ -27785,7 +27785,7 @@
       </c>
       <c r="R463" t="inlineStr"/>
       <c r="S463" t="n">
-        <v>1136.36101164546</v>
+        <v>83.8209239684646</v>
       </c>
     </row>
   </sheetData>
